--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11025" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11019" uniqueCount="1366">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -4088,12 +4088,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:60.982.352/0003-83NF:972Data do pagamento:14/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBONISSONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBONISSONI@COLEGIOSMARISTAS.COM.BR</t>
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: NEVE DIST. DE PRODUTOS DE LIMPEZA (CNPJ: 111.910.050/0001-22)NF: 37519Data do pagamento: 15/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
@@ -13637,10 +13631,10 @@
         <v>101</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F149" s="0" t="s">
         <v>26</v>
@@ -36821,10 +36815,10 @@
         <v>24</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E512" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F512" s="0" t="s">
         <v>26</v>
@@ -36835,17 +36829,14 @@
       <c r="H512" s="0" t="n">
         <v>857982</v>
       </c>
+      <c r="I512" s="0" t="n">
+        <v>28298353</v>
+      </c>
       <c r="J512" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K512" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="L512" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="M512" s="0" t="s">
-        <v>281</v>
       </c>
       <c r="O512" s="0" t="n">
         <v>1</v>
@@ -38011,10 +38002,10 @@
         <v>88</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F531" s="0" t="s">
         <v>26</v>
@@ -38327,10 +38318,10 @@
         <v>95</v>
       </c>
       <c r="D536" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F536" s="0" t="s">
         <v>26</v>
@@ -39485,10 +39476,10 @@
         <v>123</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F554" s="0" t="s">
         <v>26</v>
@@ -42792,10 +42783,10 @@
         <v>65</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F607" s="0" t="s">
         <v>26</v>
@@ -54625,10 +54616,10 @@
         <v>24</v>
       </c>
       <c r="D795" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E795" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F795" s="0" t="s">
         <v>26</v>
@@ -54639,17 +54630,14 @@
       <c r="H795" s="0" t="n">
         <v>863288</v>
       </c>
+      <c r="I795" s="0" t="n">
+        <v>28298399</v>
+      </c>
       <c r="J795" s="0" t="s">
         <v>343</v>
       </c>
       <c r="K795" s="0" t="s">
         <v>344</v>
-      </c>
-      <c r="L795" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="M795" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="O795" s="0" t="n">
         <v>1</v>
@@ -54755,10 +54743,10 @@
         <v>548</v>
       </c>
       <c r="D797" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E797" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F797" s="0" t="s">
         <v>26</v>
@@ -54769,18 +54757,15 @@
       <c r="H797" s="0" t="n">
         <v>863305</v>
       </c>
+      <c r="I797" s="0" t="n">
+        <v>28297085</v>
+      </c>
       <c r="J797" s="0" t="s">
         <v>461</v>
       </c>
       <c r="K797" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="L797" s="0" t="s">
-        <v>1356</v>
-      </c>
-      <c r="M797" s="0" t="s">
-        <v>1357</v>
-      </c>
       <c r="O797" s="0" t="n">
         <v>1</v>
       </c>
@@ -54800,7 +54785,7 @@
         <v>58</v>
       </c>
       <c r="U797" s="0" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="V797" s="0" t="s">
         <v>33</v>
@@ -54841,10 +54826,10 @@
         <v>207</v>
       </c>
       <c r="L798" s="0" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="M798" s="0" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O798" s="0" t="n">
         <v>1</v>
@@ -54865,10 +54850,10 @@
         <v>199</v>
       </c>
       <c r="U798" s="0" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="V798" s="0" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="W798" s="0" t="s">
         <v>34</v>
@@ -54882,7 +54867,7 @@
         <v>46</v>
       </c>
       <c r="C799" s="0" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="D799" s="0" t="s">
         <v>36</v>
@@ -54906,10 +54891,10 @@
         <v>207</v>
       </c>
       <c r="L799" s="0" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="M799" s="0" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="O799" s="0" t="n">
         <v>1</v>
@@ -54930,10 +54915,10 @@
         <v>199</v>
       </c>
       <c r="U799" s="0" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="V799" s="0" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="W799" s="0" t="s">
         <v>34</v>
@@ -54995,7 +54980,7 @@
         <v>111</v>
       </c>
       <c r="U800" s="0" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="V800" s="0" t="s">
         <v>33</v>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11019" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11018" uniqueCount="1367">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -1468,10 +1468,10 @@
     <t xml:space="preserve">0053-42 - ABEC-CENTRO ADMINISTRATIVO</t>
   </si>
   <si>
-    <t xml:space="preserve">MAURICIO.BALBINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURICIO.BALBINO@GRUPOMARISTA.ORG.BR</t>
+    <t xml:space="preserve">RONY.A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RONY.A@COLEGIOSMARISTAS.COM.BR</t>
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: SCHAIDHAUER &amp; AGUIAR LTDA 15.015.299/0001-25NF: 1911Data do pagamento: 07/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
@@ -2995,6 +2995,12 @@
     <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ELIANA BUENO DA SILVA NF: 29100Data do pagamento: 25/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
+    <t xml:space="preserve">DBENKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBENKE@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADP não é de CR´s da GOF.</t>
   </si>
   <si>
@@ -4066,12 +4072,6 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ATACADAO DO PAPELEIRO COMERCIO DE PAPEIS LTDA (31.005.674/0001-02)NF: 2109Data do pagamento: 19/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">DBENKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBENKE@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: 1 SERVICO DE REGISTRO CIVIL DAS PESSOAS NATURAIS E O 13 TABELIONATO DE NOTAS DA COMARCA DE CURITIBANF: 492556 Data do pagamento: 13/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
@@ -4085,6 +4085,9 @@
   </si>
   <si>
     <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: THIAGO MARTINS MEIRA E CIA LTDANF:  46Data do pagamento:05/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reprovado por lançamento em duplicidade.</t>
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:60.982.352/0003-83NF:972Data do pagamento:14/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
@@ -23425,10 +23428,10 @@
         <v>125</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F300" s="0" t="s">
         <v>26</v>
@@ -23812,10 +23815,10 @@
         <v>95</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F306" s="0" t="s">
         <v>26</v>
@@ -38646,7 +38649,7 @@
         <v>371</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E541" s="0" t="s">
         <v>36</v>
@@ -38667,13 +38670,13 @@
         <v>462</v>
       </c>
       <c r="L541" s="0" t="s">
-        <v>117</v>
+        <v>991</v>
       </c>
       <c r="M541" s="0" t="s">
-        <v>118</v>
+        <v>992</v>
       </c>
       <c r="N541" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="O541" s="0" t="n">
         <v>1</v>
@@ -38682,7 +38685,7 @@
         <v>17057.84</v>
       </c>
       <c r="Q541" s="0" t="n">
-        <v>10372</v>
+        <v>62105</v>
       </c>
       <c r="R541" s="0" t="s">
         <v>29</v>
@@ -38694,10 +38697,10 @@
         <v>113</v>
       </c>
       <c r="U541" s="0" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="V541" s="0" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="W541" s="0" t="s">
         <v>34</v>
@@ -38756,7 +38759,7 @@
         <v>72</v>
       </c>
       <c r="U542" s="0" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="V542" s="0" t="s">
         <v>913</v>
@@ -38827,7 +38830,7 @@
         <v>632</v>
       </c>
       <c r="U543" s="0" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="V543" s="0" t="s">
         <v>634</v>
@@ -38877,7 +38880,7 @@
         <v>166</v>
       </c>
       <c r="N544" s="0" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="O544" s="0" t="n">
         <v>1</v>
@@ -38898,7 +38901,7 @@
         <v>940</v>
       </c>
       <c r="U544" s="0" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="V544" s="0" t="s">
         <v>634</v>
@@ -38960,10 +38963,10 @@
         <v>445</v>
       </c>
       <c r="U545" s="0" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="V545" s="0" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="W545" s="0" t="s">
         <v>34</v>
@@ -39022,7 +39025,7 @@
         <v>113</v>
       </c>
       <c r="U546" s="0" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="V546" s="0" t="s">
         <v>421</v>
@@ -39084,10 +39087,10 @@
         <v>445</v>
       </c>
       <c r="U547" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V547" s="0" t="s">
         <v>1001</v>
-      </c>
-      <c r="V547" s="0" t="s">
-        <v>999</v>
       </c>
       <c r="W547" s="0" t="s">
         <v>34</v>
@@ -39146,7 +39149,7 @@
         <v>111</v>
       </c>
       <c r="U548" s="0" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="V548" s="0" t="s">
         <v>33</v>
@@ -39208,10 +39211,10 @@
         <v>199</v>
       </c>
       <c r="U549" s="0" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="V549" s="0" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="W549" s="0" t="s">
         <v>34</v>
@@ -39270,7 +39273,7 @@
         <v>58</v>
       </c>
       <c r="U550" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="V550" s="0" t="s">
         <v>33</v>
@@ -39332,7 +39335,7 @@
         <v>58</v>
       </c>
       <c r="U551" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="V551" s="0" t="s">
         <v>33</v>
@@ -39394,7 +39397,7 @@
         <v>58</v>
       </c>
       <c r="U552" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="V552" s="0" t="s">
         <v>33</v>
@@ -39456,7 +39459,7 @@
         <v>58</v>
       </c>
       <c r="U553" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="V553" s="0" t="s">
         <v>33</v>
@@ -39518,7 +39521,7 @@
         <v>58</v>
       </c>
       <c r="U554" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="V554" s="0" t="s">
         <v>33</v>
@@ -39580,7 +39583,7 @@
         <v>568</v>
       </c>
       <c r="U555" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="V555" s="0" t="s">
         <v>33</v>
@@ -39597,7 +39600,7 @@
         <v>46</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D556" s="0" t="s">
         <v>61</v>
@@ -39642,7 +39645,7 @@
         <v>716</v>
       </c>
       <c r="U556" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="V556" s="0" t="s">
         <v>33</v>
@@ -39698,13 +39701,13 @@
         <v>29</v>
       </c>
       <c r="S557" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="T557" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="U557" s="0" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="V557" s="0" t="s">
         <v>33</v>
@@ -39766,7 +39769,7 @@
         <v>58</v>
       </c>
       <c r="U558" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="V558" s="0" t="s">
         <v>33</v>
@@ -39828,10 +39831,10 @@
         <v>161</v>
       </c>
       <c r="U559" s="0" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="V559" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="W559" s="0" t="s">
         <v>34</v>
@@ -39884,13 +39887,13 @@
         <v>29</v>
       </c>
       <c r="S560" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="T560" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="U560" s="0" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="V560" s="0" t="s">
         <v>33</v>
@@ -39952,7 +39955,7 @@
         <v>58</v>
       </c>
       <c r="U561" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="V561" s="0" t="s">
         <v>33</v>
@@ -40014,7 +40017,7 @@
         <v>138</v>
       </c>
       <c r="U562" s="0" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="V562" s="0" t="s">
         <v>33</v>
@@ -40076,7 +40079,7 @@
         <v>31</v>
       </c>
       <c r="U563" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="V563" s="0" t="s">
         <v>33</v>
@@ -40138,7 +40141,7 @@
         <v>31</v>
       </c>
       <c r="U564" s="0" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="V564" s="0" t="s">
         <v>33</v>
@@ -40185,7 +40188,7 @@
         <v>166</v>
       </c>
       <c r="N565" s="0" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="O565" s="0" t="n">
         <v>1</v>
@@ -40206,7 +40209,7 @@
         <v>111</v>
       </c>
       <c r="U565" s="0" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="V565" s="0" t="s">
         <v>33</v>
@@ -40268,7 +40271,7 @@
         <v>58</v>
       </c>
       <c r="U566" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="V566" s="0" t="s">
         <v>33</v>
@@ -40330,7 +40333,7 @@
         <v>506</v>
       </c>
       <c r="U567" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="V567" s="0" t="s">
         <v>33</v>
@@ -40386,16 +40389,16 @@
         <v>29</v>
       </c>
       <c r="S568" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="T568" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="U568" s="0" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="V568" s="0" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="W568" s="0" t="s">
         <v>34</v>
@@ -40409,7 +40412,7 @@
         <v>46</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D569" s="0" t="s">
         <v>25</v>
@@ -40454,7 +40457,7 @@
         <v>506</v>
       </c>
       <c r="U569" s="0" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="V569" s="0" t="s">
         <v>33</v>
@@ -40516,7 +40519,7 @@
         <v>169</v>
       </c>
       <c r="U570" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="V570" s="0" t="s">
         <v>33</v>
@@ -40575,7 +40578,7 @@
         <v>716</v>
       </c>
       <c r="U571" s="0" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="V571" s="0" t="s">
         <v>33</v>
@@ -40616,10 +40619,10 @@
         <v>207</v>
       </c>
       <c r="L572" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="M572" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="O572" s="0" t="n">
         <v>1</v>
@@ -40640,10 +40643,10 @@
         <v>506</v>
       </c>
       <c r="U572" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="V572" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="W572" s="0" t="s">
         <v>34</v>
@@ -40702,7 +40705,7 @@
         <v>138</v>
       </c>
       <c r="U573" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="V573" s="0" t="s">
         <v>33</v>
@@ -40764,10 +40767,10 @@
         <v>113</v>
       </c>
       <c r="U574" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="V574" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="W574" s="0" t="s">
         <v>34</v>
@@ -40826,10 +40829,10 @@
         <v>161</v>
       </c>
       <c r="U575" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="V575" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="W575" s="0" t="s">
         <v>34</v>
@@ -40888,7 +40891,7 @@
         <v>105</v>
       </c>
       <c r="U576" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="V576" s="0" t="s">
         <v>33</v>
@@ -40944,13 +40947,13 @@
         <v>29</v>
       </c>
       <c r="S577" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="T577" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="U577" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="V577" s="0" t="s">
         <v>135</v>
@@ -41012,10 +41015,10 @@
         <v>158</v>
       </c>
       <c r="U578" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="V578" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="W578" s="0" t="s">
         <v>34</v>
@@ -41074,7 +41077,7 @@
         <v>105</v>
       </c>
       <c r="U579" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="V579" s="0" t="s">
         <v>33</v>
@@ -41136,7 +41139,7 @@
         <v>860</v>
       </c>
       <c r="U580" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="V580" s="0" t="s">
         <v>33</v>
@@ -41198,7 +41201,7 @@
         <v>589</v>
       </c>
       <c r="U581" s="0" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="V581" s="0" t="s">
         <v>33</v>
@@ -41260,7 +41263,7 @@
         <v>860</v>
       </c>
       <c r="U582" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="V582" s="0" t="s">
         <v>33</v>
@@ -41277,7 +41280,7 @@
         <v>46</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D583" s="0" t="s">
         <v>61</v>
@@ -41322,7 +41325,7 @@
         <v>138</v>
       </c>
       <c r="U583" s="0" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="V583" s="0" t="s">
         <v>33</v>
@@ -41384,7 +41387,7 @@
         <v>116</v>
       </c>
       <c r="U584" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="V584" s="0" t="s">
         <v>33</v>
@@ -41401,7 +41404,7 @@
         <v>46</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D585" s="0" t="s">
         <v>61</v>
@@ -41446,7 +41449,7 @@
         <v>589</v>
       </c>
       <c r="U585" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="V585" s="0" t="s">
         <v>33</v>
@@ -41502,16 +41505,16 @@
         <v>29</v>
       </c>
       <c r="S586" s="0" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="T586" s="0" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="U586" s="0" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="V586" s="0" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="W586" s="0" t="s">
         <v>34</v>
@@ -41570,7 +41573,7 @@
         <v>254</v>
       </c>
       <c r="U587" s="0" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="V587" s="0" t="s">
         <v>33</v>
@@ -41632,13 +41635,13 @@
         <v>445</v>
       </c>
       <c r="U588" s="0" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="V588" s="0" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="W588" s="0" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41673,10 +41676,10 @@
         <v>439</v>
       </c>
       <c r="L589" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="M589" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="O589" s="0" t="n">
         <v>1</v>
@@ -41697,7 +41700,7 @@
         <v>138</v>
       </c>
       <c r="U589" s="0" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="V589" s="0" t="s">
         <v>33</v>
@@ -41714,7 +41717,7 @@
         <v>46</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D590" s="0" t="s">
         <v>61</v>
@@ -41759,7 +41762,7 @@
         <v>464</v>
       </c>
       <c r="U590" s="0" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="V590" s="0" t="s">
         <v>33</v>
@@ -41824,10 +41827,10 @@
         <v>158</v>
       </c>
       <c r="U591" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="V591" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="W591" s="0" t="s">
         <v>34</v>
@@ -41883,7 +41886,7 @@
         <v>226</v>
       </c>
       <c r="U592" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="V592" s="0" t="s">
         <v>33</v>
@@ -41951,7 +41954,7 @@
         <v>116</v>
       </c>
       <c r="U593" s="0" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="V593" s="0" t="s">
         <v>33</v>
@@ -42013,7 +42016,7 @@
         <v>589</v>
       </c>
       <c r="U594" s="0" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="V594" s="0" t="s">
         <v>33</v>
@@ -42075,7 +42078,7 @@
         <v>76</v>
       </c>
       <c r="U595" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="V595" s="0" t="s">
         <v>33</v>
@@ -42137,7 +42140,7 @@
         <v>76</v>
       </c>
       <c r="U596" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="V596" s="0" t="s">
         <v>33</v>
@@ -42154,7 +42157,7 @@
         <v>46</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D597" s="0" t="s">
         <v>61</v>
@@ -42199,7 +42202,7 @@
         <v>169</v>
       </c>
       <c r="U597" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="V597" s="0" t="s">
         <v>33</v>
@@ -42264,10 +42267,10 @@
         <v>169</v>
       </c>
       <c r="U598" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="V598" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="W598" s="0" t="s">
         <v>34</v>
@@ -42281,7 +42284,7 @@
         <v>46</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="D599" s="0" t="s">
         <v>61</v>
@@ -42326,10 +42329,10 @@
         <v>158</v>
       </c>
       <c r="U599" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="V599" s="0" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="W599" s="0" t="s">
         <v>34</v>
@@ -42388,10 +42391,10 @@
         <v>199</v>
       </c>
       <c r="U600" s="0" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="V600" s="0" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="W600" s="0" t="s">
         <v>34</v>
@@ -42453,10 +42456,10 @@
         <v>860</v>
       </c>
       <c r="U601" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="V601" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="W601" s="0" t="s">
         <v>34</v>
@@ -42515,10 +42518,10 @@
         <v>93</v>
       </c>
       <c r="U602" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="V602" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="W602" s="0" t="s">
         <v>34</v>
@@ -42577,7 +42580,7 @@
         <v>589</v>
       </c>
       <c r="U603" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="V603" s="0" t="s">
         <v>33</v>
@@ -42639,7 +42642,7 @@
         <v>169</v>
       </c>
       <c r="U604" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="V604" s="0" t="s">
         <v>33</v>
@@ -42701,10 +42704,10 @@
         <v>158</v>
       </c>
       <c r="U605" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="V605" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="W605" s="0" t="s">
         <v>34</v>
@@ -42763,7 +42766,7 @@
         <v>199</v>
       </c>
       <c r="U606" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="V606" s="0" t="s">
         <v>237</v>
@@ -42783,10 +42786,10 @@
         <v>65</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F607" s="0" t="s">
         <v>26</v>
@@ -42825,7 +42828,7 @@
         <v>199</v>
       </c>
       <c r="U607" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="V607" s="0" t="s">
         <v>94</v>
@@ -42890,7 +42893,7 @@
         <v>464</v>
       </c>
       <c r="U608" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="V608" s="0" t="s">
         <v>33</v>
@@ -42955,10 +42958,10 @@
         <v>31</v>
       </c>
       <c r="U609" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="V609" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="W609" s="0" t="s">
         <v>34</v>
@@ -43020,7 +43023,7 @@
         <v>464</v>
       </c>
       <c r="U610" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="V610" s="0" t="s">
         <v>33</v>
@@ -43082,7 +43085,7 @@
         <v>105</v>
       </c>
       <c r="U611" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="V611" s="0" t="s">
         <v>33</v>
@@ -43144,7 +43147,7 @@
         <v>105</v>
       </c>
       <c r="U612" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="V612" s="0" t="s">
         <v>33</v>
@@ -43206,7 +43209,7 @@
         <v>76</v>
       </c>
       <c r="U613" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="V613" s="0" t="s">
         <v>33</v>
@@ -43271,10 +43274,10 @@
         <v>31</v>
       </c>
       <c r="U614" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="V614" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="W614" s="0" t="s">
         <v>34</v>
@@ -43336,7 +43339,7 @@
         <v>260</v>
       </c>
       <c r="U615" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="V615" s="0" t="s">
         <v>200</v>
@@ -43398,7 +43401,7 @@
         <v>111</v>
       </c>
       <c r="U616" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="V616" s="0" t="s">
         <v>33</v>
@@ -43439,10 +43442,10 @@
         <v>67</v>
       </c>
       <c r="L617" s="0" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="M617" s="0" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="O617" s="0" t="n">
         <v>1</v>
@@ -43463,7 +43466,7 @@
         <v>260</v>
       </c>
       <c r="U617" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="V617" s="0" t="s">
         <v>200</v>
@@ -43528,7 +43531,7 @@
         <v>260</v>
       </c>
       <c r="U618" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="V618" s="0" t="s">
         <v>200</v>
@@ -43590,7 +43593,7 @@
         <v>111</v>
       </c>
       <c r="U619" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="V619" s="0" t="s">
         <v>33</v>
@@ -43652,7 +43655,7 @@
         <v>111</v>
       </c>
       <c r="U620" s="0" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="V620" s="0" t="s">
         <v>33</v>
@@ -43693,10 +43696,10 @@
         <v>439</v>
       </c>
       <c r="L621" s="0" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="M621" s="0" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="O621" s="0" t="n">
         <v>1</v>
@@ -43717,7 +43720,7 @@
         <v>199</v>
       </c>
       <c r="U621" s="0" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="V621" s="0" t="s">
         <v>237</v>
@@ -43779,7 +43782,7 @@
         <v>161</v>
       </c>
       <c r="U622" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="V622" s="0" t="s">
         <v>162</v>
@@ -43835,16 +43838,16 @@
         <v>29</v>
       </c>
       <c r="S623" s="0" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="T623" s="0" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="U623" s="0" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="V623" s="0" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="W623" s="0" t="s">
         <v>34</v>
@@ -43903,7 +43906,7 @@
         <v>158</v>
       </c>
       <c r="U624" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="V624" s="0" t="s">
         <v>598</v>
@@ -43965,7 +43968,7 @@
         <v>138</v>
       </c>
       <c r="U625" s="0" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="V625" s="0" t="s">
         <v>33</v>
@@ -44027,10 +44030,10 @@
         <v>173</v>
       </c>
       <c r="U626" s="0" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="V626" s="0" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="W626" s="0" t="s">
         <v>34</v>
@@ -44044,7 +44047,7 @@
         <v>46</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D627" s="0" t="s">
         <v>61</v>
@@ -44089,7 +44092,7 @@
         <v>76</v>
       </c>
       <c r="U627" s="0" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="V627" s="0" t="s">
         <v>33</v>
@@ -44151,7 +44154,7 @@
         <v>138</v>
       </c>
       <c r="U628" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="V628" s="0" t="s">
         <v>33</v>
@@ -44213,7 +44216,7 @@
         <v>138</v>
       </c>
       <c r="U629" s="0" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="V629" s="0" t="s">
         <v>33</v>
@@ -44230,7 +44233,7 @@
         <v>46</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D630" s="0" t="s">
         <v>61</v>
@@ -44275,7 +44278,7 @@
         <v>464</v>
       </c>
       <c r="U630" s="0" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="V630" s="0" t="s">
         <v>33</v>
@@ -44337,7 +44340,7 @@
         <v>138</v>
       </c>
       <c r="U631" s="0" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="V631" s="0" t="s">
         <v>33</v>
@@ -44399,7 +44402,7 @@
         <v>464</v>
       </c>
       <c r="U632" s="0" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="V632" s="0" t="s">
         <v>33</v>
@@ -44416,7 +44419,7 @@
         <v>46</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D633" s="0" t="s">
         <v>61</v>
@@ -44455,13 +44458,13 @@
         <v>29</v>
       </c>
       <c r="S633" s="0" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="T633" s="0" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="U633" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="V633" s="0" t="s">
         <v>33</v>
@@ -44478,7 +44481,7 @@
         <v>46</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D634" s="0" t="s">
         <v>36</v>
@@ -44502,10 +44505,10 @@
         <v>90</v>
       </c>
       <c r="L634" s="0" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="M634" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="O634" s="0" t="n">
         <v>1</v>
@@ -44526,7 +44529,7 @@
         <v>31</v>
       </c>
       <c r="U634" s="0" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="V634" s="0" t="s">
         <v>33</v>
@@ -44588,7 +44591,7 @@
         <v>445</v>
       </c>
       <c r="U635" s="0" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="V635" s="0" t="s">
         <v>598</v>
@@ -44605,7 +44608,7 @@
         <v>46</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D636" s="0" t="s">
         <v>36</v>
@@ -44629,10 +44632,10 @@
         <v>90</v>
       </c>
       <c r="L636" s="0" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="M636" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="O636" s="0" t="n">
         <v>1</v>
@@ -44653,7 +44656,7 @@
         <v>31</v>
       </c>
       <c r="U636" s="0" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="V636" s="0" t="s">
         <v>33</v>
@@ -44670,7 +44673,7 @@
         <v>46</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D637" s="0" t="s">
         <v>61</v>
@@ -44715,7 +44718,7 @@
         <v>72</v>
       </c>
       <c r="U637" s="0" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="V637" s="0" t="s">
         <v>33</v>
@@ -44777,7 +44780,7 @@
         <v>445</v>
       </c>
       <c r="U638" s="0" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="V638" s="0" t="s">
         <v>598</v>
@@ -44794,7 +44797,7 @@
         <v>46</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D639" s="0" t="s">
         <v>61</v>
@@ -44839,7 +44842,7 @@
         <v>72</v>
       </c>
       <c r="U639" s="0" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="V639" s="0" t="s">
         <v>33</v>
@@ -44901,7 +44904,7 @@
         <v>72</v>
       </c>
       <c r="U640" s="0" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="V640" s="0" t="s">
         <v>33</v>
@@ -44918,7 +44921,7 @@
         <v>46</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D641" s="0" t="s">
         <v>61</v>
@@ -44963,7 +44966,7 @@
         <v>138</v>
       </c>
       <c r="U641" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="V641" s="0" t="s">
         <v>33</v>
@@ -45001,10 +45004,10 @@
         <v>28192450</v>
       </c>
       <c r="J642" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K642" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="O642" s="0" t="n">
         <v>1</v>
@@ -45025,7 +45028,7 @@
         <v>58</v>
       </c>
       <c r="U642" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="V642" s="0" t="s">
         <v>33</v>
@@ -45042,7 +45045,7 @@
         <v>46</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D643" s="0" t="s">
         <v>61</v>
@@ -45087,7 +45090,7 @@
         <v>31</v>
       </c>
       <c r="U643" s="0" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="V643" s="0" t="s">
         <v>33</v>
@@ -45104,7 +45107,7 @@
         <v>46</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D644" s="0" t="s">
         <v>61</v>
@@ -45149,7 +45152,7 @@
         <v>72</v>
       </c>
       <c r="U644" s="0" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="V644" s="0" t="s">
         <v>33</v>
@@ -45166,7 +45169,7 @@
         <v>46</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="D645" s="0" t="s">
         <v>36</v>
@@ -45190,10 +45193,10 @@
         <v>393</v>
       </c>
       <c r="L645" s="0" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="M645" s="0" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="O645" s="0" t="n">
         <v>1</v>
@@ -45214,7 +45217,7 @@
         <v>191</v>
       </c>
       <c r="U645" s="0" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="V645" s="0" t="s">
         <v>691</v>
@@ -45231,7 +45234,7 @@
         <v>46</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D646" s="0" t="s">
         <v>61</v>
@@ -45276,7 +45279,7 @@
         <v>161</v>
       </c>
       <c r="U646" s="0" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="V646" s="0" t="s">
         <v>162</v>
@@ -45293,7 +45296,7 @@
         <v>46</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D647" s="0" t="s">
         <v>61</v>
@@ -45338,7 +45341,7 @@
         <v>215</v>
       </c>
       <c r="U647" s="0" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="V647" s="0" t="s">
         <v>33</v>
@@ -45355,7 +45358,7 @@
         <v>46</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D648" s="0" t="s">
         <v>61</v>
@@ -45400,7 +45403,7 @@
         <v>138</v>
       </c>
       <c r="U648" s="0" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="V648" s="0" t="s">
         <v>33</v>
@@ -45462,7 +45465,7 @@
         <v>199</v>
       </c>
       <c r="U649" s="0" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="V649" s="0" t="s">
         <v>583</v>
@@ -45479,7 +45482,7 @@
         <v>46</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D650" s="0" t="s">
         <v>61</v>
@@ -45524,7 +45527,7 @@
         <v>226</v>
       </c>
       <c r="U650" s="0" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="V650" s="0" t="s">
         <v>33</v>
@@ -45541,7 +45544,7 @@
         <v>46</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D651" s="0" t="s">
         <v>61</v>
@@ -45586,7 +45589,7 @@
         <v>138</v>
       </c>
       <c r="U651" s="0" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="V651" s="0" t="s">
         <v>33</v>
@@ -45603,7 +45606,7 @@
         <v>46</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D652" s="0" t="s">
         <v>61</v>
@@ -45648,7 +45651,7 @@
         <v>138</v>
       </c>
       <c r="U652" s="0" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="V652" s="0" t="s">
         <v>33</v>
@@ -45686,10 +45689,10 @@
         <v>28173374</v>
       </c>
       <c r="J653" s="0" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="K653" s="0" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="O653" s="0" t="n">
         <v>1</v>
@@ -45710,10 +45713,10 @@
         <v>158</v>
       </c>
       <c r="U653" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="V653" s="0" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="W653" s="0" t="s">
         <v>34</v>
@@ -45772,7 +45775,7 @@
         <v>31</v>
       </c>
       <c r="U654" s="0" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="V654" s="0" t="s">
         <v>33</v>
@@ -45834,10 +45837,10 @@
         <v>445</v>
       </c>
       <c r="U655" s="0" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="V655" s="0" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="W655" s="0" t="s">
         <v>34</v>
@@ -45896,7 +45899,7 @@
         <v>138</v>
       </c>
       <c r="U656" s="0" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="V656" s="0" t="s">
         <v>33</v>
@@ -45958,7 +45961,7 @@
         <v>105</v>
       </c>
       <c r="U657" s="0" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="V657" s="0" t="s">
         <v>33</v>
@@ -46020,10 +46023,10 @@
         <v>158</v>
       </c>
       <c r="U658" s="0" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="V658" s="0" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="W658" s="0" t="s">
         <v>34</v>
@@ -46085,7 +46088,7 @@
         <v>464</v>
       </c>
       <c r="U659" s="0" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="V659" s="0" t="s">
         <v>33</v>
@@ -46150,7 +46153,7 @@
         <v>464</v>
       </c>
       <c r="U660" s="0" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="V660" s="0" t="s">
         <v>33</v>
@@ -46167,7 +46170,7 @@
         <v>46</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D661" s="0" t="s">
         <v>61</v>
@@ -46212,7 +46215,7 @@
         <v>445</v>
       </c>
       <c r="U661" s="0" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="V661" s="0" t="s">
         <v>598</v>
@@ -46250,10 +46253,10 @@
         <v>28295007</v>
       </c>
       <c r="J662" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K662" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="L662" s="0" t="s">
         <v>208</v>
@@ -46280,7 +46283,7 @@
         <v>239</v>
       </c>
       <c r="U662" s="0" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="V662" s="0" t="s">
         <v>33</v>
@@ -46342,7 +46345,7 @@
         <v>72</v>
       </c>
       <c r="U663" s="0" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="V663" s="0" t="s">
         <v>33</v>
@@ -46398,16 +46401,16 @@
         <v>29</v>
       </c>
       <c r="S664" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="T664" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="U664" s="0" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="V664" s="0" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="W664" s="0" t="s">
         <v>34</v>
@@ -46466,7 +46469,7 @@
         <v>76</v>
       </c>
       <c r="U665" s="0" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="V665" s="0" t="s">
         <v>33</v>
@@ -46528,7 +46531,7 @@
         <v>31</v>
       </c>
       <c r="U666" s="0" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="V666" s="0" t="s">
         <v>33</v>
@@ -46584,16 +46587,16 @@
         <v>29</v>
       </c>
       <c r="S667" s="0" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="T667" s="0" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="U667" s="0" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="V667" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="W667" s="0" t="s">
         <v>34</v>
@@ -46652,7 +46655,7 @@
         <v>260</v>
       </c>
       <c r="U668" s="0" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="V668" s="0" t="s">
         <v>200</v>
@@ -46714,7 +46717,7 @@
         <v>113</v>
       </c>
       <c r="U669" s="0" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="V669" s="0" t="s">
         <v>357</v>
@@ -46776,7 +46779,7 @@
         <v>113</v>
       </c>
       <c r="U670" s="0" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="V670" s="0" t="s">
         <v>182</v>
@@ -46838,7 +46841,7 @@
         <v>76</v>
       </c>
       <c r="U671" s="0" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="V671" s="0" t="s">
         <v>33</v>
@@ -46900,10 +46903,10 @@
         <v>445</v>
       </c>
       <c r="U672" s="0" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="V672" s="0" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="W672" s="0" t="s">
         <v>34</v>
@@ -46941,10 +46944,10 @@
         <v>28</v>
       </c>
       <c r="L673" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="M673" s="0" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="O673" s="0" t="n">
         <v>1</v>
@@ -46965,7 +46968,7 @@
         <v>254</v>
       </c>
       <c r="U673" s="0" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="V673" s="0" t="s">
         <v>351</v>
@@ -47027,7 +47030,7 @@
         <v>506</v>
       </c>
       <c r="U674" s="0" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="V674" s="0" t="s">
         <v>33</v>
@@ -47071,10 +47074,10 @@
         <v>529</v>
       </c>
       <c r="L675" s="0" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="M675" s="0" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="O675" s="0" t="n">
         <v>1</v>
@@ -47095,7 +47098,7 @@
         <v>113</v>
       </c>
       <c r="U675" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="V675" s="0" t="s">
         <v>545</v>
@@ -47139,10 +47142,10 @@
         <v>529</v>
       </c>
       <c r="L676" s="0" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="M676" s="0" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="O676" s="0" t="n">
         <v>1</v>
@@ -47163,7 +47166,7 @@
         <v>113</v>
       </c>
       <c r="U676" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="V676" s="0" t="s">
         <v>545</v>
@@ -47207,10 +47210,10 @@
         <v>529</v>
       </c>
       <c r="L677" s="0" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="M677" s="0" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="O677" s="0" t="n">
         <v>1</v>
@@ -47231,7 +47234,7 @@
         <v>113</v>
       </c>
       <c r="U677" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="V677" s="0" t="s">
         <v>545</v>
@@ -47275,10 +47278,10 @@
         <v>529</v>
       </c>
       <c r="L678" s="0" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="M678" s="0" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="O678" s="0" t="n">
         <v>1</v>
@@ -47299,7 +47302,7 @@
         <v>113</v>
       </c>
       <c r="U678" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="V678" s="0" t="s">
         <v>545</v>
@@ -47361,10 +47364,10 @@
         <v>445</v>
       </c>
       <c r="U679" s="0" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="V679" s="0" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="W679" s="0" t="s">
         <v>34</v>
@@ -47423,7 +47426,7 @@
         <v>105</v>
       </c>
       <c r="U680" s="0" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="V680" s="0" t="s">
         <v>33</v>
@@ -47470,7 +47473,7 @@
         <v>166</v>
       </c>
       <c r="N681" s="0" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="O681" s="0" t="n">
         <v>1</v>
@@ -47491,7 +47494,7 @@
         <v>568</v>
       </c>
       <c r="U681" s="0" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="V681" s="0" t="s">
         <v>33</v>
@@ -47553,7 +47556,7 @@
         <v>116</v>
       </c>
       <c r="U682" s="0" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="V682" s="0" t="s">
         <v>33</v>
@@ -47615,7 +47618,7 @@
         <v>161</v>
       </c>
       <c r="U683" s="0" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="V683" s="0" t="s">
         <v>162</v>
@@ -47677,10 +47680,10 @@
         <v>445</v>
       </c>
       <c r="U684" s="0" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="V684" s="0" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="W684" s="0" t="s">
         <v>34</v>
@@ -47739,7 +47742,7 @@
         <v>506</v>
       </c>
       <c r="U685" s="0" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="V685" s="0" t="s">
         <v>33</v>
@@ -47804,7 +47807,7 @@
         <v>76</v>
       </c>
       <c r="U686" s="0" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="V686" s="0" t="s">
         <v>33</v>
@@ -47866,7 +47869,7 @@
         <v>58</v>
       </c>
       <c r="U687" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="V687" s="0" t="s">
         <v>33</v>
@@ -47928,7 +47931,7 @@
         <v>76</v>
       </c>
       <c r="U688" s="0" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="V688" s="0" t="s">
         <v>33</v>
@@ -47990,7 +47993,7 @@
         <v>445</v>
       </c>
       <c r="U689" s="0" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="V689" s="0" t="s">
         <v>915</v>
@@ -48052,7 +48055,7 @@
         <v>506</v>
       </c>
       <c r="U690" s="0" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="V690" s="0" t="s">
         <v>33</v>
@@ -48114,7 +48117,7 @@
         <v>76</v>
       </c>
       <c r="U691" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="V691" s="0" t="s">
         <v>33</v>
@@ -48158,10 +48161,10 @@
         <v>67</v>
       </c>
       <c r="L692" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="M692" s="0" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="O692" s="0" t="n">
         <v>1</v>
@@ -48182,10 +48185,10 @@
         <v>254</v>
       </c>
       <c r="U692" s="0" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="V692" s="0" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="W692" s="0" t="s">
         <v>34</v>
@@ -48244,7 +48247,7 @@
         <v>113</v>
       </c>
       <c r="U693" s="0" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="V693" s="0" t="s">
         <v>545</v>
@@ -48261,7 +48264,7 @@
         <v>46</v>
       </c>
       <c r="C694" s="0" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="D694" s="0" t="s">
         <v>61</v>
@@ -48306,7 +48309,7 @@
         <v>58</v>
       </c>
       <c r="U694" s="0" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="V694" s="0" t="s">
         <v>33</v>
@@ -48368,7 +48371,7 @@
         <v>31</v>
       </c>
       <c r="U695" s="0" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="V695" s="0" t="s">
         <v>33</v>
@@ -48430,7 +48433,7 @@
         <v>506</v>
       </c>
       <c r="U696" s="0" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="V696" s="0" t="s">
         <v>33</v>
@@ -48468,10 +48471,10 @@
         <v>28208289</v>
       </c>
       <c r="J697" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K697" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="O697" s="0" t="n">
         <v>1</v>
@@ -48492,7 +48495,7 @@
         <v>506</v>
       </c>
       <c r="U697" s="0" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="V697" s="0" t="s">
         <v>33</v>
@@ -48554,7 +48557,7 @@
         <v>58</v>
       </c>
       <c r="U698" s="0" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="V698" s="0" t="s">
         <v>33</v>
@@ -48616,7 +48619,7 @@
         <v>506</v>
       </c>
       <c r="U699" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="V699" s="0" t="s">
         <v>33</v>
@@ -48678,7 +48681,7 @@
         <v>445</v>
       </c>
       <c r="U700" s="0" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="V700" s="0" t="s">
         <v>915</v>
@@ -48740,7 +48743,7 @@
         <v>76</v>
       </c>
       <c r="U701" s="0" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="V701" s="0" t="s">
         <v>33</v>
@@ -48802,7 +48805,7 @@
         <v>76</v>
       </c>
       <c r="U702" s="0" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="V702" s="0" t="s">
         <v>33</v>
@@ -48864,7 +48867,7 @@
         <v>161</v>
       </c>
       <c r="U703" s="0" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="V703" s="0" t="s">
         <v>162</v>
@@ -48908,10 +48911,10 @@
         <v>367</v>
       </c>
       <c r="L704" s="0" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="M704" s="0" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="O704" s="0" t="n">
         <v>1</v>
@@ -48932,7 +48935,7 @@
         <v>138</v>
       </c>
       <c r="U704" s="0" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="V704" s="0" t="s">
         <v>33</v>
@@ -48994,10 +48997,10 @@
         <v>445</v>
       </c>
       <c r="U705" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="V705" s="0" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="W705" s="0" t="s">
         <v>34</v>
@@ -49056,7 +49059,7 @@
         <v>76</v>
       </c>
       <c r="U706" s="0" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="V706" s="0" t="s">
         <v>33</v>
@@ -49118,7 +49121,7 @@
         <v>58</v>
       </c>
       <c r="U707" s="0" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="V707" s="0" t="s">
         <v>33</v>
@@ -49153,10 +49156,10 @@
         <v>860592</v>
       </c>
       <c r="J708" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K708" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="L708" s="0" t="s">
         <v>54</v>
@@ -49165,7 +49168,7 @@
         <v>55</v>
       </c>
       <c r="N708" s="0" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="O708" s="0" t="n">
         <v>1</v>
@@ -49186,7 +49189,7 @@
         <v>506</v>
       </c>
       <c r="U708" s="0" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="V708" s="0" t="s">
         <v>33</v>
@@ -49248,7 +49251,7 @@
         <v>506</v>
       </c>
       <c r="U709" s="0" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="V709" s="0" t="s">
         <v>33</v>
@@ -49310,7 +49313,7 @@
         <v>105</v>
       </c>
       <c r="U710" s="0" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="V710" s="0" t="s">
         <v>33</v>
@@ -49372,7 +49375,7 @@
         <v>76</v>
       </c>
       <c r="U711" s="0" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="V711" s="0" t="s">
         <v>33</v>
@@ -49434,7 +49437,7 @@
         <v>111</v>
       </c>
       <c r="U712" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="V712" s="0" t="s">
         <v>33</v>
@@ -49451,7 +49454,7 @@
         <v>210</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="D713" s="0" t="s">
         <v>61</v>
@@ -49496,7 +49499,7 @@
         <v>58</v>
       </c>
       <c r="U713" s="0" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="V713" s="0" t="s">
         <v>33</v>
@@ -49558,7 +49561,7 @@
         <v>138</v>
       </c>
       <c r="U714" s="0" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="V714" s="0" t="s">
         <v>33</v>
@@ -49620,7 +49623,7 @@
         <v>506</v>
       </c>
       <c r="U715" s="0" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="V715" s="0" t="s">
         <v>33</v>
@@ -49682,7 +49685,7 @@
         <v>111</v>
       </c>
       <c r="U716" s="0" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="V716" s="0" t="s">
         <v>33</v>
@@ -49744,7 +49747,7 @@
         <v>138</v>
       </c>
       <c r="U717" s="0" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="V717" s="0" t="s">
         <v>33</v>
@@ -49806,7 +49809,7 @@
         <v>506</v>
       </c>
       <c r="U718" s="0" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="V718" s="0" t="s">
         <v>33</v>
@@ -49868,13 +49871,13 @@
         <v>506</v>
       </c>
       <c r="U719" s="0" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="V719" s="0" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="W719" s="0" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49930,7 +49933,7 @@
         <v>111</v>
       </c>
       <c r="U720" s="0" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="V720" s="0" t="s">
         <v>33</v>
@@ -49992,7 +49995,7 @@
         <v>105</v>
       </c>
       <c r="U721" s="0" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="V721" s="0" t="s">
         <v>33</v>
@@ -50054,7 +50057,7 @@
         <v>506</v>
       </c>
       <c r="U722" s="0" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="V722" s="0" t="s">
         <v>33</v>
@@ -50092,10 +50095,10 @@
         <v>28208293</v>
       </c>
       <c r="J723" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K723" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="O723" s="0" t="n">
         <v>1</v>
@@ -50116,7 +50119,7 @@
         <v>506</v>
       </c>
       <c r="U723" s="0" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="V723" s="0" t="s">
         <v>33</v>
@@ -50178,7 +50181,7 @@
         <v>111</v>
       </c>
       <c r="U724" s="0" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="V724" s="0" t="s">
         <v>33</v>
@@ -50240,7 +50243,7 @@
         <v>254</v>
       </c>
       <c r="U725" s="0" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="V725" s="0" t="s">
         <v>351</v>
@@ -50302,7 +50305,7 @@
         <v>76</v>
       </c>
       <c r="U726" s="0" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="V726" s="0" t="s">
         <v>33</v>
@@ -50364,7 +50367,7 @@
         <v>506</v>
       </c>
       <c r="U727" s="0" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="V727" s="0" t="s">
         <v>33</v>
@@ -50399,10 +50402,10 @@
         <v>860636</v>
       </c>
       <c r="J728" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K728" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="L728" s="0" t="s">
         <v>165</v>
@@ -50411,7 +50414,7 @@
         <v>166</v>
       </c>
       <c r="N728" s="0" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="O728" s="0" t="n">
         <v>1</v>
@@ -50432,7 +50435,7 @@
         <v>506</v>
       </c>
       <c r="U728" s="0" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="V728" s="0" t="s">
         <v>33</v>
@@ -50494,7 +50497,7 @@
         <v>506</v>
       </c>
       <c r="U729" s="0" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="V729" s="0" t="s">
         <v>33</v>
@@ -50556,7 +50559,7 @@
         <v>105</v>
       </c>
       <c r="U730" s="0" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="V730" s="0" t="s">
         <v>33</v>
@@ -50618,10 +50621,10 @@
         <v>506</v>
       </c>
       <c r="U731" s="0" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="V731" s="0" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="W731" s="0" t="s">
         <v>143</v>
@@ -50680,7 +50683,7 @@
         <v>506</v>
       </c>
       <c r="U732" s="0" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="V732" s="0" t="s">
         <v>33</v>
@@ -50697,7 +50700,7 @@
         <v>46</v>
       </c>
       <c r="C733" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D733" s="0" t="s">
         <v>61</v>
@@ -50742,7 +50745,7 @@
         <v>589</v>
       </c>
       <c r="U733" s="0" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="V733" s="0" t="s">
         <v>33</v>
@@ -50804,7 +50807,7 @@
         <v>506</v>
       </c>
       <c r="U734" s="0" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="V734" s="0" t="s">
         <v>33</v>
@@ -50824,10 +50827,10 @@
         <v>106</v>
       </c>
       <c r="D735" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E735" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F735" s="0" t="s">
         <v>26</v>
@@ -50866,7 +50869,7 @@
         <v>76</v>
       </c>
       <c r="U735" s="0" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="V735" s="0" t="s">
         <v>33</v>
@@ -50928,7 +50931,7 @@
         <v>105</v>
       </c>
       <c r="U736" s="0" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="V736" s="0" t="s">
         <v>33</v>
@@ -50990,7 +50993,7 @@
         <v>506</v>
       </c>
       <c r="U737" s="0" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="V737" s="0" t="s">
         <v>33</v>
@@ -51052,7 +51055,7 @@
         <v>76</v>
       </c>
       <c r="U738" s="0" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="V738" s="0" t="s">
         <v>33</v>
@@ -51114,7 +51117,7 @@
         <v>506</v>
       </c>
       <c r="U739" s="0" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="V739" s="0" t="s">
         <v>33</v>
@@ -51176,7 +51179,7 @@
         <v>254</v>
       </c>
       <c r="U740" s="0" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="V740" s="0" t="s">
         <v>351</v>
@@ -51196,10 +51199,10 @@
         <v>95</v>
       </c>
       <c r="D741" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E741" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F741" s="0" t="s">
         <v>26</v>
@@ -51238,7 +51241,7 @@
         <v>506</v>
       </c>
       <c r="U741" s="0" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="V741" s="0" t="s">
         <v>33</v>
@@ -51300,10 +51303,10 @@
         <v>506</v>
       </c>
       <c r="U742" s="0" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="V742" s="0" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="W742" s="0" t="s">
         <v>34</v>
@@ -51362,7 +51365,7 @@
         <v>506</v>
       </c>
       <c r="U743" s="0" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="V743" s="0" t="s">
         <v>33</v>
@@ -51424,7 +51427,7 @@
         <v>105</v>
       </c>
       <c r="U744" s="0" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="V744" s="0" t="s">
         <v>33</v>
@@ -51486,7 +51489,7 @@
         <v>105</v>
       </c>
       <c r="U745" s="0" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="V745" s="0" t="s">
         <v>33</v>
@@ -51548,7 +51551,7 @@
         <v>105</v>
       </c>
       <c r="U746" s="0" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="V746" s="0" t="s">
         <v>33</v>
@@ -51610,7 +51613,7 @@
         <v>361</v>
       </c>
       <c r="U747" s="0" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="V747" s="0" t="s">
         <v>363</v>
@@ -51672,7 +51675,7 @@
         <v>158</v>
       </c>
       <c r="U748" s="0" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="V748" s="0" t="s">
         <v>598</v>
@@ -51713,13 +51716,13 @@
         <v>462</v>
       </c>
       <c r="L749" s="0" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="M749" s="0" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="N749" s="0" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="O749" s="0" t="n">
         <v>1</v>
@@ -51740,7 +51743,7 @@
         <v>138</v>
       </c>
       <c r="U749" s="0" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="V749" s="0" t="s">
         <v>33</v>
@@ -51802,7 +51805,7 @@
         <v>254</v>
       </c>
       <c r="U750" s="0" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="V750" s="0" t="s">
         <v>33</v>
@@ -51852,7 +51855,7 @@
         <v>178</v>
       </c>
       <c r="N751" s="0" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="O751" s="0" t="n">
         <v>1</v>
@@ -51873,10 +51876,10 @@
         <v>219</v>
       </c>
       <c r="U751" s="0" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="V751" s="0" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="W751" s="0" t="s">
         <v>34</v>
@@ -51935,7 +51938,7 @@
         <v>76</v>
       </c>
       <c r="U752" s="0" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="V752" s="0" t="s">
         <v>33</v>
@@ -52000,7 +52003,7 @@
         <v>31</v>
       </c>
       <c r="U753" s="0" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="V753" s="0" t="s">
         <v>33</v>
@@ -52062,7 +52065,7 @@
         <v>111</v>
       </c>
       <c r="U754" s="0" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="V754" s="0" t="s">
         <v>33</v>
@@ -52124,10 +52127,10 @@
         <v>632</v>
       </c>
       <c r="U755" s="0" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="V755" s="0" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="W755" s="0" t="s">
         <v>34</v>
@@ -52186,10 +52189,10 @@
         <v>632</v>
       </c>
       <c r="U756" s="0" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="V756" s="0" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="W756" s="0" t="s">
         <v>34</v>
@@ -52248,7 +52251,7 @@
         <v>161</v>
       </c>
       <c r="U757" s="0" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="V757" s="0" t="s">
         <v>162</v>
@@ -52265,7 +52268,7 @@
         <v>46</v>
       </c>
       <c r="C758" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="D758" s="0" t="s">
         <v>102</v>
@@ -52289,7 +52292,7 @@
         <v>367</v>
       </c>
       <c r="N758" s="0" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="O758" s="0" t="n">
         <v>1</v>
@@ -52310,10 +52313,10 @@
         <v>111</v>
       </c>
       <c r="U758" s="0" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="V758" s="0" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="W758" s="0" t="s">
         <v>299</v>
@@ -52372,7 +52375,7 @@
         <v>111</v>
       </c>
       <c r="U759" s="0" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="V759" s="0" t="s">
         <v>33</v>
@@ -52434,7 +52437,7 @@
         <v>254</v>
       </c>
       <c r="U760" s="0" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="V760" s="0" t="s">
         <v>351</v>
@@ -52496,7 +52499,7 @@
         <v>161</v>
       </c>
       <c r="U761" s="0" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="V761" s="0" t="s">
         <v>162</v>
@@ -52558,7 +52561,7 @@
         <v>76</v>
       </c>
       <c r="U762" s="0" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="V762" s="0" t="s">
         <v>33</v>
@@ -52620,7 +52623,7 @@
         <v>76</v>
       </c>
       <c r="U763" s="0" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="V763" s="0" t="s">
         <v>33</v>
@@ -52682,7 +52685,7 @@
         <v>76</v>
       </c>
       <c r="U764" s="0" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="V764" s="0" t="s">
         <v>33</v>
@@ -52744,7 +52747,7 @@
         <v>76</v>
       </c>
       <c r="U765" s="0" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="V765" s="0" t="s">
         <v>33</v>
@@ -52809,7 +52812,7 @@
         <v>199</v>
       </c>
       <c r="U766" s="0" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="V766" s="0" t="s">
         <v>237</v>
@@ -52844,10 +52847,10 @@
         <v>861327</v>
       </c>
       <c r="J767" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K767" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="L767" s="0" t="s">
         <v>924</v>
@@ -52874,7 +52877,7 @@
         <v>361</v>
       </c>
       <c r="U767" s="0" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="V767" s="0" t="s">
         <v>363</v>
@@ -52936,7 +52939,7 @@
         <v>93</v>
       </c>
       <c r="U768" s="0" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="V768" s="0" t="s">
         <v>94</v>
@@ -52998,7 +53001,7 @@
         <v>860</v>
       </c>
       <c r="U769" s="0" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="V769" s="0" t="s">
         <v>33</v>
@@ -53015,7 +53018,7 @@
         <v>46</v>
       </c>
       <c r="C770" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="D770" s="0" t="s">
         <v>61</v>
@@ -53060,7 +53063,7 @@
         <v>199</v>
       </c>
       <c r="U770" s="0" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="V770" s="0" t="s">
         <v>237</v>
@@ -53125,13 +53128,13 @@
         <v>589</v>
       </c>
       <c r="U771" s="0" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="V771" s="0" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="W771" s="0" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53190,13 +53193,13 @@
         <v>589</v>
       </c>
       <c r="U772" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="V772" s="0" t="s">
         <v>1314</v>
       </c>
-      <c r="V772" s="0" t="s">
-        <v>1312</v>
-      </c>
       <c r="W772" s="0" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53231,10 +53234,10 @@
         <v>207</v>
       </c>
       <c r="L773" s="0" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="M773" s="0" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="O773" s="0" t="n">
         <v>1</v>
@@ -53255,7 +53258,7 @@
         <v>215</v>
       </c>
       <c r="U773" s="0" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="V773" s="0" t="s">
         <v>33</v>
@@ -53272,7 +53275,7 @@
         <v>46</v>
       </c>
       <c r="C774" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="D774" s="0" t="s">
         <v>61</v>
@@ -53317,7 +53320,7 @@
         <v>31</v>
       </c>
       <c r="U774" s="0" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="V774" s="0" t="s">
         <v>33</v>
@@ -53379,7 +53382,7 @@
         <v>464</v>
       </c>
       <c r="U775" s="0" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="V775" s="0" t="s">
         <v>33</v>
@@ -53441,7 +53444,7 @@
         <v>93</v>
       </c>
       <c r="U776" s="0" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="V776" s="0" t="s">
         <v>583</v>
@@ -53509,7 +53512,7 @@
         <v>99</v>
       </c>
       <c r="U777" s="0" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="V777" s="0" t="s">
         <v>33</v>
@@ -53571,10 +53574,10 @@
         <v>158</v>
       </c>
       <c r="U778" s="0" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="V778" s="0" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="W778" s="0" t="s">
         <v>34</v>
@@ -53633,13 +53636,13 @@
         <v>29</v>
       </c>
       <c r="S779" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="T779" s="0" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="U779" s="0" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="V779" s="0" t="s">
         <v>217</v>
@@ -53680,10 +53683,10 @@
         <v>207</v>
       </c>
       <c r="L780" s="0" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="M780" s="0" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="O780" s="0" t="n">
         <v>1</v>
@@ -53704,7 +53707,7 @@
         <v>716</v>
       </c>
       <c r="U780" s="0" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="V780" s="0" t="s">
         <v>33</v>
@@ -53766,7 +53769,7 @@
         <v>464</v>
       </c>
       <c r="U781" s="0" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="V781" s="0" t="s">
         <v>33</v>
@@ -53828,7 +53831,7 @@
         <v>464</v>
       </c>
       <c r="U782" s="0" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="V782" s="0" t="s">
         <v>33</v>
@@ -53890,7 +53893,7 @@
         <v>464</v>
       </c>
       <c r="U783" s="0" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="V783" s="0" t="s">
         <v>33</v>
@@ -53952,7 +53955,7 @@
         <v>425</v>
       </c>
       <c r="U784" s="0" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="V784" s="0" t="s">
         <v>94</v>
@@ -53993,10 +53996,10 @@
         <v>462</v>
       </c>
       <c r="L785" s="0" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="M785" s="0" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="O785" s="0" t="n">
         <v>1</v>
@@ -54017,7 +54020,7 @@
         <v>199</v>
       </c>
       <c r="U785" s="0" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="V785" s="0" t="s">
         <v>421</v>
@@ -54079,7 +54082,7 @@
         <v>31</v>
       </c>
       <c r="U786" s="0" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="V786" s="0" t="s">
         <v>33</v>
@@ -54141,10 +54144,10 @@
         <v>199</v>
       </c>
       <c r="U787" s="0" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="V787" s="0" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="W787" s="0" t="s">
         <v>34</v>
@@ -54206,13 +54209,13 @@
         <v>254</v>
       </c>
       <c r="U788" s="0" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="V788" s="0" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="W788" s="0" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54247,10 +54250,10 @@
         <v>439</v>
       </c>
       <c r="L789" s="0" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="M789" s="0" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="O789" s="0" t="n">
         <v>1</v>
@@ -54271,7 +54274,7 @@
         <v>215</v>
       </c>
       <c r="U789" s="0" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="V789" s="0" t="s">
         <v>33</v>
@@ -54288,13 +54291,13 @@
         <v>23</v>
       </c>
       <c r="C790" s="0" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="D790" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E790" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F790" s="0" t="s">
         <v>26</v>
@@ -54305,18 +54308,15 @@
       <c r="H790" s="0" t="n">
         <v>863184</v>
       </c>
+      <c r="I790" s="0" t="n">
+        <v>28300716</v>
+      </c>
       <c r="J790" s="0" t="s">
         <v>343</v>
       </c>
       <c r="K790" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="L790" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="M790" s="0" t="s">
-        <v>202</v>
-      </c>
       <c r="O790" s="0" t="n">
         <v>1</v>
       </c>
@@ -54336,10 +54336,10 @@
         <v>72</v>
       </c>
       <c r="U790" s="0" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="V790" s="0" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="W790" s="0" t="s">
         <v>34</v>
@@ -54398,7 +54398,7 @@
         <v>116</v>
       </c>
       <c r="U791" s="0" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="V791" s="0" t="s">
         <v>33</v>
@@ -54439,10 +54439,10 @@
         <v>344</v>
       </c>
       <c r="L792" s="0" t="s">
-        <v>1348</v>
+        <v>991</v>
       </c>
       <c r="M792" s="0" t="s">
-        <v>1349</v>
+        <v>992</v>
       </c>
       <c r="O792" s="0" t="n">
         <v>1</v>
@@ -54566,10 +54566,10 @@
         <v>863267</v>
       </c>
       <c r="J794" s="0" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="K794" s="0" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="L794" s="0" t="s">
         <v>752</v>
@@ -54678,7 +54678,7 @@
         <v>176</v>
       </c>
       <c r="D796" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E796" s="0" t="s">
         <v>36</v>
@@ -54704,6 +54704,9 @@
       <c r="M796" s="0" t="s">
         <v>178</v>
       </c>
+      <c r="N796" s="0" t="s">
+        <v>1355</v>
+      </c>
       <c r="O796" s="0" t="n">
         <v>1</v>
       </c>
@@ -54723,7 +54726,7 @@
         <v>199</v>
       </c>
       <c r="U796" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="V796" s="0" t="s">
         <v>237</v>
@@ -54785,7 +54788,7 @@
         <v>58</v>
       </c>
       <c r="U797" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="V797" s="0" t="s">
         <v>33</v>
@@ -54826,10 +54829,10 @@
         <v>207</v>
       </c>
       <c r="L798" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="M798" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="O798" s="0" t="n">
         <v>1</v>
@@ -54850,10 +54853,10 @@
         <v>199</v>
       </c>
       <c r="U798" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="V798" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="W798" s="0" t="s">
         <v>34</v>
@@ -54867,7 +54870,7 @@
         <v>46</v>
       </c>
       <c r="C799" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D799" s="0" t="s">
         <v>36</v>
@@ -54891,10 +54894,10 @@
         <v>207</v>
       </c>
       <c r="L799" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M799" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="O799" s="0" t="n">
         <v>1</v>
@@ -54915,10 +54918,10 @@
         <v>199</v>
       </c>
       <c r="U799" s="0" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="V799" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="W799" s="0" t="s">
         <v>34</v>
@@ -54980,7 +54983,7 @@
         <v>111</v>
       </c>
       <c r="U800" s="0" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="V800" s="0" t="s">
         <v>33</v>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9392" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9370" uniqueCount="1217">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -2509,12 +2509,6 @@
     <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ELIANA BUENO DA SILVA NF: 29100Data do pagamento: 25/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">DBENKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBENKE@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADP não é de CR´s da GOF.</t>
   </si>
   <si>
@@ -2629,12 +2623,6 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: E. SFORZIN COM. DE MATERIAIS PARA CONSTRUÇÃO LTDA. (60.495.850/0001-30)NF: 13351Data do pagamento: 15/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">CLEBER.FONSECA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEBER.FONSECA@SOLMARISTA.ORG.BR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: CARIATO &amp; CARICATO LTDA - ME - PANIFICADORA A PREDILETANF: 4366Data do pagamento: 04/03/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
@@ -2776,10 +2764,10 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: BPR ASSESSORIA EM SISTEMAS METODOLOGICOS DE NATAÇÃO LTDA (CNPJ: 07.316.119/0001-17)NF: 13657Data do pagamento: 12/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">ESCOSTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESCOSTA@GRUPOMARISTA.ORG.BR</t>
+    <t xml:space="preserve">ACTOLEDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTOLEDO@GRUPOMARISTA.ORG.BR</t>
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:61.116.828/0001-02NF:581303Data do pagamento:14/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner</t>
@@ -3523,12 +3511,6 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: GRESPAN ADVOGADOS ASSOCIADOS (09.027.364/0001-30)NF: 1244Data do pagamento: 08/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">FABIO.ADAMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO.ADAMO@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: GOUVEA JR DESPACHANTE LTDA (02.785.935/0001-56)NF: 2462Data do pagamento: 26/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
@@ -3596,6 +3578,12 @@
   </si>
   <si>
     <t xml:space="preserve">SERVICO DE LIMPEZA EXTERNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GELIANE.QUEMELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GELIANE.QUEMELO@GRUPOMARISTA.ORG.BR</t>
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: CLEAN MALL SERVICOS LTDA (50.784.057/0001-05)NF: 18758Data do pagamento: 26/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
@@ -9816,7 +9804,7 @@
         <v>149</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E97" s="0" t="s">
         <v>36</v>
@@ -20676,10 +20664,10 @@
         <v>73</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F265" s="0" t="s">
         <v>26</v>
@@ -27604,10 +27592,10 @@
         <v>149</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E375" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F375" s="0" t="s">
         <v>26</v>
@@ -31083,10 +31071,10 @@
         <v>268</v>
       </c>
       <c r="D430" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E430" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F430" s="0" t="s">
         <v>26</v>
@@ -31097,6 +31085,9 @@
       <c r="H430" s="0" t="n">
         <v>858397</v>
       </c>
+      <c r="I430" s="0" t="n">
+        <v>28314871</v>
+      </c>
       <c r="J430" s="0" t="s">
         <v>358</v>
       </c>
@@ -31104,13 +31095,13 @@
         <v>359</v>
       </c>
       <c r="L430" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M430" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="N430" s="0" t="s">
         <v>829</v>
-      </c>
-      <c r="M430" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="N430" s="0" t="s">
-        <v>831</v>
       </c>
       <c r="O430" s="0" t="n">
         <v>1</v>
@@ -31131,10 +31122,10 @@
         <v>94</v>
       </c>
       <c r="U430" s="0" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="V430" s="0" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="W430" s="0" t="s">
         <v>34</v>
@@ -31193,7 +31184,7 @@
         <v>77</v>
       </c>
       <c r="U431" s="0" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="V431" s="0" t="s">
         <v>763</v>
@@ -31243,7 +31234,7 @@
         <v>108</v>
       </c>
       <c r="N432" s="0" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="O432" s="0" t="n">
         <v>1</v>
@@ -31264,7 +31255,7 @@
         <v>789</v>
       </c>
       <c r="U432" s="0" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="V432" s="0" t="s">
         <v>491</v>
@@ -31281,7 +31272,7 @@
         <v>46</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D433" s="0" t="s">
         <v>61</v>
@@ -31326,10 +31317,10 @@
         <v>345</v>
       </c>
       <c r="U433" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="V433" s="0" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="W433" s="0" t="s">
         <v>34</v>
@@ -31388,7 +31379,7 @@
         <v>94</v>
       </c>
       <c r="U434" s="0" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="V434" s="0" t="s">
         <v>324</v>
@@ -31405,7 +31396,7 @@
         <v>46</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D435" s="0" t="s">
         <v>61</v>
@@ -31450,10 +31441,10 @@
         <v>345</v>
       </c>
       <c r="U435" s="0" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="V435" s="0" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="W435" s="0" t="s">
         <v>34</v>
@@ -31512,7 +31503,7 @@
         <v>102</v>
       </c>
       <c r="U436" s="0" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="V436" s="0" t="s">
         <v>33</v>
@@ -31574,10 +31565,10 @@
         <v>134</v>
       </c>
       <c r="U437" s="0" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="V437" s="0" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="W437" s="0" t="s">
         <v>34</v>
@@ -31636,7 +31627,7 @@
         <v>58</v>
       </c>
       <c r="U438" s="0" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="V438" s="0" t="s">
         <v>33</v>
@@ -31653,7 +31644,7 @@
         <v>46</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D439" s="0" t="s">
         <v>61</v>
@@ -31698,7 +31689,7 @@
         <v>567</v>
       </c>
       <c r="U439" s="0" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="V439" s="0" t="s">
         <v>33</v>
@@ -31715,7 +31706,7 @@
         <v>23</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D440" s="0" t="s">
         <v>61</v>
@@ -31754,13 +31745,13 @@
         <v>29</v>
       </c>
       <c r="S440" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="T440" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="U440" s="0" t="s">
         <v>849</v>
-      </c>
-      <c r="T440" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="U440" s="0" t="s">
-        <v>851</v>
       </c>
       <c r="V440" s="0" t="s">
         <v>33</v>
@@ -31822,10 +31813,10 @@
         <v>113</v>
       </c>
       <c r="U441" s="0" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="V441" s="0" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="W441" s="0" t="s">
         <v>34</v>
@@ -31839,7 +31830,7 @@
         <v>23</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D442" s="0" t="s">
         <v>61</v>
@@ -31878,13 +31869,13 @@
         <v>29</v>
       </c>
       <c r="S442" s="0" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="T442" s="0" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="U442" s="0" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="V442" s="0" t="s">
         <v>33</v>
@@ -31946,7 +31937,7 @@
         <v>151</v>
       </c>
       <c r="U443" s="0" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="V443" s="0" t="s">
         <v>33</v>
@@ -32008,7 +31999,7 @@
         <v>31</v>
       </c>
       <c r="U444" s="0" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="V444" s="0" t="s">
         <v>33</v>
@@ -32070,7 +32061,7 @@
         <v>31</v>
       </c>
       <c r="U445" s="0" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="V445" s="0" t="s">
         <v>33</v>
@@ -32117,7 +32108,7 @@
         <v>108</v>
       </c>
       <c r="N446" s="0" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="O446" s="0" t="n">
         <v>1</v>
@@ -32138,7 +32129,7 @@
         <v>102</v>
       </c>
       <c r="U446" s="0" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="V446" s="0" t="s">
         <v>33</v>
@@ -32200,7 +32191,7 @@
         <v>58</v>
       </c>
       <c r="U447" s="0" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="V447" s="0" t="s">
         <v>33</v>
@@ -32256,16 +32247,16 @@
         <v>29</v>
       </c>
       <c r="S448" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="T448" s="0" t="s">
+        <v>860</v>
+      </c>
+      <c r="U448" s="0" t="s">
         <v>861</v>
       </c>
-      <c r="T448" s="0" t="s">
+      <c r="V448" s="0" t="s">
         <v>862</v>
-      </c>
-      <c r="U448" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="V448" s="0" t="s">
-        <v>864</v>
       </c>
       <c r="W448" s="0" t="s">
         <v>34</v>
@@ -32279,7 +32270,7 @@
         <v>46</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D449" s="0" t="s">
         <v>25</v>
@@ -32324,7 +32315,7 @@
         <v>401</v>
       </c>
       <c r="U449" s="0" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="V449" s="0" t="s">
         <v>33</v>
@@ -32386,7 +32377,7 @@
         <v>111</v>
       </c>
       <c r="U450" s="0" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="V450" s="0" t="s">
         <v>33</v>
@@ -32418,7 +32409,7 @@
         <v>354569</v>
       </c>
       <c r="H451" s="0" t="n">
-        <v>858881</v>
+        <v>864126</v>
       </c>
       <c r="J451" s="0" t="s">
         <v>358</v>
@@ -32426,6 +32417,12 @@
       <c r="K451" s="0" t="s">
         <v>359</v>
       </c>
+      <c r="L451" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="M451" s="0" t="s">
+        <v>342</v>
+      </c>
       <c r="O451" s="0" t="n">
         <v>1</v>
       </c>
@@ -32445,7 +32442,7 @@
         <v>567</v>
       </c>
       <c r="U451" s="0" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="V451" s="0" t="s">
         <v>33</v>
@@ -32465,10 +32462,10 @@
         <v>201</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E452" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F452" s="0" t="s">
         <v>26</v>
@@ -32479,18 +32476,15 @@
       <c r="H452" s="0" t="n">
         <v>858909</v>
       </c>
+      <c r="I452" s="0" t="n">
+        <v>28314549</v>
+      </c>
       <c r="J452" s="0" t="s">
         <v>142</v>
       </c>
       <c r="K452" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="L452" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="M452" s="0" t="s">
-        <v>870</v>
-      </c>
       <c r="O452" s="0" t="n">
         <v>1</v>
       </c>
@@ -32510,10 +32504,10 @@
         <v>401</v>
       </c>
       <c r="U452" s="0" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="V452" s="0" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="W452" s="0" t="s">
         <v>34</v>
@@ -32572,7 +32566,7 @@
         <v>151</v>
       </c>
       <c r="U453" s="0" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="V453" s="0" t="s">
         <v>33</v>
@@ -32634,10 +32628,10 @@
         <v>94</v>
       </c>
       <c r="U454" s="0" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="V454" s="0" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="W454" s="0" t="s">
         <v>34</v>
@@ -32696,10 +32690,10 @@
         <v>113</v>
       </c>
       <c r="U455" s="0" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="V455" s="0" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="W455" s="0" t="s">
         <v>34</v>
@@ -32758,7 +32752,7 @@
         <v>92</v>
       </c>
       <c r="U456" s="0" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="V456" s="0" t="s">
         <v>33</v>
@@ -32820,10 +32814,10 @@
         <v>570</v>
       </c>
       <c r="U457" s="0" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="V457" s="0" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="W457" s="0" t="s">
         <v>34</v>
@@ -32882,7 +32876,7 @@
         <v>92</v>
       </c>
       <c r="U458" s="0" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="V458" s="0" t="s">
         <v>33</v>
@@ -32938,13 +32932,13 @@
         <v>29</v>
       </c>
       <c r="S459" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="T459" s="0" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="U459" s="0" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="V459" s="0" t="s">
         <v>33</v>
@@ -33000,13 +32994,13 @@
         <v>29</v>
       </c>
       <c r="S460" s="0" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="T460" s="0" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="U460" s="0" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="V460" s="0" t="s">
         <v>33</v>
@@ -33062,13 +33056,13 @@
         <v>29</v>
       </c>
       <c r="S461" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="T461" s="0" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="U461" s="0" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="V461" s="0" t="s">
         <v>33</v>
@@ -33130,7 +33124,7 @@
         <v>97</v>
       </c>
       <c r="U462" s="0" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="V462" s="0" t="s">
         <v>33</v>
@@ -33186,16 +33180,16 @@
         <v>29</v>
       </c>
       <c r="S463" s="0" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="T463" s="0" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="U463" s="0" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="V463" s="0" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="W463" s="0" t="s">
         <v>34</v>
@@ -33254,7 +33248,7 @@
         <v>182</v>
       </c>
       <c r="U464" s="0" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="V464" s="0" t="s">
         <v>33</v>
@@ -33274,10 +33268,10 @@
         <v>201</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E465" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F465" s="0" t="s">
         <v>26</v>
@@ -33288,18 +33282,15 @@
       <c r="H465" s="0" t="n">
         <v>859079</v>
       </c>
+      <c r="I465" s="0" t="n">
+        <v>28314550</v>
+      </c>
       <c r="J465" s="0" t="s">
         <v>639</v>
       </c>
       <c r="K465" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="L465" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="M465" s="0" t="s">
-        <v>870</v>
-      </c>
       <c r="O465" s="0" t="n">
         <v>1</v>
       </c>
@@ -33319,7 +33310,7 @@
         <v>151</v>
       </c>
       <c r="U465" s="0" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="V465" s="0" t="s">
         <v>33</v>
@@ -33336,7 +33327,7 @@
         <v>46</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D466" s="0" t="s">
         <v>61</v>
@@ -33381,7 +33372,7 @@
         <v>361</v>
       </c>
       <c r="U466" s="0" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="V466" s="0" t="s">
         <v>33</v>
@@ -33446,10 +33437,10 @@
         <v>570</v>
       </c>
       <c r="U467" s="0" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="V467" s="0" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="W467" s="0" t="s">
         <v>34</v>
@@ -33486,6 +33477,12 @@
       <c r="K468" s="0" t="s">
         <v>359</v>
       </c>
+      <c r="L468" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="M468" s="0" t="s">
+        <v>342</v>
+      </c>
       <c r="O468" s="0" t="n">
         <v>1</v>
       </c>
@@ -33505,7 +33502,7 @@
         <v>578</v>
       </c>
       <c r="U468" s="0" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="V468" s="0" t="s">
         <v>33</v>
@@ -33561,13 +33558,13 @@
         <v>29</v>
       </c>
       <c r="S469" s="0" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="T469" s="0" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="U469" s="0" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="V469" s="0" t="s">
         <v>33</v>
@@ -33629,7 +33626,7 @@
         <v>66</v>
       </c>
       <c r="U470" s="0" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="V470" s="0" t="s">
         <v>33</v>
@@ -33691,7 +33688,7 @@
         <v>66</v>
       </c>
       <c r="U471" s="0" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="V471" s="0" t="s">
         <v>33</v>
@@ -33708,7 +33705,7 @@
         <v>46</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D472" s="0" t="s">
         <v>61</v>
@@ -33753,7 +33750,7 @@
         <v>111</v>
       </c>
       <c r="U472" s="0" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="V472" s="0" t="s">
         <v>33</v>
@@ -33818,10 +33815,10 @@
         <v>111</v>
       </c>
       <c r="U473" s="0" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="V473" s="0" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="W473" s="0" t="s">
         <v>34</v>
@@ -33835,7 +33832,7 @@
         <v>46</v>
       </c>
       <c r="C474" s="0" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D474" s="0" t="s">
         <v>61</v>
@@ -33880,10 +33877,10 @@
         <v>570</v>
       </c>
       <c r="U474" s="0" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="V474" s="0" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="W474" s="0" t="s">
         <v>34</v>
@@ -33942,10 +33939,10 @@
         <v>134</v>
       </c>
       <c r="U475" s="0" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="V475" s="0" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="W475" s="0" t="s">
         <v>34</v>
@@ -34001,16 +33998,16 @@
         <v>29</v>
       </c>
       <c r="S476" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="T476" s="0" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="U476" s="0" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="V476" s="0" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="W476" s="0" t="s">
         <v>34</v>
@@ -34069,10 +34066,10 @@
         <v>80</v>
       </c>
       <c r="U477" s="0" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="V477" s="0" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="W477" s="0" t="s">
         <v>34</v>
@@ -34131,7 +34128,7 @@
         <v>111</v>
       </c>
       <c r="U478" s="0" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="V478" s="0" t="s">
         <v>33</v>
@@ -34193,7 +34190,7 @@
         <v>134</v>
       </c>
       <c r="U479" s="0" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="V479" s="0" t="s">
         <v>165</v>
@@ -34255,7 +34252,7 @@
         <v>134</v>
       </c>
       <c r="U480" s="0" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="V480" s="0" t="s">
         <v>81</v>
@@ -34296,10 +34293,10 @@
         <v>640</v>
       </c>
       <c r="L481" s="0" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="M481" s="0" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="O481" s="0" t="n">
         <v>1</v>
@@ -34320,7 +34317,7 @@
         <v>361</v>
       </c>
       <c r="U481" s="0" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="V481" s="0" t="s">
         <v>33</v>
@@ -34340,10 +34337,10 @@
         <v>538</v>
       </c>
       <c r="D482" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E482" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F482" s="0" t="s">
         <v>26</v>
@@ -34354,18 +34351,15 @@
       <c r="H482" s="0" t="n">
         <v>859396</v>
       </c>
+      <c r="I482" s="0" t="n">
+        <v>28313874</v>
+      </c>
       <c r="J482" s="0" t="s">
         <v>142</v>
       </c>
       <c r="K482" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="L482" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="M482" s="0" t="s">
-        <v>919</v>
-      </c>
       <c r="O482" s="0" t="n">
         <v>1</v>
       </c>
@@ -34385,10 +34379,10 @@
         <v>31</v>
       </c>
       <c r="U482" s="0" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="V482" s="0" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="W482" s="0" t="s">
         <v>34</v>
@@ -34405,10 +34399,10 @@
         <v>538</v>
       </c>
       <c r="D483" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E483" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F483" s="0" t="s">
         <v>26</v>
@@ -34419,18 +34413,15 @@
       <c r="H483" s="0" t="n">
         <v>859399</v>
       </c>
+      <c r="I483" s="0" t="n">
+        <v>28313875</v>
+      </c>
       <c r="J483" s="0" t="s">
         <v>358</v>
       </c>
       <c r="K483" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="L483" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="M483" s="0" t="s">
-        <v>919</v>
-      </c>
       <c r="O483" s="0" t="n">
         <v>1</v>
       </c>
@@ -34450,7 +34441,7 @@
         <v>361</v>
       </c>
       <c r="U483" s="0" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="V483" s="0" t="s">
         <v>33</v>
@@ -34512,7 +34503,7 @@
         <v>92</v>
       </c>
       <c r="U484" s="0" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="V484" s="0" t="s">
         <v>33</v>
@@ -34532,10 +34523,10 @@
         <v>538</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E485" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F485" s="0" t="s">
         <v>26</v>
@@ -34546,18 +34537,15 @@
       <c r="H485" s="0" t="n">
         <v>859453</v>
       </c>
+      <c r="I485" s="0" t="n">
+        <v>28313877</v>
+      </c>
       <c r="J485" s="0" t="s">
         <v>142</v>
       </c>
       <c r="K485" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="L485" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="M485" s="0" t="s">
-        <v>919</v>
-      </c>
       <c r="O485" s="0" t="n">
         <v>1</v>
       </c>
@@ -34577,10 +34565,10 @@
         <v>31</v>
       </c>
       <c r="U485" s="0" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="V485" s="0" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="W485" s="0" t="s">
         <v>34</v>
@@ -34642,7 +34630,7 @@
         <v>188</v>
       </c>
       <c r="U486" s="0" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="V486" s="0" t="s">
         <v>135</v>
@@ -34704,7 +34692,7 @@
         <v>102</v>
       </c>
       <c r="U487" s="0" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="V487" s="0" t="s">
         <v>33</v>
@@ -34724,10 +34712,10 @@
         <v>201</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F488" s="0" t="s">
         <v>26</v>
@@ -34738,18 +34726,15 @@
       <c r="H488" s="0" t="n">
         <v>859470</v>
       </c>
+      <c r="I488" s="0" t="n">
+        <v>28314551</v>
+      </c>
       <c r="J488" s="0" t="s">
         <v>103</v>
       </c>
       <c r="K488" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L488" s="0" t="s">
-        <v>869</v>
-      </c>
-      <c r="M488" s="0" t="s">
-        <v>870</v>
-      </c>
       <c r="O488" s="0" t="n">
         <v>1</v>
       </c>
@@ -34769,7 +34754,7 @@
         <v>188</v>
       </c>
       <c r="U488" s="0" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="V488" s="0" t="s">
         <v>135</v>
@@ -34834,7 +34819,7 @@
         <v>188</v>
       </c>
       <c r="U489" s="0" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="V489" s="0" t="s">
         <v>135</v>
@@ -34896,7 +34881,7 @@
         <v>102</v>
       </c>
       <c r="U490" s="0" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="V490" s="0" t="s">
         <v>33</v>
@@ -34958,7 +34943,7 @@
         <v>102</v>
       </c>
       <c r="U491" s="0" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="V491" s="0" t="s">
         <v>33</v>
@@ -34975,7 +34960,7 @@
         <v>46</v>
       </c>
       <c r="C492" s="0" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D492" s="0" t="s">
         <v>36</v>
@@ -34999,10 +34984,10 @@
         <v>640</v>
       </c>
       <c r="L492" s="0" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="M492" s="0" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="O492" s="0" t="n">
         <v>1</v>
@@ -35023,7 +35008,7 @@
         <v>134</v>
       </c>
       <c r="U492" s="0" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="V492" s="0" t="s">
         <v>165</v>
@@ -35085,7 +35070,7 @@
         <v>113</v>
       </c>
       <c r="U493" s="0" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="V493" s="0" t="s">
         <v>114</v>
@@ -35141,16 +35126,16 @@
         <v>29</v>
       </c>
       <c r="S494" s="0" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="T494" s="0" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="U494" s="0" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="V494" s="0" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="W494" s="0" t="s">
         <v>34</v>
@@ -35209,7 +35194,7 @@
         <v>570</v>
       </c>
       <c r="U495" s="0" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="V495" s="0" t="s">
         <v>461</v>
@@ -35271,7 +35256,7 @@
         <v>151</v>
       </c>
       <c r="U496" s="0" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="V496" s="0" t="s">
         <v>33</v>
@@ -35327,16 +35312,16 @@
         <v>29</v>
       </c>
       <c r="S497" s="0" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="T497" s="0" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="U497" s="0" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="V497" s="0" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="W497" s="0" t="s">
         <v>34</v>
@@ -35395,7 +35380,7 @@
         <v>151</v>
       </c>
       <c r="U498" s="0" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="V498" s="0" t="s">
         <v>33</v>
@@ -35412,7 +35397,7 @@
         <v>46</v>
       </c>
       <c r="C499" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D499" s="0" t="s">
         <v>61</v>
@@ -35457,7 +35442,7 @@
         <v>361</v>
       </c>
       <c r="U499" s="0" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="V499" s="0" t="s">
         <v>33</v>
@@ -35474,7 +35459,7 @@
         <v>46</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D500" s="0" t="s">
         <v>61</v>
@@ -35513,13 +35498,13 @@
         <v>29</v>
       </c>
       <c r="S500" s="0" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="T500" s="0" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="U500" s="0" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="V500" s="0" t="s">
         <v>33</v>
@@ -35536,7 +35521,7 @@
         <v>46</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D501" s="0" t="s">
         <v>36</v>
@@ -35560,10 +35545,10 @@
         <v>75</v>
       </c>
       <c r="L501" s="0" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="M501" s="0" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="O501" s="0" t="n">
         <v>1</v>
@@ -35584,7 +35569,7 @@
         <v>31</v>
       </c>
       <c r="U501" s="0" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="V501" s="0" t="s">
         <v>33</v>
@@ -35646,7 +35631,7 @@
         <v>345</v>
       </c>
       <c r="U502" s="0" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="V502" s="0" t="s">
         <v>461</v>
@@ -35663,7 +35648,7 @@
         <v>46</v>
       </c>
       <c r="C503" s="0" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D503" s="0" t="s">
         <v>36</v>
@@ -35687,10 +35672,10 @@
         <v>75</v>
       </c>
       <c r="L503" s="0" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="M503" s="0" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="O503" s="0" t="n">
         <v>1</v>
@@ -35711,7 +35696,7 @@
         <v>31</v>
       </c>
       <c r="U503" s="0" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="V503" s="0" t="s">
         <v>33</v>
@@ -35728,7 +35713,7 @@
         <v>46</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D504" s="0" t="s">
         <v>61</v>
@@ -35773,7 +35758,7 @@
         <v>77</v>
       </c>
       <c r="U504" s="0" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="V504" s="0" t="s">
         <v>33</v>
@@ -35835,7 +35820,7 @@
         <v>345</v>
       </c>
       <c r="U505" s="0" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="V505" s="0" t="s">
         <v>461</v>
@@ -35852,7 +35837,7 @@
         <v>46</v>
       </c>
       <c r="C506" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D506" s="0" t="s">
         <v>61</v>
@@ -35897,7 +35882,7 @@
         <v>77</v>
       </c>
       <c r="U506" s="0" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="V506" s="0" t="s">
         <v>33</v>
@@ -35959,7 +35944,7 @@
         <v>77</v>
       </c>
       <c r="U507" s="0" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="V507" s="0" t="s">
         <v>33</v>
@@ -35976,7 +35961,7 @@
         <v>46</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D508" s="0" t="s">
         <v>61</v>
@@ -35997,10 +35982,10 @@
         <v>28192450</v>
       </c>
       <c r="J508" s="0" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K508" s="0" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="O508" s="0" t="n">
         <v>1</v>
@@ -36021,7 +36006,7 @@
         <v>58</v>
       </c>
       <c r="U508" s="0" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="V508" s="0" t="s">
         <v>33</v>
@@ -36038,7 +36023,7 @@
         <v>46</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D509" s="0" t="s">
         <v>61</v>
@@ -36083,7 +36068,7 @@
         <v>31</v>
       </c>
       <c r="U509" s="0" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="V509" s="0" t="s">
         <v>33</v>
@@ -36100,7 +36085,7 @@
         <v>46</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D510" s="0" t="s">
         <v>61</v>
@@ -36145,7 +36130,7 @@
         <v>77</v>
       </c>
       <c r="U510" s="0" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="V510" s="0" t="s">
         <v>33</v>
@@ -36162,7 +36147,7 @@
         <v>46</v>
       </c>
       <c r="C511" s="0" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D511" s="0" t="s">
         <v>36</v>
@@ -36186,10 +36171,10 @@
         <v>294</v>
       </c>
       <c r="L511" s="0" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="M511" s="0" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="O511" s="0" t="n">
         <v>1</v>
@@ -36210,7 +36195,7 @@
         <v>122</v>
       </c>
       <c r="U511" s="0" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="V511" s="0" t="s">
         <v>548</v>
@@ -36227,7 +36212,7 @@
         <v>46</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D512" s="0" t="s">
         <v>61</v>
@@ -36272,7 +36257,7 @@
         <v>113</v>
       </c>
       <c r="U512" s="0" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="V512" s="0" t="s">
         <v>114</v>
@@ -36289,7 +36274,7 @@
         <v>46</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D513" s="0" t="s">
         <v>61</v>
@@ -36334,7 +36319,7 @@
         <v>578</v>
       </c>
       <c r="U513" s="0" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="V513" s="0" t="s">
         <v>33</v>
@@ -36396,7 +36381,7 @@
         <v>31</v>
       </c>
       <c r="U514" s="0" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="V514" s="0" t="s">
         <v>33</v>
@@ -36458,10 +36443,10 @@
         <v>345</v>
       </c>
       <c r="U515" s="0" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="V515" s="0" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="W515" s="0" t="s">
         <v>34</v>
@@ -36475,7 +36460,7 @@
         <v>46</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D516" s="0" t="s">
         <v>61</v>
@@ -36520,7 +36505,7 @@
         <v>151</v>
       </c>
       <c r="U516" s="0" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="V516" s="0" t="s">
         <v>33</v>
@@ -36540,10 +36525,10 @@
         <v>538</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E517" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F517" s="0" t="s">
         <v>26</v>
@@ -36554,18 +36539,15 @@
       <c r="H517" s="0" t="n">
         <v>860132</v>
       </c>
+      <c r="I517" s="0" t="n">
+        <v>28313882</v>
+      </c>
       <c r="J517" s="0" t="s">
         <v>358</v>
       </c>
       <c r="K517" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="L517" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="M517" s="0" t="s">
-        <v>919</v>
-      </c>
       <c r="O517" s="0" t="n">
         <v>1</v>
       </c>
@@ -36585,7 +36567,7 @@
         <v>361</v>
       </c>
       <c r="U517" s="0" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="V517" s="0" t="s">
         <v>33</v>
@@ -36605,10 +36587,10 @@
         <v>538</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F518" s="0" t="s">
         <v>26</v>
@@ -36619,18 +36601,15 @@
       <c r="H518" s="0" t="n">
         <v>860140</v>
       </c>
+      <c r="I518" s="0" t="n">
+        <v>28313883</v>
+      </c>
       <c r="J518" s="0" t="s">
         <v>358</v>
       </c>
       <c r="K518" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="L518" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="M518" s="0" t="s">
-        <v>919</v>
-      </c>
       <c r="O518" s="0" t="n">
         <v>1</v>
       </c>
@@ -36650,7 +36629,7 @@
         <v>361</v>
       </c>
       <c r="U518" s="0" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="V518" s="0" t="s">
         <v>33</v>
@@ -36688,10 +36667,10 @@
         <v>28295007</v>
       </c>
       <c r="J519" s="0" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K519" s="0" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="L519" s="0" t="s">
         <v>144</v>
@@ -36718,7 +36697,7 @@
         <v>167</v>
       </c>
       <c r="U519" s="0" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="V519" s="0" t="s">
         <v>33</v>
@@ -36774,16 +36753,16 @@
         <v>29</v>
       </c>
       <c r="S520" s="0" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="T520" s="0" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="U520" s="0" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="V520" s="0" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="W520" s="0" t="s">
         <v>34</v>
@@ -36836,16 +36815,16 @@
         <v>29</v>
       </c>
       <c r="S521" s="0" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="T521" s="0" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="U521" s="0" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="V521" s="0" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="W521" s="0" t="s">
         <v>34</v>
@@ -36904,7 +36883,7 @@
         <v>188</v>
       </c>
       <c r="U522" s="0" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="V522" s="0" t="s">
         <v>135</v>
@@ -36966,7 +36945,7 @@
         <v>94</v>
       </c>
       <c r="U523" s="0" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="V523" s="0" t="s">
         <v>349</v>
@@ -37028,7 +37007,7 @@
         <v>94</v>
       </c>
       <c r="U524" s="0" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="V524" s="0" t="s">
         <v>686</v>
@@ -37090,7 +37069,7 @@
         <v>66</v>
       </c>
       <c r="U525" s="0" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="V525" s="0" t="s">
         <v>33</v>
@@ -37152,10 +37131,10 @@
         <v>345</v>
       </c>
       <c r="U526" s="0" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="V526" s="0" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="W526" s="0" t="s">
         <v>34</v>
@@ -37193,10 +37172,10 @@
         <v>28</v>
       </c>
       <c r="L527" s="0" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="M527" s="0" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="O527" s="0" t="n">
         <v>1</v>
@@ -37217,7 +37196,7 @@
         <v>182</v>
       </c>
       <c r="U527" s="0" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="V527" s="0" t="s">
         <v>258</v>
@@ -37279,7 +37258,7 @@
         <v>401</v>
       </c>
       <c r="U528" s="0" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="V528" s="0" t="s">
         <v>33</v>
@@ -37299,10 +37278,10 @@
         <v>376</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E529" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F529" s="0" t="s">
         <v>26</v>
@@ -37323,10 +37302,10 @@
         <v>412</v>
       </c>
       <c r="L529" s="0" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="M529" s="0" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="O529" s="0" t="n">
         <v>1</v>
@@ -37347,7 +37326,7 @@
         <v>94</v>
       </c>
       <c r="U529" s="0" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="V529" s="0" t="s">
         <v>418</v>
@@ -37367,10 +37346,10 @@
         <v>376</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F530" s="0" t="s">
         <v>26</v>
@@ -37391,10 +37370,10 @@
         <v>412</v>
       </c>
       <c r="L530" s="0" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="M530" s="0" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="O530" s="0" t="n">
         <v>1</v>
@@ -37415,7 +37394,7 @@
         <v>94</v>
       </c>
       <c r="U530" s="0" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="V530" s="0" t="s">
         <v>418</v>
@@ -37435,10 +37414,10 @@
         <v>376</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F531" s="0" t="s">
         <v>26</v>
@@ -37459,10 +37438,10 @@
         <v>412</v>
       </c>
       <c r="L531" s="0" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M531" s="0" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="O531" s="0" t="n">
         <v>1</v>
@@ -37483,7 +37462,7 @@
         <v>94</v>
       </c>
       <c r="U531" s="0" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="V531" s="0" t="s">
         <v>418</v>
@@ -37503,10 +37482,10 @@
         <v>376</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F532" s="0" t="s">
         <v>26</v>
@@ -37527,10 +37506,10 @@
         <v>412</v>
       </c>
       <c r="L532" s="0" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="M532" s="0" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="O532" s="0" t="n">
         <v>1</v>
@@ -37551,7 +37530,7 @@
         <v>94</v>
       </c>
       <c r="U532" s="0" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="V532" s="0" t="s">
         <v>418</v>
@@ -37613,10 +37592,10 @@
         <v>345</v>
       </c>
       <c r="U533" s="0" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="V533" s="0" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="W533" s="0" t="s">
         <v>34</v>
@@ -37675,7 +37654,7 @@
         <v>92</v>
       </c>
       <c r="U534" s="0" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="V534" s="0" t="s">
         <v>33</v>
@@ -37722,7 +37701,7 @@
         <v>108</v>
       </c>
       <c r="N535" s="0" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="O535" s="0" t="n">
         <v>1</v>
@@ -37743,7 +37722,7 @@
         <v>435</v>
       </c>
       <c r="U535" s="0" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="V535" s="0" t="s">
         <v>33</v>
@@ -37805,7 +37784,7 @@
         <v>97</v>
       </c>
       <c r="U536" s="0" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="V536" s="0" t="s">
         <v>33</v>
@@ -37867,7 +37846,7 @@
         <v>113</v>
       </c>
       <c r="U537" s="0" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="V537" s="0" t="s">
         <v>114</v>
@@ -37929,10 +37908,10 @@
         <v>345</v>
       </c>
       <c r="U538" s="0" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="V538" s="0" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="W538" s="0" t="s">
         <v>34</v>
@@ -37991,7 +37970,7 @@
         <v>401</v>
       </c>
       <c r="U539" s="0" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="V539" s="0" t="s">
         <v>33</v>
@@ -38056,7 +38035,7 @@
         <v>66</v>
       </c>
       <c r="U540" s="0" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="V540" s="0" t="s">
         <v>33</v>
@@ -38118,7 +38097,7 @@
         <v>58</v>
       </c>
       <c r="U541" s="0" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="V541" s="0" t="s">
         <v>33</v>
@@ -38135,13 +38114,13 @@
         <v>46</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E542" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F542" s="0" t="s">
         <v>26</v>
@@ -38180,7 +38159,7 @@
         <v>66</v>
       </c>
       <c r="U542" s="0" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="V542" s="0" t="s">
         <v>33</v>
@@ -38242,7 +38221,7 @@
         <v>345</v>
       </c>
       <c r="U543" s="0" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="V543" s="0" t="s">
         <v>765</v>
@@ -38304,7 +38283,7 @@
         <v>401</v>
       </c>
       <c r="U544" s="0" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="V544" s="0" t="s">
         <v>33</v>
@@ -38366,7 +38345,7 @@
         <v>66</v>
       </c>
       <c r="U545" s="0" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="V545" s="0" t="s">
         <v>33</v>
@@ -38410,10 +38389,10 @@
         <v>104</v>
       </c>
       <c r="L546" s="0" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="M546" s="0" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="O546" s="0" t="n">
         <v>1</v>
@@ -38434,10 +38413,10 @@
         <v>182</v>
       </c>
       <c r="U546" s="0" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="V546" s="0" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="W546" s="0" t="s">
         <v>34</v>
@@ -38496,7 +38475,7 @@
         <v>94</v>
       </c>
       <c r="U547" s="0" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="V547" s="0" t="s">
         <v>418</v>
@@ -38513,7 +38492,7 @@
         <v>46</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D548" s="0" t="s">
         <v>61</v>
@@ -38558,7 +38537,7 @@
         <v>58</v>
       </c>
       <c r="U548" s="0" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="V548" s="0" t="s">
         <v>33</v>
@@ -38620,7 +38599,7 @@
         <v>31</v>
       </c>
       <c r="U549" s="0" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="V549" s="0" t="s">
         <v>33</v>
@@ -38682,7 +38661,7 @@
         <v>401</v>
       </c>
       <c r="U550" s="0" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="V550" s="0" t="s">
         <v>33</v>
@@ -38720,10 +38699,10 @@
         <v>28208289</v>
       </c>
       <c r="J551" s="0" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K551" s="0" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="O551" s="0" t="n">
         <v>1</v>
@@ -38744,7 +38723,7 @@
         <v>401</v>
       </c>
       <c r="U551" s="0" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="V551" s="0" t="s">
         <v>33</v>
@@ -38806,7 +38785,7 @@
         <v>58</v>
       </c>
       <c r="U552" s="0" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="V552" s="0" t="s">
         <v>33</v>
@@ -38868,7 +38847,7 @@
         <v>401</v>
       </c>
       <c r="U553" s="0" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="V553" s="0" t="s">
         <v>33</v>
@@ -38930,7 +38909,7 @@
         <v>345</v>
       </c>
       <c r="U554" s="0" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="V554" s="0" t="s">
         <v>765</v>
@@ -38992,7 +38971,7 @@
         <v>66</v>
       </c>
       <c r="U555" s="0" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="V555" s="0" t="s">
         <v>33</v>
@@ -39054,7 +39033,7 @@
         <v>66</v>
       </c>
       <c r="U556" s="0" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="V556" s="0" t="s">
         <v>33</v>
@@ -39116,7 +39095,7 @@
         <v>113</v>
       </c>
       <c r="U557" s="0" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="V557" s="0" t="s">
         <v>114</v>
@@ -39136,10 +39115,10 @@
         <v>127</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F558" s="0" t="s">
         <v>26</v>
@@ -39160,10 +39139,10 @@
         <v>270</v>
       </c>
       <c r="L558" s="0" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="M558" s="0" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="O558" s="0" t="n">
         <v>1</v>
@@ -39184,7 +39163,7 @@
         <v>151</v>
       </c>
       <c r="U558" s="0" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="V558" s="0" t="s">
         <v>33</v>
@@ -39246,7 +39225,7 @@
         <v>66</v>
       </c>
       <c r="U559" s="0" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="V559" s="0" t="s">
         <v>33</v>
@@ -39263,7 +39242,7 @@
         <v>46</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D560" s="0" t="s">
         <v>61</v>
@@ -39308,7 +39287,7 @@
         <v>58</v>
       </c>
       <c r="U560" s="0" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="V560" s="0" t="s">
         <v>33</v>
@@ -39343,10 +39322,10 @@
         <v>860592</v>
       </c>
       <c r="J561" s="0" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K561" s="0" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="L561" s="0" t="s">
         <v>54</v>
@@ -39355,7 +39334,7 @@
         <v>55</v>
       </c>
       <c r="N561" s="0" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="O561" s="0" t="n">
         <v>1</v>
@@ -39376,7 +39355,7 @@
         <v>401</v>
       </c>
       <c r="U561" s="0" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="V561" s="0" t="s">
         <v>33</v>
@@ -39438,7 +39417,7 @@
         <v>401</v>
       </c>
       <c r="U562" s="0" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="V562" s="0" t="s">
         <v>33</v>
@@ -39500,7 +39479,7 @@
         <v>92</v>
       </c>
       <c r="U563" s="0" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="V563" s="0" t="s">
         <v>33</v>
@@ -39562,7 +39541,7 @@
         <v>66</v>
       </c>
       <c r="U564" s="0" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="V564" s="0" t="s">
         <v>33</v>
@@ -39624,7 +39603,7 @@
         <v>102</v>
       </c>
       <c r="U565" s="0" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="V565" s="0" t="s">
         <v>33</v>
@@ -39641,7 +39620,7 @@
         <v>153</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D566" s="0" t="s">
         <v>61</v>
@@ -39686,7 +39665,7 @@
         <v>58</v>
       </c>
       <c r="U566" s="0" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="V566" s="0" t="s">
         <v>33</v>
@@ -39703,7 +39682,7 @@
         <v>46</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D567" s="0" t="s">
         <v>61</v>
@@ -39748,7 +39727,7 @@
         <v>151</v>
       </c>
       <c r="U567" s="0" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="V567" s="0" t="s">
         <v>33</v>
@@ -39810,7 +39789,7 @@
         <v>401</v>
       </c>
       <c r="U568" s="0" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="V568" s="0" t="s">
         <v>33</v>
@@ -39872,7 +39851,7 @@
         <v>102</v>
       </c>
       <c r="U569" s="0" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="V569" s="0" t="s">
         <v>33</v>
@@ -39934,7 +39913,7 @@
         <v>151</v>
       </c>
       <c r="U570" s="0" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="V570" s="0" t="s">
         <v>33</v>
@@ -39996,7 +39975,7 @@
         <v>401</v>
       </c>
       <c r="U571" s="0" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="V571" s="0" t="s">
         <v>33</v>
@@ -40058,13 +40037,13 @@
         <v>401</v>
       </c>
       <c r="U572" s="0" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="V572" s="0" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="W572" s="0" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40120,7 +40099,7 @@
         <v>102</v>
       </c>
       <c r="U573" s="0" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="V573" s="0" t="s">
         <v>33</v>
@@ -40182,7 +40161,7 @@
         <v>92</v>
       </c>
       <c r="U574" s="0" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="V574" s="0" t="s">
         <v>33</v>
@@ -40244,7 +40223,7 @@
         <v>401</v>
       </c>
       <c r="U575" s="0" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="V575" s="0" t="s">
         <v>33</v>
@@ -40282,10 +40261,10 @@
         <v>28208293</v>
       </c>
       <c r="J576" s="0" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K576" s="0" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="O576" s="0" t="n">
         <v>1</v>
@@ -40306,7 +40285,7 @@
         <v>401</v>
       </c>
       <c r="U576" s="0" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="V576" s="0" t="s">
         <v>33</v>
@@ -40368,7 +40347,7 @@
         <v>102</v>
       </c>
       <c r="U577" s="0" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="V577" s="0" t="s">
         <v>33</v>
@@ -40430,7 +40409,7 @@
         <v>182</v>
       </c>
       <c r="U578" s="0" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="V578" s="0" t="s">
         <v>258</v>
@@ -40492,7 +40471,7 @@
         <v>66</v>
       </c>
       <c r="U579" s="0" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="V579" s="0" t="s">
         <v>33</v>
@@ -40554,7 +40533,7 @@
         <v>401</v>
       </c>
       <c r="U580" s="0" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="V580" s="0" t="s">
         <v>33</v>
@@ -40589,10 +40568,10 @@
         <v>860636</v>
       </c>
       <c r="J581" s="0" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K581" s="0" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="L581" s="0" t="s">
         <v>107</v>
@@ -40601,7 +40580,7 @@
         <v>108</v>
       </c>
       <c r="N581" s="0" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="O581" s="0" t="n">
         <v>1</v>
@@ -40622,7 +40601,7 @@
         <v>401</v>
       </c>
       <c r="U581" s="0" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="V581" s="0" t="s">
         <v>33</v>
@@ -40684,7 +40663,7 @@
         <v>401</v>
       </c>
       <c r="U582" s="0" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="V582" s="0" t="s">
         <v>33</v>
@@ -40746,7 +40725,7 @@
         <v>92</v>
       </c>
       <c r="U583" s="0" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="V583" s="0" t="s">
         <v>33</v>
@@ -40808,13 +40787,13 @@
         <v>401</v>
       </c>
       <c r="U584" s="0" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="V584" s="0" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="W584" s="0" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40870,7 +40849,7 @@
         <v>401</v>
       </c>
       <c r="U585" s="0" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="V585" s="0" t="s">
         <v>33</v>
@@ -40887,7 +40866,7 @@
         <v>46</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D586" s="0" t="s">
         <v>61</v>
@@ -40926,13 +40905,13 @@
         <v>29</v>
       </c>
       <c r="S586" s="0" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="T586" s="0" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="U586" s="0" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="V586" s="0" t="s">
         <v>33</v>
@@ -40994,7 +40973,7 @@
         <v>401</v>
       </c>
       <c r="U587" s="0" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="V587" s="0" t="s">
         <v>33</v>
@@ -41056,7 +41035,7 @@
         <v>66</v>
       </c>
       <c r="U588" s="0" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="V588" s="0" t="s">
         <v>33</v>
@@ -41118,7 +41097,7 @@
         <v>92</v>
       </c>
       <c r="U589" s="0" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="V589" s="0" t="s">
         <v>33</v>
@@ -41180,7 +41159,7 @@
         <v>401</v>
       </c>
       <c r="U590" s="0" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="V590" s="0" t="s">
         <v>33</v>
@@ -41200,10 +41179,10 @@
         <v>665</v>
       </c>
       <c r="D591" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F591" s="0" t="s">
         <v>26</v>
@@ -41242,7 +41221,7 @@
         <v>66</v>
       </c>
       <c r="U591" s="0" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="V591" s="0" t="s">
         <v>33</v>
@@ -41304,7 +41283,7 @@
         <v>401</v>
       </c>
       <c r="U592" s="0" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="V592" s="0" t="s">
         <v>33</v>
@@ -41366,7 +41345,7 @@
         <v>182</v>
       </c>
       <c r="U593" s="0" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="V593" s="0" t="s">
         <v>258</v>
@@ -41428,7 +41407,7 @@
         <v>401</v>
       </c>
       <c r="U594" s="0" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="V594" s="0" t="s">
         <v>33</v>
@@ -41490,10 +41469,10 @@
         <v>401</v>
       </c>
       <c r="U595" s="0" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="V595" s="0" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="W595" s="0" t="s">
         <v>34</v>
@@ -41552,7 +41531,7 @@
         <v>401</v>
       </c>
       <c r="U596" s="0" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="V596" s="0" t="s">
         <v>33</v>
@@ -41614,7 +41593,7 @@
         <v>92</v>
       </c>
       <c r="U597" s="0" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="V597" s="0" t="s">
         <v>33</v>
@@ -41676,7 +41655,7 @@
         <v>92</v>
       </c>
       <c r="U598" s="0" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="V598" s="0" t="s">
         <v>33</v>
@@ -41738,7 +41717,7 @@
         <v>92</v>
       </c>
       <c r="U599" s="0" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="V599" s="0" t="s">
         <v>33</v>
@@ -41800,7 +41779,7 @@
         <v>263</v>
       </c>
       <c r="U600" s="0" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="V600" s="0" t="s">
         <v>265</v>
@@ -41841,13 +41820,13 @@
         <v>359</v>
       </c>
       <c r="L601" s="0" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="M601" s="0" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="N601" s="0" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="O601" s="0" t="n">
         <v>1</v>
@@ -41868,7 +41847,7 @@
         <v>151</v>
       </c>
       <c r="U601" s="0" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="V601" s="0" t="s">
         <v>33</v>
@@ -41930,7 +41909,7 @@
         <v>182</v>
       </c>
       <c r="U602" s="0" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="V602" s="0" t="s">
         <v>33</v>
@@ -41980,7 +41959,7 @@
         <v>342</v>
       </c>
       <c r="N603" s="0" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="O603" s="0" t="n">
         <v>1</v>
@@ -42001,10 +41980,10 @@
         <v>285</v>
       </c>
       <c r="U603" s="0" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="V603" s="0" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="W603" s="0" t="s">
         <v>34</v>
@@ -42063,7 +42042,7 @@
         <v>66</v>
       </c>
       <c r="U604" s="0" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="V604" s="0" t="s">
         <v>33</v>
@@ -42104,10 +42083,10 @@
         <v>143</v>
       </c>
       <c r="L605" s="0" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="M605" s="0" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="O605" s="0" t="n">
         <v>1</v>
@@ -42128,7 +42107,7 @@
         <v>31</v>
       </c>
       <c r="U605" s="0" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="V605" s="0" t="s">
         <v>33</v>
@@ -42190,7 +42169,7 @@
         <v>102</v>
       </c>
       <c r="U606" s="0" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="V606" s="0" t="s">
         <v>33</v>
@@ -42252,10 +42231,10 @@
         <v>489</v>
       </c>
       <c r="U607" s="0" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="V607" s="0" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="W607" s="0" t="s">
         <v>34</v>
@@ -42314,10 +42293,10 @@
         <v>489</v>
       </c>
       <c r="U608" s="0" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="V608" s="0" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="W608" s="0" t="s">
         <v>34</v>
@@ -42376,7 +42355,7 @@
         <v>113</v>
       </c>
       <c r="U609" s="0" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="V609" s="0" t="s">
         <v>114</v>
@@ -42438,7 +42417,7 @@
         <v>102</v>
       </c>
       <c r="U610" s="0" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="V610" s="0" t="s">
         <v>33</v>
@@ -42500,7 +42479,7 @@
         <v>182</v>
       </c>
       <c r="U611" s="0" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="V611" s="0" t="s">
         <v>258</v>
@@ -42562,7 +42541,7 @@
         <v>113</v>
       </c>
       <c r="U612" s="0" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="V612" s="0" t="s">
         <v>114</v>
@@ -42624,7 +42603,7 @@
         <v>66</v>
       </c>
       <c r="U613" s="0" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="V613" s="0" t="s">
         <v>33</v>
@@ -42686,7 +42665,7 @@
         <v>66</v>
       </c>
       <c r="U614" s="0" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="V614" s="0" t="s">
         <v>33</v>
@@ -42748,7 +42727,7 @@
         <v>66</v>
       </c>
       <c r="U615" s="0" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="V615" s="0" t="s">
         <v>33</v>
@@ -42810,7 +42789,7 @@
         <v>66</v>
       </c>
       <c r="U616" s="0" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="V616" s="0" t="s">
         <v>33</v>
@@ -42875,7 +42854,7 @@
         <v>134</v>
       </c>
       <c r="U617" s="0" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="V617" s="0" t="s">
         <v>165</v>
@@ -42910,10 +42889,10 @@
         <v>861327</v>
       </c>
       <c r="J618" s="0" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K618" s="0" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="L618" s="0" t="s">
         <v>773</v>
@@ -42940,7 +42919,7 @@
         <v>263</v>
       </c>
       <c r="U618" s="0" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="V618" s="0" t="s">
         <v>265</v>
@@ -43002,7 +42981,7 @@
         <v>80</v>
       </c>
       <c r="U619" s="0" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="V619" s="0" t="s">
         <v>81</v>
@@ -43058,13 +43037,13 @@
         <v>29</v>
       </c>
       <c r="S620" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="T620" s="0" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="U620" s="0" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="V620" s="0" t="s">
         <v>33</v>
@@ -43123,19 +43102,19 @@
         <v>29</v>
       </c>
       <c r="S621" s="0" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="T621" s="0" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="U621" s="0" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="V621" s="0" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="W621" s="0" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43188,19 +43167,19 @@
         <v>29</v>
       </c>
       <c r="S622" s="0" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="T622" s="0" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="U622" s="0" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="V622" s="0" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="W622" s="0" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43235,10 +43214,10 @@
         <v>143</v>
       </c>
       <c r="L623" s="0" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="M623" s="0" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="O623" s="0" t="n">
         <v>1</v>
@@ -43259,7 +43238,7 @@
         <v>301</v>
       </c>
       <c r="U623" s="0" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="V623" s="0" t="s">
         <v>33</v>
@@ -43321,7 +43300,7 @@
         <v>361</v>
       </c>
       <c r="U624" s="0" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="V624" s="0" t="s">
         <v>33</v>
@@ -43338,7 +43317,7 @@
         <v>46</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D625" s="0" t="s">
         <v>36</v>
@@ -43362,10 +43341,10 @@
         <v>143</v>
       </c>
       <c r="L625" s="0" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="M625" s="0" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="O625" s="0" t="n">
         <v>1</v>
@@ -43386,7 +43365,7 @@
         <v>567</v>
       </c>
       <c r="U625" s="0" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="V625" s="0" t="s">
         <v>33</v>
@@ -43427,10 +43406,10 @@
         <v>359</v>
       </c>
       <c r="L626" s="0" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="M626" s="0" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="O626" s="0" t="n">
         <v>1</v>
@@ -43451,7 +43430,7 @@
         <v>134</v>
       </c>
       <c r="U626" s="0" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="V626" s="0" t="s">
         <v>324</v>
@@ -43516,13 +43495,13 @@
         <v>182</v>
       </c>
       <c r="U627" s="0" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="V627" s="0" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="W627" s="0" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43557,10 +43536,10 @@
         <v>640</v>
       </c>
       <c r="L628" s="0" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="M628" s="0" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="O628" s="0" t="n">
         <v>1</v>
@@ -43581,7 +43560,7 @@
         <v>301</v>
       </c>
       <c r="U628" s="0" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="V628" s="0" t="s">
         <v>33</v>
@@ -43598,7 +43577,7 @@
         <v>23</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D629" s="0" t="s">
         <v>61</v>
@@ -43643,10 +43622,10 @@
         <v>77</v>
       </c>
       <c r="U629" s="0" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="V629" s="0" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="W629" s="0" t="s">
         <v>34</v>
@@ -43660,7 +43639,7 @@
         <v>46</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D630" s="0" t="s">
         <v>61</v>
@@ -43705,7 +43684,7 @@
         <v>97</v>
       </c>
       <c r="U630" s="0" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="V630" s="0" t="s">
         <v>33</v>
@@ -43725,10 +43704,10 @@
         <v>268</v>
       </c>
       <c r="D631" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E631" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F631" s="0" t="s">
         <v>26</v>
@@ -43739,18 +43718,15 @@
       <c r="H631" s="0" t="n">
         <v>863196</v>
       </c>
+      <c r="I631" s="0" t="n">
+        <v>28314872</v>
+      </c>
       <c r="J631" s="0" t="s">
         <v>250</v>
       </c>
       <c r="K631" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="L631" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="M631" s="0" t="s">
-        <v>830</v>
-      </c>
       <c r="O631" s="0" t="n">
         <v>1</v>
       </c>
@@ -43770,7 +43746,7 @@
         <v>188</v>
       </c>
       <c r="U631" s="0" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="V631" s="0" t="s">
         <v>450</v>
@@ -43805,10 +43781,10 @@
         <v>863267</v>
       </c>
       <c r="J632" s="0" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K632" s="0" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="L632" s="0" t="s">
         <v>605</v>
@@ -43835,10 +43811,10 @@
         <v>92</v>
       </c>
       <c r="U632" s="0" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="V632" s="0" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="W632" s="0" t="s">
         <v>34</v>
@@ -43897,7 +43873,7 @@
         <v>80</v>
       </c>
       <c r="U633" s="0" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="V633" s="0" t="s">
         <v>375</v>
@@ -43938,10 +43914,10 @@
         <v>143</v>
       </c>
       <c r="L634" s="0" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="M634" s="0" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="O634" s="0" t="n">
         <v>1</v>
@@ -43962,10 +43938,10 @@
         <v>134</v>
       </c>
       <c r="U634" s="0" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="V634" s="0" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="W634" s="0" t="s">
         <v>34</v>
@@ -43979,7 +43955,7 @@
         <v>46</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="D635" s="0" t="s">
         <v>36</v>
@@ -44003,10 +43979,10 @@
         <v>143</v>
       </c>
       <c r="L635" s="0" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="M635" s="0" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="O635" s="0" t="n">
         <v>1</v>
@@ -44027,10 +44003,10 @@
         <v>134</v>
       </c>
       <c r="U635" s="0" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="V635" s="0" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="W635" s="0" t="s">
         <v>34</v>
@@ -44092,10 +44068,10 @@
         <v>122</v>
       </c>
       <c r="U636" s="0" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="V636" s="0" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="W636" s="0" t="s">
         <v>34</v>
@@ -44109,7 +44085,7 @@
         <v>46</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D637" s="0" t="s">
         <v>61</v>
@@ -44154,7 +44130,7 @@
         <v>66</v>
       </c>
       <c r="U637" s="0" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="V637" s="0" t="s">
         <v>33</v>
@@ -44216,10 +44192,10 @@
         <v>134</v>
       </c>
       <c r="U638" s="0" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="V638" s="0" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="W638" s="0" t="s">
         <v>34</v>
@@ -44275,13 +44251,13 @@
         <v>29</v>
       </c>
       <c r="S639" s="0" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="T639" s="0" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="U639" s="0" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="V639" s="0" t="s">
         <v>33</v>
@@ -44346,10 +44322,10 @@
         <v>134</v>
       </c>
       <c r="U640" s="0" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="V640" s="0" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="W640" s="0" t="s">
         <v>34</v>
@@ -44405,13 +44381,13 @@
         <v>29</v>
       </c>
       <c r="S641" s="0" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="T641" s="0" t="s">
+        <v>1151</v>
+      </c>
+      <c r="U641" s="0" t="s">
         <v>1155</v>
-      </c>
-      <c r="U641" s="0" t="s">
-        <v>1159</v>
       </c>
       <c r="V641" s="0" t="s">
         <v>33</v>
@@ -44428,7 +44404,7 @@
         <v>46</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D642" s="0" t="s">
         <v>89</v>
@@ -44473,7 +44449,7 @@
         <v>102</v>
       </c>
       <c r="U642" s="0" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="V642" s="0" t="s">
         <v>33</v>
@@ -44514,10 +44490,10 @@
         <v>143</v>
       </c>
       <c r="L643" s="0" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="M643" s="0" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="O643" s="0" t="n">
         <v>1</v>
@@ -44538,7 +44514,7 @@
         <v>66</v>
       </c>
       <c r="U643" s="0" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="V643" s="0" t="s">
         <v>33</v>
@@ -44600,7 +44576,7 @@
         <v>102</v>
       </c>
       <c r="U644" s="0" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="V644" s="0" t="s">
         <v>33</v>
@@ -44662,7 +44638,7 @@
         <v>66</v>
       </c>
       <c r="U645" s="0" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="V645" s="0" t="s">
         <v>33</v>
@@ -44724,7 +44700,7 @@
         <v>188</v>
       </c>
       <c r="U646" s="0" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="V646" s="0" t="s">
         <v>135</v>
@@ -44744,10 +44720,10 @@
         <v>149</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E647" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F647" s="0" t="s">
         <v>26</v>
@@ -44758,18 +44734,15 @@
       <c r="H647" s="0" t="n">
         <v>863616</v>
       </c>
+      <c r="I647" s="0" t="n">
+        <v>28314219</v>
+      </c>
       <c r="J647" s="0" t="s">
         <v>142</v>
       </c>
       <c r="K647" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="L647" s="0" t="s">
-        <v>1167</v>
-      </c>
-      <c r="M647" s="0" t="s">
-        <v>1168</v>
-      </c>
       <c r="O647" s="0" t="n">
         <v>1</v>
       </c>
@@ -44789,10 +44762,10 @@
         <v>111</v>
       </c>
       <c r="U647" s="0" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="V647" s="0" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="W647" s="0" t="s">
         <v>34</v>
@@ -44845,19 +44818,19 @@
         <v>29</v>
       </c>
       <c r="S648" s="0" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="T648" s="0" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="U648" s="0" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="V648" s="0" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="W648" s="0" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44913,7 +44886,7 @@
         <v>102</v>
       </c>
       <c r="U649" s="0" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="V649" s="0" t="s">
         <v>33</v>
@@ -44975,10 +44948,10 @@
         <v>345</v>
       </c>
       <c r="U650" s="0" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="V650" s="0" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="W650" s="0" t="s">
         <v>34</v>
@@ -45037,7 +45010,7 @@
         <v>567</v>
       </c>
       <c r="U651" s="0" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="V651" s="0" t="s">
         <v>33</v>
@@ -45099,10 +45072,10 @@
         <v>97</v>
       </c>
       <c r="U652" s="0" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="V652" s="0" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="W652" s="0" t="s">
         <v>34</v>
@@ -45161,10 +45134,10 @@
         <v>66</v>
       </c>
       <c r="U653" s="0" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="V653" s="0" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="W653" s="0" t="s">
         <v>34</v>
@@ -45181,10 +45154,10 @@
         <v>538</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E654" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F654" s="0" t="s">
         <v>26</v>
@@ -45195,18 +45168,15 @@
       <c r="H654" s="0" t="n">
         <v>863705</v>
       </c>
+      <c r="I654" s="0" t="n">
+        <v>28313891</v>
+      </c>
       <c r="J654" s="0" t="s">
         <v>142</v>
       </c>
       <c r="K654" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="L654" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="M654" s="0" t="s">
-        <v>919</v>
-      </c>
       <c r="O654" s="0" t="n">
         <v>1</v>
       </c>
@@ -45226,7 +45196,7 @@
         <v>151</v>
       </c>
       <c r="U654" s="0" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="V654" s="0" t="s">
         <v>33</v>
@@ -45243,7 +45213,7 @@
         <v>46</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D655" s="0" t="s">
         <v>36</v>
@@ -45267,10 +45237,10 @@
         <v>143</v>
       </c>
       <c r="L655" s="0" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="M655" s="0" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="O655" s="0" t="n">
         <v>1</v>
@@ -45291,7 +45261,7 @@
         <v>401</v>
       </c>
       <c r="U655" s="0" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="V655" s="0" t="s">
         <v>33</v>
@@ -45308,7 +45278,7 @@
         <v>46</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D656" s="0" t="s">
         <v>61</v>
@@ -45347,16 +45317,16 @@
         <v>29</v>
       </c>
       <c r="S656" s="0" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="T656" s="0" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="U656" s="0" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="V656" s="0" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="W656" s="0" t="s">
         <v>34</v>
@@ -45415,10 +45385,10 @@
         <v>301</v>
       </c>
       <c r="U657" s="0" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="V657" s="0" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="W657" s="0" t="s">
         <v>34</v>
@@ -45432,7 +45402,7 @@
         <v>46</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D658" s="0" t="s">
         <v>61</v>
@@ -45477,7 +45447,7 @@
         <v>71</v>
       </c>
       <c r="U658" s="0" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="V658" s="0" t="s">
         <v>135</v>
@@ -45512,10 +45482,10 @@
         <v>863760</v>
       </c>
       <c r="J659" s="0" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="K659" s="0" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="L659" s="0" t="s">
         <v>118</v>
@@ -45542,10 +45512,10 @@
         <v>134</v>
       </c>
       <c r="U659" s="0" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="V659" s="0" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="W659" s="0" t="s">
         <v>34</v>
@@ -45562,10 +45532,10 @@
         <v>149</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E660" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F660" s="0" t="s">
         <v>26</v>
@@ -45576,18 +45546,15 @@
       <c r="H660" s="0" t="n">
         <v>863738</v>
       </c>
+      <c r="I660" s="0" t="n">
+        <v>28314220</v>
+      </c>
       <c r="J660" s="0" t="s">
         <v>142</v>
       </c>
       <c r="K660" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="L660" s="0" t="s">
-        <v>1167</v>
-      </c>
-      <c r="M660" s="0" t="s">
-        <v>1168</v>
-      </c>
       <c r="O660" s="0" t="n">
         <v>1</v>
       </c>
@@ -45607,10 +45574,10 @@
         <v>752</v>
       </c>
       <c r="U660" s="0" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="V660" s="0" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="W660" s="0" t="s">
         <v>510</v>
@@ -45648,10 +45615,10 @@
         <v>143</v>
       </c>
       <c r="L661" s="0" t="s">
-        <v>743</v>
+        <v>1186</v>
       </c>
       <c r="M661" s="0" t="s">
-        <v>744</v>
+        <v>1187</v>
       </c>
       <c r="O661" s="0" t="n">
         <v>1</v>
@@ -45672,10 +45639,10 @@
         <v>752</v>
       </c>
       <c r="U661" s="0" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="V661" s="0" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="W661" s="0" t="s">
         <v>510</v>
@@ -45734,7 +45701,7 @@
         <v>71</v>
       </c>
       <c r="U662" s="0" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="V662" s="0" t="s">
         <v>165</v>
@@ -45796,10 +45763,10 @@
         <v>263</v>
       </c>
       <c r="U663" s="0" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="V663" s="0" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="W663" s="0" t="s">
         <v>34</v>
@@ -45858,7 +45825,7 @@
         <v>71</v>
       </c>
       <c r="U664" s="0" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="V664" s="0" t="s">
         <v>165</v>
@@ -45920,7 +45887,7 @@
         <v>263</v>
       </c>
       <c r="U665" s="0" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="V665" s="0" t="s">
         <v>33</v>
@@ -45940,10 +45907,10 @@
         <v>24</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F666" s="0" t="s">
         <v>26</v>
@@ -45954,18 +45921,15 @@
       <c r="H666" s="0" t="n">
         <v>863770</v>
       </c>
+      <c r="I666" s="0" t="n">
+        <v>28314221</v>
+      </c>
       <c r="J666" s="0" t="s">
         <v>446</v>
       </c>
       <c r="K666" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="L666" s="0" t="s">
-        <v>1167</v>
-      </c>
-      <c r="M666" s="0" t="s">
-        <v>1168</v>
-      </c>
       <c r="O666" s="0" t="n">
         <v>1</v>
       </c>
@@ -45985,7 +45949,7 @@
         <v>77</v>
       </c>
       <c r="U666" s="0" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="V666" s="0" t="s">
         <v>33</v>
@@ -46047,7 +46011,7 @@
         <v>263</v>
       </c>
       <c r="U667" s="0" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="V667" s="0" t="s">
         <v>33</v>
@@ -46109,7 +46073,7 @@
         <v>71</v>
       </c>
       <c r="U668" s="0" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="V668" s="0" t="s">
         <v>165</v>
@@ -46171,10 +46135,10 @@
         <v>134</v>
       </c>
       <c r="U669" s="0" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="V669" s="0" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="W669" s="0" t="s">
         <v>34</v>
@@ -46233,7 +46197,7 @@
         <v>58</v>
       </c>
       <c r="U670" s="0" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="V670" s="0" t="s">
         <v>33</v>
@@ -46298,10 +46262,10 @@
         <v>134</v>
       </c>
       <c r="U671" s="0" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="V671" s="0" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="W671" s="0" t="s">
         <v>34</v>
@@ -46315,7 +46279,7 @@
         <v>46</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D672" s="0" t="s">
         <v>36</v>
@@ -46339,10 +46303,10 @@
         <v>143</v>
       </c>
       <c r="L672" s="0" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="M672" s="0" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="O672" s="0" t="n">
         <v>1</v>
@@ -46363,7 +46327,7 @@
         <v>401</v>
       </c>
       <c r="U672" s="0" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="V672" s="0" t="s">
         <v>33</v>
@@ -46380,7 +46344,7 @@
         <v>46</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D673" s="0" t="s">
         <v>61</v>
@@ -46425,7 +46389,7 @@
         <v>570</v>
       </c>
       <c r="U673" s="0" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="V673" s="0" t="s">
         <v>461</v>
@@ -46487,7 +46451,7 @@
         <v>134</v>
       </c>
       <c r="U674" s="0" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="V674" s="0" t="s">
         <v>135</v>
@@ -46549,7 +46513,7 @@
         <v>71</v>
       </c>
       <c r="U675" s="0" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="V675" s="0" t="s">
         <v>165</v>
@@ -46596,7 +46560,7 @@
         <v>108</v>
       </c>
       <c r="N676" s="0" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="O676" s="0" t="n">
         <v>1</v>
@@ -46617,7 +46581,7 @@
         <v>102</v>
       </c>
       <c r="U676" s="0" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="V676" s="0" t="s">
         <v>33</v>
@@ -46682,7 +46646,7 @@
         <v>345</v>
       </c>
       <c r="U677" s="0" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="V677" s="0" t="s">
         <v>461</v>
@@ -46723,10 +46687,10 @@
         <v>143</v>
       </c>
       <c r="L678" s="0" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="M678" s="0" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="O678" s="0" t="n">
         <v>1</v>
@@ -46747,7 +46711,7 @@
         <v>263</v>
       </c>
       <c r="U678" s="0" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="V678" s="0" t="s">
         <v>33</v>
@@ -46788,10 +46752,10 @@
         <v>640</v>
       </c>
       <c r="L679" s="0" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="M679" s="0" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="O679" s="0" t="n">
         <v>1</v>
@@ -46806,16 +46770,16 @@
         <v>29</v>
       </c>
       <c r="S679" s="0" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="T679" s="0" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="U679" s="0" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="V679" s="0" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="W679" s="0" t="s">
         <v>34</v>
@@ -46877,7 +46841,7 @@
         <v>102</v>
       </c>
       <c r="U680" s="0" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="V680" s="0" t="s">
         <v>33</v>
@@ -46942,7 +46906,7 @@
         <v>102</v>
       </c>
       <c r="U681" s="0" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="V681" s="0" t="s">
         <v>33</v>
@@ -46983,10 +46947,10 @@
         <v>251</v>
       </c>
       <c r="L682" s="0" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="M682" s="0" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="O682" s="0" t="n">
         <v>1</v>
@@ -47007,7 +46971,7 @@
         <v>86</v>
       </c>
       <c r="U682" s="0" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="V682" s="0" t="s">
         <v>33</v>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8169" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8167" uniqueCount="1092">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -3272,12 +3272,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: M M BATEL LTDA (08.916.477/0001-23)NF: 7361Data do pagamento: 18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRANQUINHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABRANQUINHO@COLEGIOSMARISTAS.COM.BR</t>
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: LIDER SEGURANCA ELETRONICA COMERCIO E SERVICOS LTDA (13.562.462/0001-44)NF: 1488Data do pagamento: 14/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
@@ -5373,7 +5367,7 @@
         <v>36</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>26</v>
@@ -5438,7 +5432,7 @@
         <v>36</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>26</v>
@@ -6744,10 +6738,10 @@
         <v>24</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>26</v>
@@ -9249,7 +9243,7 @@
         <v>36</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F94" s="0" t="s">
         <v>26</v>
@@ -10159,7 +10153,7 @@
         <v>36</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>26</v>
@@ -10877,10 +10871,10 @@
         <v>78</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F119" s="0" t="s">
         <v>26</v>
@@ -15825,10 +15819,10 @@
         <v>24</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F196" s="0" t="s">
         <v>26</v>
@@ -16298,7 +16292,7 @@
         <v>36</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F203" s="0" t="s">
         <v>26</v>
@@ -16753,7 +16747,7 @@
         <v>36</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F210" s="0" t="s">
         <v>26</v>
@@ -16818,7 +16812,7 @@
         <v>36</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F211" s="0" t="s">
         <v>26</v>
@@ -16883,7 +16877,7 @@
         <v>36</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F212" s="0" t="s">
         <v>26</v>
@@ -17441,10 +17435,10 @@
         <v>24</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F221" s="0" t="s">
         <v>26</v>
@@ -18428,7 +18422,7 @@
         <v>36</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F236" s="0" t="s">
         <v>26</v>
@@ -18555,7 +18549,7 @@
         <v>36</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F238" s="0" t="s">
         <v>26</v>
@@ -18682,7 +18676,7 @@
         <v>36</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F240" s="0" t="s">
         <v>26</v>
@@ -18930,10 +18924,10 @@
         <v>24</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F244" s="0" t="s">
         <v>26</v>
@@ -19810,10 +19804,10 @@
         <v>24</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F258" s="0" t="s">
         <v>26</v>
@@ -20123,7 +20117,7 @@
         <v>36</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F263" s="0" t="s">
         <v>26</v>
@@ -20191,7 +20185,7 @@
         <v>36</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F264" s="0" t="s">
         <v>26</v>
@@ -20451,7 +20445,7 @@
         <v>36</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F268" s="0" t="s">
         <v>26</v>
@@ -20516,7 +20510,7 @@
         <v>36</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F269" s="0" t="s">
         <v>26</v>
@@ -20578,10 +20572,10 @@
         <v>24</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F270" s="0" t="s">
         <v>26</v>
@@ -21145,7 +21139,7 @@
         <v>36</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F279" s="0" t="s">
         <v>26</v>
@@ -22480,7 +22474,7 @@
         <v>36</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F300" s="0" t="s">
         <v>26</v>
@@ -22542,10 +22536,10 @@
         <v>84</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F301" s="0" t="s">
         <v>26</v>
@@ -23351,7 +23345,7 @@
         <v>36</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F314" s="0" t="s">
         <v>26</v>
@@ -24668,7 +24662,7 @@
         <v>36</v>
       </c>
       <c r="E335" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F335" s="0" t="s">
         <v>26</v>
@@ -24792,10 +24786,10 @@
         <v>571</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E337" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F337" s="0" t="s">
         <v>26</v>
@@ -24860,10 +24854,10 @@
         <v>571</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E338" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F338" s="0" t="s">
         <v>26</v>
@@ -27816,7 +27810,7 @@
         <v>36</v>
       </c>
       <c r="E385" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F385" s="0" t="s">
         <v>26</v>
@@ -29532,10 +29526,10 @@
         <v>24</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E412" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F412" s="0" t="s">
         <v>26</v>
@@ -29594,10 +29588,10 @@
         <v>24</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E413" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F413" s="0" t="s">
         <v>26</v>
@@ -29789,7 +29783,7 @@
         <v>36</v>
       </c>
       <c r="E416" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F416" s="0" t="s">
         <v>26</v>
@@ -30288,7 +30282,7 @@
         <v>36</v>
       </c>
       <c r="E424" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F424" s="0" t="s">
         <v>26</v>
@@ -30353,7 +30347,7 @@
         <v>36</v>
       </c>
       <c r="E425" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F425" s="0" t="s">
         <v>26</v>
@@ -30542,7 +30536,7 @@
         <v>36</v>
       </c>
       <c r="E428" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F428" s="0" t="s">
         <v>26</v>
@@ -30607,7 +30601,7 @@
         <v>36</v>
       </c>
       <c r="E429" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F429" s="0" t="s">
         <v>26</v>
@@ -30982,7 +30976,7 @@
         <v>36</v>
       </c>
       <c r="E435" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F435" s="0" t="s">
         <v>26</v>
@@ -31106,10 +31100,10 @@
         <v>663</v>
       </c>
       <c r="D437" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E437" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F437" s="0" t="s">
         <v>26</v>
@@ -31301,7 +31295,7 @@
         <v>36</v>
       </c>
       <c r="E440" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F440" s="0" t="s">
         <v>26</v>
@@ -31552,7 +31546,7 @@
         <v>36</v>
       </c>
       <c r="E444" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F444" s="0" t="s">
         <v>26</v>
@@ -31679,7 +31673,7 @@
         <v>36</v>
       </c>
       <c r="E446" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F446" s="0" t="s">
         <v>26</v>
@@ -31806,7 +31800,7 @@
         <v>36</v>
       </c>
       <c r="E448" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F448" s="0" t="s">
         <v>26</v>
@@ -32308,10 +32302,10 @@
         <v>78</v>
       </c>
       <c r="D456" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E456" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F456" s="0" t="s">
         <v>26</v>
@@ -32435,7 +32429,7 @@
         <v>36</v>
       </c>
       <c r="E458" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F458" s="0" t="s">
         <v>26</v>
@@ -32940,7 +32934,7 @@
         <v>36</v>
       </c>
       <c r="E466" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F466" s="0" t="s">
         <v>26</v>
@@ -34260,10 +34254,10 @@
         <v>906</v>
       </c>
       <c r="D487" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E487" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F487" s="0" t="s">
         <v>26</v>
@@ -34880,10 +34874,10 @@
         <v>78</v>
       </c>
       <c r="D497" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E497" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F497" s="0" t="s">
         <v>26</v>
@@ -35066,10 +35060,10 @@
         <v>78</v>
       </c>
       <c r="D500" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F500" s="0" t="s">
         <v>26</v>
@@ -36442,10 +36436,10 @@
         <v>78</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F522" s="0" t="s">
         <v>26</v>
@@ -36755,7 +36749,7 @@
         <v>36</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F527" s="0" t="s">
         <v>26</v>
@@ -36820,7 +36814,7 @@
         <v>36</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F528" s="0" t="s">
         <v>26</v>
@@ -37009,7 +37003,7 @@
         <v>36</v>
       </c>
       <c r="E531" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F531" s="0" t="s">
         <v>26</v>
@@ -37074,7 +37068,7 @@
         <v>36</v>
       </c>
       <c r="E532" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F532" s="0" t="s">
         <v>26</v>
@@ -37263,7 +37257,7 @@
         <v>36</v>
       </c>
       <c r="E535" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F535" s="0" t="s">
         <v>26</v>
@@ -37328,7 +37322,7 @@
         <v>36</v>
       </c>
       <c r="E536" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F536" s="0" t="s">
         <v>26</v>
@@ -37393,7 +37387,7 @@
         <v>36</v>
       </c>
       <c r="E537" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F537" s="0" t="s">
         <v>26</v>
@@ -37582,7 +37576,7 @@
         <v>36</v>
       </c>
       <c r="E540" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F540" s="0" t="s">
         <v>26</v>
@@ -37771,7 +37765,7 @@
         <v>36</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F543" s="0" t="s">
         <v>26</v>
@@ -37836,7 +37830,7 @@
         <v>36</v>
       </c>
       <c r="E544" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F544" s="0" t="s">
         <v>26</v>
@@ -37963,7 +37957,7 @@
         <v>36</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F546" s="0" t="s">
         <v>26</v>
@@ -38028,7 +38022,7 @@
         <v>36</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F547" s="0" t="s">
         <v>26</v>
@@ -38093,7 +38087,7 @@
         <v>36</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F548" s="0" t="s">
         <v>26</v>
@@ -38158,7 +38152,7 @@
         <v>36</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F549" s="0" t="s">
         <v>26</v>
@@ -38285,7 +38279,7 @@
         <v>36</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F551" s="0" t="s">
         <v>26</v>
@@ -38474,7 +38468,7 @@
         <v>36</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F554" s="0" t="s">
         <v>26</v>
@@ -38663,7 +38657,7 @@
         <v>36</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F557" s="0" t="s">
         <v>26</v>
@@ -38728,7 +38722,7 @@
         <v>36</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F558" s="0" t="s">
         <v>26</v>
@@ -39171,7 +39165,7 @@
         <v>36</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F565" s="0" t="s">
         <v>26</v>
@@ -39298,7 +39292,7 @@
         <v>36</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F567" s="0" t="s">
         <v>26</v>
@@ -39363,7 +39357,7 @@
         <v>36</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F568" s="0" t="s">
         <v>26</v>
@@ -39614,7 +39608,7 @@
         <v>36</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F572" s="0" t="s">
         <v>26</v>
@@ -39741,7 +39735,7 @@
         <v>36</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F574" s="0" t="s">
         <v>26</v>
@@ -40116,7 +40110,7 @@
         <v>36</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F580" s="0" t="s">
         <v>26</v>
@@ -40243,7 +40237,7 @@
         <v>36</v>
       </c>
       <c r="E582" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F582" s="0" t="s">
         <v>26</v>
@@ -40432,7 +40426,7 @@
         <v>36</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F585" s="0" t="s">
         <v>26</v>
@@ -40559,7 +40553,7 @@
         <v>36</v>
       </c>
       <c r="E587" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F587" s="0" t="s">
         <v>26</v>
@@ -40624,7 +40618,7 @@
         <v>36</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F588" s="0" t="s">
         <v>26</v>
@@ -40689,7 +40683,7 @@
         <v>36</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F589" s="0" t="s">
         <v>26</v>
@@ -40816,7 +40810,7 @@
         <v>36</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F591" s="0" t="s">
         <v>26</v>
@@ -40878,10 +40872,10 @@
         <v>796</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F592" s="0" t="s">
         <v>26</v>
@@ -40892,18 +40886,15 @@
       <c r="H592" s="0" t="n">
         <v>864745</v>
       </c>
+      <c r="I592" s="0" t="n">
+        <v>28331574</v>
+      </c>
       <c r="J592" s="0" t="s">
         <v>135</v>
       </c>
       <c r="K592" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="L592" s="0" t="s">
-        <v>1084</v>
-      </c>
-      <c r="M592" s="0" t="s">
-        <v>1085</v>
-      </c>
       <c r="O592" s="0" t="n">
         <v>1</v>
       </c>
@@ -40923,7 +40914,7 @@
         <v>321</v>
       </c>
       <c r="U592" s="0" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="V592" s="0" t="s">
         <v>771</v>
@@ -40946,7 +40937,7 @@
         <v>36</v>
       </c>
       <c r="E593" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F593" s="0" t="s">
         <v>26</v>
@@ -40988,7 +40979,7 @@
         <v>95</v>
       </c>
       <c r="U593" s="0" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="V593" s="0" t="s">
         <v>33</v>
@@ -41005,13 +40996,13 @@
         <v>142</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D594" s="0" t="s">
         <v>36</v>
       </c>
       <c r="E594" s="0" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F594" s="0" t="s">
         <v>26</v>
@@ -41029,10 +41020,10 @@
         <v>380</v>
       </c>
       <c r="L594" s="0" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="M594" s="0" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="O594" s="0" t="n">
         <v>1</v>
@@ -41047,13 +41038,13 @@
         <v>29</v>
       </c>
       <c r="S594" s="0" t="s">
+        <v>1089</v>
+      </c>
+      <c r="T594" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="U594" s="0" t="s">
         <v>1091</v>
-      </c>
-      <c r="T594" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="U594" s="0" t="s">
-        <v>1093</v>
       </c>
       <c r="V594" s="0" t="s">
         <v>33</v>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="554">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -1396,12 +1396,6 @@
     <t xml:space="preserve">0059-38 - COLEGIO MARISTA DE GOIANIA</t>
   </si>
   <si>
-    <t xml:space="preserve">JOSE.ASSUNCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE.ASSUNCAO@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:10.247.663/0001-69NF:148436Data do pagamento:28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
@@ -1414,130 +1408,103 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: W B DE ANDRADE STATUS DECORACOES LTDA (01.979.793/0001-03)NF: 16080Data do pagamento: 26/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FLAVIO CANTADOR COIMBRA 04806289981 (18.183.828/0001-98)NF: 55Data do pagamento: 15/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO CONTRATACAO MUSICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.001.004 - 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correios, Malotes e Motoboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:23.174.707/0001-10NF:11Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO MOTOBOY COLETA/ENTREGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FARMACIA ULTRAFARMA EIRELI (02.391.030/0001-00)NF: 4538Data do pagamento: 05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:23.174.707/0001-10NF:17Data do pagamento:05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COFFEE BREAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ROCHA POMBO ANDRADE &amp; CAPETTI ADVOGADOS (39.412.299/0001-27)NF:1267Data do pagamento:18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0064-03 - COLEGIO MARISTA ANJO DA GUARDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.002.006 - 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Manutenção de Instalações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ELEVADORES ATLAS SCHINDLER LTDA. (00.028.986/0017-75)NF: 314607Data do pagamento: 29/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICOS DE MANUTENCAO PREDIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0076-39 - COLEGIO MARISTA ALEXANDER FLEMING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: KELLY CRISTINA FRANCO DO PRADO GRUIMARÃES (09.491.363/0001-41)NF: 234Data do pagamento: 10/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTA.ELAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSTA.ELAINE@HOSPITALMARCELINO.COM.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: SOOMAPRINT COMERCIO DE AUDIO VIDEO E DE INFORMATICA EIRELI (30.612.169/0001-63)NF: 2896Data do pagamento: 15/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE ARTICULADO DE PAREDE P/ TV 32 A 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: CLARO S.A. (40.432.544/0001-47)NF: 502112/113-478852Data do pagamento: 14/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0060-71 - CENTRO EDUCACIONAL MARISTA LUCIA MAYVORNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brCOMPANHIA CATARINENSE DE AGUAS E SANEAMENTO CASAN (82.508.433/0001-17)Fornecedor: NF: 118664832203Data do pagamento: 09/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO DE FORNECIMENTO DE AGUA TRATAMENTO DE ESGOTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.004.006 - 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenças e Serviços de Manutenção de Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: CRM EDUCACIONAL LTDA - ME (23.220.062/0001-04)NF: 2022-565Data do pagamento: 15/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LICENCA DE SOFTWARE (COMPRA)</t>
+  </si>
+  <si>
     <t xml:space="preserve">THAIS.COSTA</t>
   </si>
   <si>
     <t xml:space="preserve">THAIS.COSTA@PUCPR.BR</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FLAVIO CANTADOR COIMBRA 04806289981 (18.183.828/0001-98)NF: 55Data do pagamento: 15/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO CONTRATACAO MUSICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.001.004 - 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correios, Malotes e Motoboy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:23.174.707/0001-10NF:11Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO MOTOBOY COLETA/ENTREGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FARMACIA ULTRAFARMA EIRELI (02.391.030/0001-00)NF: 4538Data do pagamento: 05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:23.174.707/0001-10NF:17Data do pagamento:05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COFFEE BREAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTONIO.RIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTONIO.RIOS@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ROCHA POMBO ANDRADE &amp; CAPETTI ADVOGADOS (39.412.299/0001-27)NF:1267Data do pagamento:18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0064-03 - COLEGIO MARISTA ANJO DA GUARDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEMENTE.MARIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEMENTE.MARIANA@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.006 - 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Manutenção de Instalações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ELEVADORES ATLAS SCHINDLER LTDA. (00.028.986/0017-75)NF: 314607Data do pagamento: 29/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICOS DE MANUTENCAO PREDIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0076-39 - COLEGIO MARISTA ALEXANDER FLEMING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTINA.JOAQUIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTINA.JOAQUIM@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: KELLY CRISTINA FRANCO DO PRADO GRUIMARÃES (09.491.363/0001-41)NF: 234Data do pagamento: 10/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSTA.ELAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSTA.ELAINE@HOSPITALMARCELINO.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: SOOMAPRINT COMERCIO DE AUDIO VIDEO E DE INFORMATICA EIRELI (30.612.169/0001-63)NF: 2896Data do pagamento: 15/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE ARTICULADO DE PAREDE P/ TV 32 A 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: CLARO S.A. (40.432.544/0001-47)NF: 502112/113-478852Data do pagamento: 14/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0060-71 - CENTRO EDUCACIONAL MARISTA LUCIA MAYVORNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEUGENIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEUGENIO@MARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brCOMPANHIA CATARINENSE DE AGUAS E SANEAMENTO CASAN (82.508.433/0001-17)Fornecedor: NF: 118664832203Data do pagamento: 09/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO DE FORNECIMENTO DE AGUA TRATAMENTO DE ESGOTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVIA.ROHRIG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILVIA.ROHRIG@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.004.006 - 46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licenças e Serviços de Manutenção de Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: CRM EDUCACIONAL LTDA - ME (23.220.062/0001-04)NF: 2022-565Data do pagamento: 15/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LICENCA DE SOFTWARE (COMPRA)</t>
+    <t xml:space="preserve">Desconheço fornecedor</t>
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: NASSUR COMERCIO DE ALIMENTOS LTDA ME (23.121.340/0001-76)NF: 5Data do pagamento: 05/04/02022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
@@ -1570,6 +1537,12 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: COOPERATIVA DE LATICINIOS CURITIBA LIMITADA (76.550.482/0004-68)NF: 838349Data do pagamento: 28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
+    <t xml:space="preserve">ALEXANDRE.OLIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDRE.OLIM@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: MONEST COBRANÇAS S.A (32.265.410/0001-50)NF: 1117Data do pagamento: 25/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
@@ -1582,6 +1555,9 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: RD GESTAO E SISTEMAS S.A. (13.021.784/0001-86)NF: 1114749Data do pagamento: 27/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
+    <t xml:space="preserve">Favor informar AI do projeto Fase 2 2011191</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: SOS SUL RESGATE COMÉRCIO E SERVIÇOS DE SEGURANÇA E SINALIZAÇÃO LTDA (03.928.511/0001-66)NF: 41037Data do pagamento: 18/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
@@ -1606,9 +1582,6 @@
     <t xml:space="preserve">SERVICO DE VALE TRANSPORTE</t>
   </si>
   <si>
-    <t xml:space="preserve">CONFIRMADA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:09.468.552/0001-01NF:24953Data do pagamento:09/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
@@ -1703,12 +1676,6 @@
   </si>
   <si>
     <t xml:space="preserve">0067-48 - ESCOLA CHAMPAGNAT PRESIDENTE PRUDENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIMENTEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIMENTEL@COLEGIOSMARISTAS.COM.BR</t>
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:SER VIP INFORMATICA LTDA ME (02.773.001/0001-02)NF:731Data do pagamento:11/07/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
@@ -1827,7 +1794,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13108,10 +13075,10 @@
         <v>457</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>26</v>
@@ -13129,11 +13096,8 @@
       <c r="K175" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L175" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="M175" s="0" t="s">
-        <v>459</v>
+      <c r="N175" s="0" t="s">
+        <v>257</v>
       </c>
       <c r="O175" s="1" t="n">
         <v>1</v>
@@ -13154,7 +13118,7 @@
         <v>61</v>
       </c>
       <c r="U175" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="V175" s="1" t="s">
         <v>33</v>
@@ -13174,10 +13138,10 @@
         <v>457</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>26</v>
@@ -13188,19 +13152,17 @@
       <c r="H176" s="1" t="n">
         <v>864906</v>
       </c>
-      <c r="I176" s="1"/>
+      <c r="I176" s="1" t="n">
+        <v>28386066</v>
+      </c>
       <c r="J176" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L176" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="M176" s="1" t="s">
-        <v>459</v>
-      </c>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
       <c r="O176" s="1" t="n">
         <v>1</v>
       </c>
@@ -13220,10 +13182,10 @@
         <v>152</v>
       </c>
       <c r="U176" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="W176" s="1" t="s">
         <v>34</v>
@@ -13240,10 +13202,10 @@
         <v>457</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>26</v>
@@ -13254,19 +13216,15 @@
       <c r="H177" s="1" t="n">
         <v>864912</v>
       </c>
-      <c r="I177" s="1"/>
+      <c r="I177" s="1" t="n">
+        <v>28386067</v>
+      </c>
       <c r="J177" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L177" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="M177" s="0" t="s">
-        <v>459</v>
-      </c>
       <c r="O177" s="1" t="n">
         <v>1</v>
       </c>
@@ -13286,10 +13244,10 @@
         <v>152</v>
       </c>
       <c r="U177" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="W177" s="1" t="s">
         <v>34</v>
@@ -13327,12 +13285,6 @@
       <c r="K178" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L178" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="M178" s="0" t="s">
-        <v>465</v>
-      </c>
       <c r="O178" s="1" t="n">
         <v>1</v>
       </c>
@@ -13352,10 +13304,10 @@
         <v>152</v>
       </c>
       <c r="U178" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="W178" s="1" t="s">
         <v>34</v>
@@ -13372,10 +13324,10 @@
         <v>24</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>26</v>
@@ -13386,19 +13338,15 @@
       <c r="H179" s="1" t="n">
         <v>864928</v>
       </c>
-      <c r="I179" s="1"/>
+      <c r="I179" s="1" t="n">
+        <v>28386693</v>
+      </c>
       <c r="J179" s="1" t="s">
         <v>301</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L179" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="M179" s="0" t="s">
-        <v>465</v>
-      </c>
       <c r="O179" s="1" t="n">
         <v>1</v>
       </c>
@@ -13412,16 +13360,16 @@
         <v>29</v>
       </c>
       <c r="S179" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="T179" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="U179" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="V179" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="W179" s="1" t="s">
         <v>34</v>
@@ -13481,7 +13429,7 @@
         <v>61</v>
       </c>
       <c r="U180" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="V180" s="1" t="s">
         <v>33</v>
@@ -13543,10 +13491,10 @@
         <v>152</v>
       </c>
       <c r="U181" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="V181" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="W181" s="1" t="s">
         <v>34</v>
@@ -13563,10 +13511,10 @@
         <v>209</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>26</v>
@@ -13577,19 +13525,15 @@
       <c r="H182" s="1" t="n">
         <v>865199</v>
       </c>
-      <c r="I182" s="1"/>
+      <c r="I182" s="1" t="n">
+        <v>28384409</v>
+      </c>
       <c r="J182" s="1" t="s">
         <v>276</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L182" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="M182" s="0" t="s">
-        <v>476</v>
-      </c>
       <c r="O182" s="1" t="n">
         <v>1</v>
       </c>
@@ -13609,7 +13553,7 @@
         <v>287</v>
       </c>
       <c r="U182" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="V182" s="1" t="s">
         <v>208</v>
@@ -13626,13 +13570,13 @@
         <v>73</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>26</v>
@@ -13643,19 +13587,15 @@
       <c r="H183" s="1" t="n">
         <v>865217</v>
       </c>
-      <c r="I183" s="1"/>
+      <c r="I183" s="1" t="n">
+        <v>28384410</v>
+      </c>
       <c r="J183" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L183" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="M183" s="0" t="s">
-        <v>480</v>
-      </c>
       <c r="O183" s="1" t="n">
         <v>1</v>
       </c>
@@ -13669,19 +13609,19 @@
         <v>29</v>
       </c>
       <c r="S183" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="T183" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="U183" s="1" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="W183" s="1" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13692,13 +13632,13 @@
         <v>73</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>26</v>
@@ -13709,19 +13649,15 @@
       <c r="H184" s="1" t="n">
         <v>865267</v>
       </c>
-      <c r="I184" s="1"/>
+      <c r="I184" s="1" t="n">
+        <v>28386381</v>
+      </c>
       <c r="J184" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L184" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="M184" s="0" t="s">
-        <v>488</v>
-      </c>
       <c r="O184" s="1" t="n">
         <v>1</v>
       </c>
@@ -13741,7 +13677,7 @@
         <v>246</v>
       </c>
       <c r="U184" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="V184" s="1" t="s">
         <v>33</v>
@@ -13785,10 +13721,10 @@
         <v>87</v>
       </c>
       <c r="L185" s="0" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="M185" s="0" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="N185" s="0" t="s">
         <v>269</v>
@@ -13812,10 +13748,10 @@
         <v>61</v>
       </c>
       <c r="U185" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="V185" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="W185" s="1" t="s">
         <v>34</v>
@@ -13874,7 +13810,7 @@
         <v>231</v>
       </c>
       <c r="U186" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="V186" s="1" t="s">
         <v>426</v>
@@ -13891,13 +13827,13 @@
         <v>73</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>26</v>
@@ -13908,19 +13844,15 @@
       <c r="H187" s="1" t="n">
         <v>865394</v>
       </c>
-      <c r="I187" s="1"/>
+      <c r="I187" s="1" t="n">
+        <v>28387660</v>
+      </c>
       <c r="J187" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L187" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="M187" s="0" t="s">
-        <v>497</v>
-      </c>
       <c r="O187" s="1" t="n">
         <v>1</v>
       </c>
@@ -13940,10 +13872,10 @@
         <v>354</v>
       </c>
       <c r="U187" s="1" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="V187" s="1" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="W187" s="1" t="s">
         <v>34</v>
@@ -13960,10 +13892,10 @@
         <v>24</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>26</v>
@@ -13974,19 +13906,15 @@
       <c r="H188" s="1" t="n">
         <v>865435</v>
       </c>
-      <c r="I188" s="1"/>
+      <c r="I188" s="1" t="n">
+        <v>28387661</v>
+      </c>
       <c r="J188" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L188" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="M188" s="0" t="s">
-        <v>501</v>
-      </c>
       <c r="O188" s="1" t="n">
         <v>1</v>
       </c>
@@ -14000,16 +13928,16 @@
         <v>29</v>
       </c>
       <c r="S188" s="1" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="U188" s="1" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="V188" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="W188" s="1" t="s">
         <v>34</v>
@@ -14026,7 +13954,7 @@
         <v>24</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>36</v>
@@ -14048,10 +13976,13 @@
         <v>87</v>
       </c>
       <c r="L189" s="0" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="M189" s="0" t="s">
-        <v>465</v>
+        <v>493</v>
+      </c>
+      <c r="N189" s="0" t="s">
+        <v>494</v>
       </c>
       <c r="O189" s="1" t="n">
         <v>1</v>
@@ -14072,10 +14003,10 @@
         <v>77</v>
       </c>
       <c r="U189" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="V189" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="W189" s="1" t="s">
         <v>34</v>
@@ -14138,7 +14069,7 @@
         <v>346</v>
       </c>
       <c r="U190" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="V190" s="1" t="s">
         <v>208</v>
@@ -14204,7 +14135,7 @@
         <v>61</v>
       </c>
       <c r="U191" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="V191" s="1" t="s">
         <v>33</v>
@@ -14221,7 +14152,7 @@
         <v>23</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>36</v>
@@ -14246,10 +14177,10 @@
         <v>87</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="O192" s="1" t="n">
         <v>1</v>
@@ -14264,13 +14195,13 @@
         <v>29</v>
       </c>
       <c r="S192" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="T192" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="U192" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="V192" s="1" t="s">
         <v>33</v>
@@ -14312,10 +14243,10 @@
         <v>87</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>202</v>
+        <v>505</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>203</v>
+        <v>506</v>
       </c>
       <c r="O193" s="1" t="n">
         <v>1</v>
@@ -14336,7 +14267,7 @@
         <v>346</v>
       </c>
       <c r="U193" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="V193" s="1" t="s">
         <v>208</v>
@@ -14380,10 +14311,10 @@
         <v>87</v>
       </c>
       <c r="L194" s="0" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="M194" s="0" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="N194" s="0" t="s">
         <v>269</v>
@@ -14401,16 +14332,16 @@
         <v>29</v>
       </c>
       <c r="S194" s="1" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="T194" s="1" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="U194" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="V194" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="W194" s="1" t="s">
         <v>34</v>
@@ -14427,7 +14358,7 @@
         <v>51</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>36</v>
@@ -14449,10 +14380,13 @@
         <v>87</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
+      </c>
+      <c r="N195" s="0" t="s">
+        <v>511</v>
       </c>
       <c r="O195" s="1" t="n">
         <v>1</v>
@@ -14473,7 +14407,7 @@
         <v>61</v>
       </c>
       <c r="U195" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="V195" s="1" t="s">
         <v>33</v>
@@ -14490,7 +14424,7 @@
         <v>73</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>36</v>
@@ -14515,10 +14449,10 @@
         <v>365</v>
       </c>
       <c r="L196" s="0" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M196" s="0" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="O196" s="1" t="n">
         <v>1</v>
@@ -14533,16 +14467,16 @@
         <v>29</v>
       </c>
       <c r="S196" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="T196" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="U196" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="V196" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="W196" s="1" t="s">
         <v>34</v>
@@ -14559,10 +14493,10 @@
         <v>51</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>528</v>
+        <v>75</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>26</v>
@@ -14573,7 +14507,9 @@
       <c r="H197" s="1" t="n">
         <v>865612</v>
       </c>
-      <c r="I197" s="1"/>
+      <c r="I197" s="1" t="n">
+        <v>28384076</v>
+      </c>
       <c r="J197" s="1" t="s">
         <v>301</v>
       </c>
@@ -14601,7 +14537,7 @@
         <v>342</v>
       </c>
       <c r="U197" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="V197" s="1" t="s">
         <v>33</v>
@@ -14621,10 +14557,10 @@
         <v>209</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>26</v>
@@ -14645,10 +14581,10 @@
         <v>277</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="N198" s="0" t="s">
         <v>269</v>
@@ -14672,7 +14608,7 @@
         <v>308</v>
       </c>
       <c r="U198" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="V198" s="1" t="s">
         <v>33</v>
@@ -14692,10 +14628,10 @@
         <v>51</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>26</v>
@@ -14716,10 +14652,10 @@
         <v>87</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="N199" s="0" t="s">
         <v>269</v>
@@ -14743,10 +14679,10 @@
         <v>61</v>
       </c>
       <c r="U199" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="V199" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="W199" s="1" t="s">
         <v>34</v>
@@ -14787,10 +14723,10 @@
         <v>277</v>
       </c>
       <c r="L200" s="0" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="M200" s="0" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="N200" s="0" t="s">
         <v>269</v>
@@ -14808,16 +14744,16 @@
         <v>372</v>
       </c>
       <c r="S200" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="T200" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="U200" s="1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="V200" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="W200" s="1" t="s">
         <v>34</v>
@@ -14858,10 +14794,10 @@
         <v>277</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="N201" s="1" t="s">
         <v>269</v>
@@ -14879,16 +14815,16 @@
         <v>372</v>
       </c>
       <c r="S201" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="T201" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="U201" s="1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="V201" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="W201" s="1" t="s">
         <v>34</v>
@@ -14927,10 +14863,10 @@
         <v>87</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="N202" s="1"/>
       <c r="O202" s="1" t="n">
@@ -14952,10 +14888,10 @@
         <v>188</v>
       </c>
       <c r="U202" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="V202" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="W202" s="1" t="s">
         <v>34</v>
@@ -14996,10 +14932,10 @@
         <v>87</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="N203" s="1" t="s">
         <v>269</v>
@@ -15023,10 +14959,10 @@
         <v>61</v>
       </c>
       <c r="U203" s="1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="V203" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="W203" s="1" t="s">
         <v>34</v>
@@ -15065,10 +15001,10 @@
         <v>277</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="O204" s="1" t="n">
         <v>1</v>
@@ -15083,16 +15019,16 @@
         <v>29</v>
       </c>
       <c r="S204" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="T204" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="U204" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="V204" s="1" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="W204" s="1" t="s">
         <v>34</v>
@@ -15160,7 +15096,7 @@
         <v>61</v>
       </c>
       <c r="U205" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="V205" s="1" t="s">
         <v>33</v>
@@ -15231,7 +15167,7 @@
         <v>346</v>
       </c>
       <c r="U206" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="V206" s="1" t="s">
         <v>223</v>
@@ -15297,7 +15233,7 @@
         <v>162</v>
       </c>
       <c r="U207" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="V207" s="1" t="s">
         <v>33</v>
@@ -15339,10 +15275,10 @@
         <v>277</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="O208" s="1" t="n">
         <v>1</v>
@@ -15357,16 +15293,16 @@
         <v>372</v>
       </c>
       <c r="S208" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="T208" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="U208" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="V208" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="W208" s="1" t="s">
         <v>34</v>
@@ -15405,10 +15341,10 @@
         <v>277</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="O209" s="1" t="n">
         <v>1</v>
@@ -15423,16 +15359,16 @@
         <v>372</v>
       </c>
       <c r="S209" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="T209" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="U209" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="V209" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="W209" s="1" t="s">
         <v>34</v>
@@ -15496,7 +15432,7 @@
         <v>346</v>
       </c>
       <c r="U210" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="V210" s="1" t="s">
         <v>223</v>
@@ -15561,7 +15497,7 @@
         <v>72</v>
       </c>
       <c r="U211" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="V211" s="1" t="s">
         <v>33</v>
@@ -15578,13 +15514,13 @@
         <v>73</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>26</v>
@@ -15595,19 +15531,17 @@
       <c r="H212" s="1" t="n">
         <v>865640</v>
       </c>
-      <c r="I212" s="1"/>
+      <c r="I212" s="1" t="n">
+        <v>28384767</v>
+      </c>
       <c r="J212" s="1" t="s">
         <v>276</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="L212" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="M212" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1" t="n">
         <v>1</v>
@@ -15628,10 +15562,10 @@
         <v>188</v>
       </c>
       <c r="U212" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="V212" s="1" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="W212" s="1" t="s">
         <v>34</v>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="554">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -1794,7 +1794,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7703,10 +7703,10 @@
         <v>262</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>26</v>
@@ -7717,7 +7717,9 @@
       <c r="H94" s="1" t="n">
         <v>853739</v>
       </c>
-      <c r="I94" s="1"/>
+      <c r="I94" s="1" t="n">
+        <v>28388634</v>
+      </c>
       <c r="J94" s="1" t="s">
         <v>52</v>
       </c>
@@ -11148,10 +11150,10 @@
         <v>51</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>26</v>
@@ -12880,10 +12882,10 @@
         <v>448</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>26</v>
@@ -14109,12 +14111,6 @@
       </c>
       <c r="K191" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="L191" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="M191" s="0" t="s">
-        <v>239</v>
       </c>
       <c r="O191" s="1" t="n">
         <v>1</v>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="171">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -94,694 +94,445 @@
     <t xml:space="preserve">ASSOCIAÇÃO BRASILEIRA DE EDUCAÇÃO E CULTURA</t>
   </si>
   <si>
-    <t xml:space="preserve">0063-14 - CENTRO DE EDUCACAO INFANTIL MARISTA ENF. ANITA CORDEIRO</t>
+    <t xml:space="preserve">0032-18 - CENTRO RURAL AGUAS DA PRATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATENDIMENTO DIVERGENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGULARIZAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KERECZ.MARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXKERECZ.MARIA@GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro ao processar atendimento: Problema ao atender solicitação de regularização. Ordem de compra. Erro: Problemas na liberação da Ordem de Compra. Erro: Divergências encontradas durante a liberação da ordem de compra. Fase: 01Falta informar o critério de rateio ou a conta financeira no item: MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.002.016 - 133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTOQUE - Materiais de Manutenção de Instalações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022. Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em com duvidasaprovação@gruposostelecom.com.brFornecedor: SWZ INDUSTRIA LTDA (07.526.250/0001-09)NF: 11731Data do pagamento: 18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIÃO CATARINENSE DE EDUCAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0015-04 - COLEGIO MARISTA SAGRADO CORACAO DE JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACHADO.MILENA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXMACHADO.MILENA@TER.GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBARRIQUELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBARRIQUELLO@COLEGIOSMARISTAS.COM.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.02.001.001 - 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máquinas e Equipamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:TOSTA CONSTRUTORA LTDA - ME04.026.323/0001-05NF:339Data do pagamento:09/06/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATERIAIS EM GERAL - CAPEX - EXCLUSIVO BLACKOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSOCIAÇÃO PARANAENSE DE CULTURA - APC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0003-13 - PUC PR CAMPUS CURITIBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDA.DEICHMANN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXEDUARDA.DEICHMANN@TER.GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.012.003 - 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos Internos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FLAVIO CANTADOR COIMBRA 04806289981 (18.183.828/0001-98)NF: 55Data do pagamento: 15/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO CONTRATACAO MUSICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0074-77 - COLEGIO MARISTA SAO LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.006.013 - 138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiais Auxiliares Hospitalares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FARMACIA ULTRAFARMA EIRELI (02.391.030/0001-00)NF: 4538Data do pagamento: 05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-51 - ASSOCIACAO PARANAENSE DE CULTURA - APC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHELE.TOARDIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHELE.TOARDIK@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.009.004 - 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Assessoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ROCHA POMBO ANDRADE &amp; CAPETTI ADVOGADOS (39.412.299/0001-27)NF: 1366Data do pagamento: 26/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONORARIOS ADVOCATICIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0023-67 - HOSPITAL MARCELINO CHAMPAGNAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: H STRATTNER E CIA LTDA (33.250.713/0002-43)NF: 169659Data do pagamento: 30/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0005-85 - FAZENDA EXPERIMENTAL GRALHA AZUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM ATENDIMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.001.007 - 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiais para Agricultura e Pecuária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: COOPERATIVA DE LATICINIOS CURITIBA LIMITADA (76.550.482/0004-68)NF: 838349Data do pagamento: 28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0026-70 - CENTRO EDUCACIONAL MARISTA SANTA MONICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIANA.PAULA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXJULIANA.PAULA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.013.007 - 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auxílios Diversos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:FINFLEX INSTITUICAO DE PAGAMENTO LTDA (40.893.858/0001-47)NF:34271Data do pagamento:20/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO DE VALE TRANSPORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLA.GONÇALVES1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXCARLA.GONÇALVES1@TER.GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATIA.FILIPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATIA.FILIPE@PUCPR.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.001.009 - 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiais Gráficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:BRACELLOS &amp; RAUTENBERG GRAFICA LTDA - ME (07.424.839/0001-04)NF:5790Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ANDREA BORCZ (27.718.309/0001-78)NF: 475Data do pagamento: 28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTRUCAO, TREINAMENTO E ORIENTACOES PEDAGÓGICA E EDUCACIONAL DE QUALQUER NATUREZA</t>
   </si>
   <si>
     <t xml:space="preserve">ENCERRADA</t>
   </si>
   <si>
-    <t xml:space="preserve">NORMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANDA.TURINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMANDA.TURINI@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.003.001 - 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais Escolares, Didáticos e de Laboratório</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material escolar e alimentação colaboradores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABOBORA MENINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quilograma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENOURA TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETERRABA TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLOCOS MILHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUBA MILHO SC 500G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OLEO SOJA NAC PET 900ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUCO DE FRUTAS MAGUARI /SUFRESH  1 LITRO UVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILHO VERDE EM LATA 280G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACUCAR CRISTAL SC 1KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACARRAO ESPAGUETE INTEGRAL 500GR PACOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARINHA TRIGO INTEGRAL SC 1 KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OVO BRANCO JUMBO CX 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BROCOLIS TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.013.001 - 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Auxílios Alimentação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REPOLHO VERDE TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATINHO BOVINO BIFE RESFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISTECA SUINO PED RESFR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARNE MOIDA BOVINA SEGUNDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILE DE FRANGO 1KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALFACE CRESPA TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALMEIRAO TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUVE CRESPA MACO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maço</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEBOLINHA TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUVE FLOR TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARGARINA C/SAL PT 500G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUCHU TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEXERICA MORGOT KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GENGIBRE TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEBOLA INTEIRO GRANEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATATA INGLESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMAO TAITI TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACA GALLA TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BERINJELA TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGA PALMER TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARANJA PERA TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANANA NANICA TRADIC NACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0032-18 - CENTRO RURAL AGUAS DA PRATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATENDIMENTO DIVERGENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGULARIZAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KERECZ.MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXKERECZ.MARIA@GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erro ao processar atendimento: Problema ao atender solicitação de regularização. Ordem de compra. Erro: Problemas na liberação da Ordem de Compra. Erro: Divergências encontradas durante a liberação da ordem de compra. Fase: 01Falta informar o critério de rateio ou a conta financeira no item: MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.016 - 133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTOQUE - Materiais de Manutenção de Instalações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022. Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em com duvidasaprovação@gruposostelecom.com.brFornecedor: SWZ INDUSTRIA LTDA (07.526.250/0001-09)NF: 11731Data do pagamento: 18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0074-77 - COLEGIO MARISTA SAO LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOGAN.ASSUNCAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXLOGAN.ASSUNCAO@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.006.002 - 56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roupas, Colchões e Similares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: HILARIA COMERCIAL LTDANF: 2670Data do pagamento: 29/04/2022 (2000,00), 30/05/2022 (1.166,00) , 30/06/2022 (1.166,00)Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIÃO CATARINENSE DE EDUCAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0015-04 - COLEGIO MARISTA SAGRADO CORACAO DE JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADASTRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACHADO.MILENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXMACHADO.MILENA@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBARRIQUELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBARRIQUELLO@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02.001.001 - 93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Máquinas e Equipamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:TOSTA CONSTRUTORA LTDA - ME04.026.323/0001-05NF:339Data do pagamento:09/06/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIAIS EM GERAL - CAPEX - EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSOCIAÇÃO PARANAENSE DE CULTURA - APC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0003-13 - PUC PR CAMPUS CURITIBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDA.DEICHMANN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXEDUARDA.DEICHMANN@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.012.003 - 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eventos Internos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FLAVIO CANTADOR COIMBRA 04806289981 (18.183.828/0001-98)NF: 55Data do pagamento: 15/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO CONTRATACAO MUSICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.006.013 - 138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais Auxiliares Hospitalares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FARMACIA ULTRAFARMA EIRELI (02.391.030/0001-00)NF: 4538Data do pagamento: 05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-51 - ASSOCIACAO PARANAENSE DE CULTURA - APC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHELE.TOARDIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHELE.TOARDIK@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.009.004 - 76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Assessoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ROCHA POMBO ANDRADE &amp; CAPETTI ADVOGADOS (39.412.299/0001-27)NF: 1366Data do pagamento: 26/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HONORARIOS ADVOCATICIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0023-67 - HOSPITAL MARCELINO CHAMPAGNAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: H STRATTNER E CIA LTDA (33.250.713/0002-43)NF: 169659Data do pagamento: 30/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0005-85 - FAZENDA EXPERIMENTAL GRALHA AZUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.KNOPFHOLZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.KNOPFHOLZ@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.001.007 - 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais para Agricultura e Pecuária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: COOPERATIVA DE LATICINIOS CURITIBA LIMITADA (76.550.482/0004-68)NF: 838349Data do pagamento: 28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">GSILVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSILVEIRA@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.009.002 - 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Consultoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:GOBBO &amp; GUIMARAES ADVOGADOS ASSOCIADOS (13.517.516/0001-50)NF:2121Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO ASSESSORIA OU CONSULTORIA QUALQUER NATUREZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0013-55 - COLEGIO MARISTA PIO XII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCASSOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCASSOU@COLEGIOSMARISTAS.COM.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.002.001 - 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiais de Limpeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ARGUS COM.DE PECAS INDNF:37395Data do pagamento:13/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0069-00 - COLEGIO MARISTA SAO FRANCISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.008.002 - 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Água e Esgoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CASAN - COMPANHIA CATARINENSE DE ÁGUAS E SANEAMENTONF:18137040Data do pagamento:01/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRESSA.LORANDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRESSA.LORANDI@PUCPR.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.003.006 - 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços Acadêmicos e Educacionais - PJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CENAN ENSINO E PESQUISA LTDANF:46Data do pagamento:05/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATASHA.COSTA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXNATASHA.COSTA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.003.010 - 129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos Pedagógicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: VERTX SOLUCOES EM EVENTOS EMPRESARIAIS E ENTRETENIMENTO LTDA (CNPJ: 36.113.870/0001-14)NF: 15Data do pagamento: 01/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCAO DE EVENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO.CORDEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAULO.CORDEIRO@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.010.001 - 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Telefonia Fixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:UNIFY - SOLUCOES EM TECNOLOGIA DA INFORMACAO LTDA. (67.071.001/0003-60)NF:503104174Data do pagamento:25/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO DE TELEFONIA FIXA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0067-48 - ESCOLA CHAMPAGNAT PRESIDENTE PRUDENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.002.006 - 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Manutenção de Instalações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:FLAVIO RICARDO DA SILVA32033011801NF:24Data do pagamento:11/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICOS DE MANUTENCAO PREDIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAIS.COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAIS.COSTA@PUCPR.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.001.003 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiais para Lanches e Refeições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:NASSUR COMERCIO DE ALIMENTOS LTDA MENF:5Data do pagamento:05/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO BUFFET</t>
   </si>
   <si>
     <t xml:space="preserve">RECUSADA</t>
   </si>
   <si>
+    <t xml:space="preserve">EDELMI.MARCELO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDELMI.MARCELO@PUCPR.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desconhecemos esta contratação para este CR. Poderiam, pls, informar o nome do usuário que incluiu a despesa originalmente, para que possamos rastrear?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:JULIANA RODRIGUES DE SOUZA - DOCES (11.622.998/0001-82)NF:2073Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0059-38 - COLEGIO MARISTA DE GOIANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA.GABRIELA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXMARIA.GABRIELA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.012.007 - 126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicina Ocupacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:10.247.663/0001-69NF:148436Data do pagamento:28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICOS FARMACEUTICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-11 - ASSOCIACAO BRASILEIRA DE EDUCACAO E CULTURA - ABEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AORUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AORUI@COLEGIOSMARISTAS.COM.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.013.004 - 306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: AXA SEGUROS S/A (CNPJ: 19.323.190/0001-06)NF: BOLETO NF 343739Data do pagamento: 04/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0006-66 - COLEGIO IR MARIO CRISTOVAO TECPUC ENSINO MEDIO E PROFIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIO.ADAMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FABIO.ADAMO@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lançamento no  CR correto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.002.013 - 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Segurança Patrimonial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:GOCIL SERVICOS DE VIGILANCIA E SEGURANCA LTDA (50.844.182/0009-02)NF:13062Data do pagamento:04/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO VIGILANCIA, SEGURANCA E MONITORAMENTO DE BENS E PESSOAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">COSTA.ELAINE</t>
   </si>
   <si>
     <t xml:space="preserve">COSTA.ELAINE@HOSPITALMARCELINO.COM.BR</t>
   </si>
   <si>
-    <t xml:space="preserve">Favor informar AI do projeto Fase 2 2011191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: SOS SUL RESGATE COMÉRCIO E SERVIÇOS DE SEGURANÇA E SINALIZAÇÃO LTDA (03.928.511/0001-66)NF: 41037Data do pagamento: 18/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0026-70 - CENTRO EDUCACIONAL MARISTA SANTA MONICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM ATENDIMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULIANA.PAULA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXJULIANA.PAULA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.013.007 - 142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auxílios Diversos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:FINFLEX INSTITUICAO DE PAGAMENTO LTDA (40.893.858/0001-47)NF:34271Data do pagamento:20/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO DE VALE TRANSPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitação aprovada diretamente via banco para garantirmos a rastreabilidades serão utilizadas as aprovações realizadas via APTUS. Validado DARC registrado HIGHBOND</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: SULUMAT DISTRIBUIDORA DE PRODUTOS CIRURGICOS LTDA (42.355.497/0001-00)NF: 989Data do pagamento: 11/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICRONEBULIZADOR PARA OXIGENIO ADULTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.004 - 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Manutenção de Equipamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: DIAMONT TECNOLOGIA DE CLIMATIZACAO LTDA (08.764.993/0001-80)NF: 5110Data do pagamento: 29/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO MANUTENCAO AR CONDICIONADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0008-98 - COLEGIO MARISTA SANTA MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLA.GONÇALVES1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXCARLA.GONÇALVES1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.008 - 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Limpeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:PREVINE HIGIENE AMBIENTAL LTDA (09.075.231/0001-39)NF:3382Data do pagamento:22/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO DEDETIZACAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATIA.FILIPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATIA.FILIPE@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.001.009 - 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais Gráficos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:BRACELLOS &amp; RAUTENBERG GRAFICA LTDA - ME (07.424.839/0001-04)NF:5790Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ANDREA BORCZ (27.718.309/0001-78)NF: 475Data do pagamento: 28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTRUCAO, TREINAMENTO E ORIENTACOES PEDAGÓGICA E EDUCACIONAL DE QUALQUER NATUREZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0002-32 - HOSPITAL UNIVERSITARIO CAJURU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETICIA.SALAMUNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETICIA.SALAMUNES@HOSPITALCAJURU.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.001.001 - 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais de Escritório</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CONTABILISTA SUPRIMENTOS PARA ESCRITORIO S.A. (77.765.840/0001-70)NF:1736038Data do pagamento:03/07/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENDY.FERRAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENDY.FERRAZ@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CONTABILISTA SUPRIMENTOS PARA ESCRITORIO S.A. (77.765.840/0001-70)NF:1741019Data do pagamento:27/06/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER.SOARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER.SOARES@SANTACASACURITIBA.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.001.002 - 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copa e Cozinha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CONTABILISTA SUPRIMENTOS PARA ESCRITORIO S.A. (77.765.840/0001-70)NF:1742774Data do pagamento:13/07/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSILVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSILVEIRA@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.009.002 - 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Consultoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:GOBBO &amp; GUIMARAES ADVOGADOS ASSOCIADOS (13.517.516/0001-50)NF:2121Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO ASSESSORIA OU CONSULTORIA QUALQUER NATUREZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0013-55 - COLEGIO MARISTA PIO XII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCASSOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCASSOU@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.001 - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais de Limpeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ARGUS COM.DE PECAS INDNF:37395Data do pagamento:13/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0069-00 - COLEGIO MARISTA SAO FRANCISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.008.002 - 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água e Esgoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CASAN - COMPANHIA CATARINENSE DE ÁGUAS E SANEAMENTONF:18137040Data do pagamento:01/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDRESSA.LORANDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDRESSA.LORANDI@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.003.006 - 38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços Acadêmicos e Educacionais - PJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CENAN ENSINO E PESQUISA LTDANF:46Data do pagamento:05/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATASHA.COSTA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXNATASHA.COSTA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.003.010 - 129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eventos Pedagógicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: VERTX SOLUCOES EM EVENTOS EMPRESARIAIS E ENTRETENIMENTO LTDA (CNPJ: 36.113.870/0001-14)NF: 15Data do pagamento: 01/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCAO DE EVENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAULO.CORDEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAULO.CORDEIRO@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.010.001 - 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Telefonia Fixa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:UNIFY - SOLUCOES EM TECNOLOGIA DA INFORMACAO LTDA. (67.071.001/0003-60)NF:503104174Data do pagamento:25/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO DE TELEFONIA FIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0067-48 - ESCOLA CHAMPAGNAT PRESIDENTE PRUDENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.006 - 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Manutenção de Instalações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:FLAVIO RICARDO DA SILVA32033011801NF:24Data do pagamento:11/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICOS DE MANUTENCAO PREDIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAIS.COSTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAIS.COSTA@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.001.003 - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais para Lanches e Refeições</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:NASSUR COMERCIO DE ALIMENTOS LTDA MENF:5Data do pagamento:05/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO BUFFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDELMI.MARCELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDELMI.MARCELO@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desconhecemos esta contratação para este CR. Poderiam, pls, informar o nome do usuário que incluiu a despesa originalmente, para que possamos rastrear?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:JULIANA RODRIGUES DE SOUZA - DOCES (11.622.998/0001-82)NF:2073Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0059-38 - COLEGIO MARISTA DE GOIANIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA.GABRIELA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXMARIA.GABRIELA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.012.007 - 126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicina Ocupacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:10.247.663/0001-69NF:148436Data do pagamento:28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICOS FARMACEUTICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0011-80 - COLEGIO MARISTA PARANAENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAVLOVSKI.GUSTAVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAVLOVSKI.GUSTAVO@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JFINGUER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JFINGUER@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIAL DE LIMPEZA ( VASSOURA COM PÁ COLETORA) PARA MARISTA IDIOMAS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VASSOURA COM CABO 30X16.5X4.4 CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-11 - ASSOCIACAO BRASILEIRA DE EDUCACAO E CULTURA - ABEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AORUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AORUI@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.013.004 - 306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: AXA SEGUROS S/A (CNPJ: 19.323.190/0001-06)NF: BOLETO NF 343739Data do pagamento: 04/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0006-66 - COLEGIO IR MARIO CRISTOVAO TECPUC ENSINO MEDIO E PROFIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO.ADAMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO.ADAMO@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lançamento no  CR correto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.013 - 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Segurança Patrimonial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:GOCIL SERVICOS DE VIGILANCIA E SEGURANCA LTDA (50.844.182/0009-02)NF:13062Data do pagamento:04/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO VIGILANCIA, SEGURANCA E MONITORAMENTO DE BENS E PESSOAS</t>
+    <t xml:space="preserve">01.02.001.004 - 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipamentos Médicos e Hospitalares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: SOS SUL RESGATE COMÉRCIO E SERVIÇOS DE SEGURANÇA E SINALIZAÇÃO LTDA (03.928.511/0001-66)NF: 41037Data do pagamento:18/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQUIPAMENTOS EM GERAL - CAPEX - EXCLUSIVO BLACKOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIMENTEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIMENTEL@COLEGIOSMARISTAS.COM.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CLARO S/A 40432544000147 NF:22/03/23001115Data do pagamento:18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
 </sst>
 </file>
@@ -969,7 +720,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44747.4590277778</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -987,10 +738,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>343545</v>
+        <v>350867</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>840720</v>
+        <v>853261</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
@@ -999,167 +750,174 @@
       <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="N2" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="O2" s="1" t="n">
-        <v>1.255</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>3.99</v>
+        <v>417.19</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>62931</v>
+        <v>51101</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44756.3666666667</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>343545</v>
+        <v>355569</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>840722</v>
+        <v>860499</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="n">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>1.99</v>
+        <v>57865.34</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>62931</v>
+        <v>41000</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44764.3680555556</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>343545</v>
+        <v>358287</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>840723</v>
+        <v>864920</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>4.99</v>
+        <v>400</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>62931</v>
+        <v>1031074</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44764.3805555556</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -1171,136 +929,145 @@
         <v>26</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>343545</v>
+        <v>358298</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>840814</v>
+        <v>864933</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>3.98</v>
+        <v>341.64</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>62931</v>
+        <v>43110</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44765.3958333333</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>343545</v>
+        <v>358565</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>840819</v>
+        <v>865551</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="O6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>3.99</v>
+        <v>49080.35</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>62931</v>
+        <v>101333</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44765.40625</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>343545</v>
+        <v>358567</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>840820</v>
+        <v>865553</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1309,544 +1076,574 @@
         <v>1</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>9.89</v>
+        <v>28598.33</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>62931</v>
+        <v>123055</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44765.4159722222</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>343545</v>
+        <v>358569</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>840825</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>865554</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>28438787</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>7.99</v>
+        <v>25414.49</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>62931</v>
+        <v>105095</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44765.4583333333</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>343545</v>
+        <v>358576</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>840831</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>865595</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>28418989</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>3.49</v>
+        <v>166.86</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>62931</v>
+        <v>62105</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44765.5638888889</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>343545</v>
+        <v>358599</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>840833</v>
+        <v>865629</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>8.49</v>
+        <v>377</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>62931</v>
+        <v>105712</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44765.5819444444</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>343545</v>
+        <v>358604</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>840834</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>865632</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>28422088</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>5.99</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>62931</v>
+        <v>1031028</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44767.4333333333</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>343545</v>
+        <v>358795</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>840835</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>865898</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>28385435</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>5.79</v>
+        <v>113.48</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>62931</v>
+        <v>101622</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44767.5854166667</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>343545</v>
+        <v>358972</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>840837</v>
+        <v>866268</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="O13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>17.99</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>62931</v>
+        <v>41000</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44767.6159722222</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>343545</v>
+        <v>359033</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>840838</v>
+        <v>866462</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="O14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>8.99</v>
+        <v>905.06</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>62931</v>
+        <v>41000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44767.6263888889</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>343545</v>
+        <v>359051</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>840844</v>
+        <v>866542</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>7.99</v>
+        <v>2400</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>62931</v>
+        <v>1031214</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44767.6409722222</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>343545</v>
+        <v>359074</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>840847</v>
+        <v>866598</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1855,3445 +1652,1638 @@
         <v>1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>17.99</v>
+        <v>36500</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>62931</v>
+        <v>1031074</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44768.4027777778</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>343545</v>
+        <v>359221</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>840848</v>
+        <v>867065</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>8.99</v>
+        <v>1847.1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>62931</v>
+        <v>101584</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44768.425</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>343545</v>
+        <v>359257</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>840849</v>
+        <v>867101</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>28419003</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>2.99</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>62931</v>
+        <v>41000</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44768.6347222222</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>343545</v>
+        <v>359438</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>840851</v>
+        <v>867390</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>8.085</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>36.89</v>
+        <v>5065</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>62931</v>
+        <v>1031074</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44768.6569444444</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>343545</v>
+        <v>359468</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>840853</v>
+        <v>867467</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>5.39</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>11.98</v>
+        <v>1500</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>62931</v>
+        <v>1030752</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44769.4631944444</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>343545</v>
+        <v>359538</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>840856</v>
-      </c>
-      <c r="I21" s="1"/>
+        <v>867595</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>28419038</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="O21" s="1" t="n">
-        <v>3.196</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>29.98</v>
+        <v>1477.59</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>62931</v>
+        <v>41000</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44769.5743055556</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>343545</v>
+        <v>359624</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>840859</v>
+        <v>867794</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="O22" s="1" t="n">
-        <v>10.09</v>
+        <v>1</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>15.98</v>
+        <v>109457.16</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>62931</v>
+        <v>41000</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44769.6916666667</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>343545</v>
+        <v>359813</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>840860</v>
+        <v>868250</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="O23" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>2.99</v>
+        <v>6884.45</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>62931</v>
+        <v>101285</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44770.3986111111</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>343545</v>
+        <v>359956</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>840864</v>
+        <v>868532</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>163</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>3.99</v>
+        <v>24762.6</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>62931</v>
+        <v>105703</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>44735.5048611111</v>
+        <v>44770.49375</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>343545</v>
+        <v>360097</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>840867</v>
+        <v>868949</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>28</v>
+        <v>76</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>3.99</v>
+        <v>591.99</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>62931</v>
+        <v>41000</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>840869</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="O26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="P26" s="1" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q26" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>840873</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P27" s="1" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="Q27" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>840878</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="1" t="n">
-        <v>8.97</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>840879</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1" t="n">
-        <v>3.005</v>
-      </c>
-      <c r="P29" s="1" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="Q29" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>840880</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="P30" s="1" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q30" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>840881</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1" t="n">
-        <v>1.065</v>
-      </c>
-      <c r="P31" s="1" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>840885</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="P32" s="1" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q32" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>840887</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="P33" s="1" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Q33" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>840890</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>5.175</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>840901</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="P35" s="1" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="Q35" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>840903</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" s="1" t="n">
-        <v>4.035</v>
-      </c>
-      <c r="P36" s="1" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="Q36" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>840904</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="P37" s="1" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="Q37" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>840905</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1" t="n">
-        <v>10.165</v>
-      </c>
-      <c r="P38" s="1" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q38" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
-        <v>44735.5048611111</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>343545</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>840906</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="O39" s="1" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="P39" s="1" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q39" s="1" t="n">
-        <v>62931</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
-        <v>44747.4590277778</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>350867</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>853261</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N40" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="O40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" s="1" t="n">
-        <v>417.19</v>
-      </c>
-      <c r="Q40" s="1" t="n">
-        <v>51101</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
-        <v>44749.6145833333</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>353043</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>856341</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>28089014</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O41" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="1" t="n">
-        <v>4332</v>
-      </c>
-      <c r="Q41" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
-        <v>44756.3666666667</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>355569</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>860499</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1" t="n">
-        <v>57865.34</v>
-      </c>
-      <c r="Q42" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
-        <v>44764.3680555556</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>358287</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>864920</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="Q43" s="1" t="n">
-        <v>1031074</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
-        <v>44764.3805555556</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>358298</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>864933</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="O44" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="1" t="n">
-        <v>341.64</v>
-      </c>
-      <c r="Q44" s="1" t="n">
-        <v>43110</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
-        <v>44765.3958333333</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>358565</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>865551</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L45" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="O45" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="1" t="n">
-        <v>49080.35</v>
-      </c>
-      <c r="Q45" s="1" t="n">
-        <v>101333</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
-        <v>44765.40625</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>358567</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>865553</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="1" t="n">
-        <v>28598.33</v>
-      </c>
-      <c r="Q46" s="1" t="n">
-        <v>123055</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
-        <v>44765.4159722222</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>358569</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>865554</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="1" t="n">
-        <v>25414.49</v>
-      </c>
-      <c r="Q47" s="1" t="n">
-        <v>105095</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
-        <v>44765.4534722222</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>358574</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>865569</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N48" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="O48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="1" t="n">
-        <v>24762.6</v>
-      </c>
-      <c r="Q48" s="1" t="n">
-        <v>105703</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
-        <v>44765.4583333333</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>358576</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>865595</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>28418989</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="1" t="n">
-        <v>166.86</v>
-      </c>
-      <c r="Q49" s="1" t="n">
-        <v>62105</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
-        <v>44765.4909722222</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>358584</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>865614</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>28369374</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="O50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" s="1" t="n">
-        <v>5070</v>
-      </c>
-      <c r="Q50" s="1" t="n">
-        <v>105703</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
-        <v>44765.5013888889</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>358587</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>865622</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>28419382</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="O51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="1" t="n">
-        <v>2400</v>
-      </c>
-      <c r="Q51" s="1" t="n">
-        <v>105576</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
-        <v>44765.55625</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>358595</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>865626</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>28393428</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="Q52" s="1" t="n">
-        <v>43110</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
-        <v>44765.5638888889</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>358599</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>865629</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P53" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="Q53" s="1" t="n">
-        <v>105712</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
-        <v>44765.5819444444</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>358604</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>865632</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>28422088</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O54" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P54" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="Q54" s="1" t="n">
-        <v>1031028</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
-        <v>44767.375</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>358714</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>865765</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>28384794</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="Q55" s="1" t="n">
-        <v>102030</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
-        <v>44767.38125</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>358727</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>865785</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>28384797</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L56" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="O56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P56" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="Q56" s="1" t="n">
-        <v>123073</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
-        <v>44767.3909722222</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>358740</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>865796</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>28384800</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L57" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="M57" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="O57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="Q57" s="1" t="n">
-        <v>123055</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
-        <v>44767.4333333333</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <v>358795</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>865898</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>28385435</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L58" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="O58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="1" t="n">
-        <v>113.48</v>
-      </c>
-      <c r="Q58" s="1" t="n">
-        <v>101622</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
-        <v>44767.5854166667</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>358972</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>866268</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="M59" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="O59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="Q59" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T59" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W59" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
-        <v>44767.6159722222</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>359033</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>866462</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="1" t="n">
-        <v>905.06</v>
-      </c>
-      <c r="Q60" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
-        <v>44767.6263888889</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>359051</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>866542</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="M61" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="O61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="1" t="n">
-        <v>2400</v>
-      </c>
-      <c r="Q61" s="1" t="n">
-        <v>1031214</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="W61" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
-        <v>44767.6409722222</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>359074</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>866598</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="1" t="n">
-        <v>36500</v>
-      </c>
-      <c r="Q62" s="1" t="n">
-        <v>1031074</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="T62" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="W62" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
-        <v>44768.4027777778</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>359221</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>867065</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L63" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="O63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="1" t="n">
-        <v>1847.1</v>
-      </c>
-      <c r="Q63" s="1" t="n">
-        <v>101584</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="T63" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="W63" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
-        <v>44768.425</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <v>359257</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>867101</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>28419003</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="O64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q64" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T64" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="W64" s="1" t="s">
-        <v>215</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
-        <v>44768.6347222222</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>359438</v>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>867390</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L65" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="M65" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="O65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" s="1" t="n">
-        <v>5065</v>
-      </c>
-      <c r="Q65" s="1" t="n">
-        <v>1031074</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="U65" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="W65" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
-        <v>44768.6569444444</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>359468</v>
-      </c>
-      <c r="H66" s="1" t="n">
-        <v>867467</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="N66" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="O66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" s="1" t="n">
-        <v>1500</v>
-      </c>
-      <c r="Q66" s="1" t="n">
-        <v>1030752</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S66" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="T66" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="U66" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W66" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
-        <v>44769.4631944444</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>359538</v>
-      </c>
-      <c r="H67" s="1" t="n">
-        <v>867595</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <v>28419038</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" s="1" t="n">
-        <v>1477.59</v>
-      </c>
-      <c r="Q67" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="V67" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="W67" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
-        <v>44769.4972222222</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>359591</v>
-      </c>
-      <c r="H68" s="1" t="n">
-        <v>867706</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L68" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="M68" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="O68" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="P68" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q68" s="1" t="n">
-        <v>10606</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="V68" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
-        <v>44769.5743055556</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>359624</v>
-      </c>
-      <c r="H69" s="1" t="n">
-        <v>867794</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L69" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="M69" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="O69" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" s="1" t="n">
-        <v>109457.16</v>
-      </c>
-      <c r="Q69" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="V69" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="W69" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
-        <v>44769.6916666667</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <v>359813</v>
-      </c>
-      <c r="H70" s="1" t="n">
-        <v>868250</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="M70" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="N70" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="O70" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P70" s="1" t="n">
-        <v>6884.45</v>
-      </c>
-      <c r="Q70" s="1" t="n">
-        <v>101285</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="U70" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="V70" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="W70" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -469,10 +469,10 @@
     <t xml:space="preserve">0001-11 - ASSOCIACAO BRASILEIRA DE EDUCACAO E CULTURA - ABEC</t>
   </si>
   <si>
-    <t xml:space="preserve">AORUI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AORUI@COLEGIOSMARISTAS.COM.BR</t>
+    <t xml:space="preserve">CPASCHOALIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPASCHOALIN@COLEGIOSMARISTAS.COM.BR</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.013.004 - 306</t>
@@ -508,12 +508,6 @@
     <t xml:space="preserve">SERVICO VIGILANCIA, SEGURANCA E MONITORAMENTO DE BENS E PESSOAS</t>
   </si>
   <si>
-    <t xml:space="preserve">COSTA.ELAINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COSTA.ELAINE@HOSPITALMARCELINO.COM.BR</t>
-  </si>
-  <si>
     <t xml:space="preserve">01.02.001.004 - 96</t>
   </si>
   <si>
@@ -524,12 +518,6 @@
   </si>
   <si>
     <t xml:space="preserve">EQUIPAMENTOS EM GERAL - CAPEX - EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIMENTEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPIMENTEL@COLEGIOSMARISTAS.COM.BR</t>
   </si>
   <si>
     <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CLARO S/A 40432544000147 NF:22/03/23001115Data do pagamento:18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
@@ -750,7 +738,7 @@
       <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="1" t="n">
@@ -941,7 +929,7 @@
       <c r="K5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="1" t="n">
@@ -1004,10 +992,10 @@
       <c r="K6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="O6" s="1" t="n">
@@ -1386,10 +1374,10 @@
       <c r="K12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="N12" s="1"/>
@@ -1453,10 +1441,10 @@
       <c r="K13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O13" s="1" t="n">
@@ -1579,10 +1567,10 @@
       <c r="K15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" s="1" t="s">
         <v>108</v>
       </c>
       <c r="O15" s="1" t="n">
@@ -1687,10 +1675,10 @@
         <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
@@ -1701,17 +1689,19 @@
       <c r="H17" s="1" t="n">
         <v>867065</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="n">
+        <v>28443664</v>
+      </c>
       <c r="J17" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" s="1" t="s">
         <v>119</v>
       </c>
       <c r="O17" s="1" t="n">
@@ -1753,10 +1743,10 @@
         <v>124</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
@@ -1767,7 +1757,7 @@
       <c r="H18" s="1" t="n">
         <v>867101</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="1" t="n">
         <v>28419003</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -1839,10 +1829,10 @@
       <c r="K19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" s="1" t="s">
         <v>131</v>
       </c>
       <c r="O19" s="1" t="n">
@@ -1905,13 +1895,13 @@
       <c r="K20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" s="1" t="s">
         <v>139</v>
       </c>
       <c r="O20" s="1" t="n">
@@ -2151,10 +2141,10 @@
         <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>26</v>
@@ -2165,19 +2155,17 @@
       <c r="H24" s="1" t="n">
         <v>868532</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="n">
+        <v>28440098</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="M24" s="0" t="s">
-        <v>163</v>
-      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="O24" s="1" t="n">
         <v>1</v>
       </c>
@@ -2191,16 +2179,16 @@
         <v>43</v>
       </c>
       <c r="S24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>35</v>
@@ -2217,10 +2205,10 @@
         <v>124</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>26</v>
@@ -2231,19 +2219,17 @@
       <c r="H25" s="1" t="n">
         <v>868949</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1" t="n">
+        <v>28441400</v>
+      </c>
       <c r="J25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>169</v>
-      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
       <c r="O25" s="1" t="n">
         <v>1</v>
       </c>
@@ -2263,7 +2249,7 @@
         <v>121</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>123</v>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="181">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -316,12 +316,6 @@
     <t xml:space="preserve">0013-55 - COLEGIO MARISTA PIO XII</t>
   </si>
   <si>
-    <t xml:space="preserve">MCASSOU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCASSOU@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
     <t xml:space="preserve">01.01.002.001 - 18</t>
   </si>
   <si>
@@ -412,12 +406,18 @@
     <t xml:space="preserve">Diária</t>
   </si>
   <si>
+    <t xml:space="preserve">RECUSADA</t>
+  </si>
+  <si>
     <t xml:space="preserve">THAIS.COSTA</t>
   </si>
   <si>
     <t xml:space="preserve">THAIS.COSTA@PUCPR.BR</t>
   </si>
   <si>
+    <t xml:space="preserve">Olá, Desconheço essa NF, esse fornecedor. Já foi enviado para eu aprovar antes e não contratamos esse fornecedor.</t>
+  </si>
+  <si>
     <t xml:space="preserve">01.01.001.003 - 8</t>
   </si>
   <si>
@@ -430,9 +430,6 @@
     <t xml:space="preserve">SERVICO BUFFET</t>
   </si>
   <si>
-    <t xml:space="preserve">RECUSADA</t>
-  </si>
-  <si>
     <t xml:space="preserve">EDELMI.MARCELO</t>
   </si>
   <si>
@@ -521,6 +518,51 @@
   </si>
   <si>
     <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CLARO S/A 40432544000147 NF:22/03/23001115Data do pagamento:18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: AXA SEGUROS S/A (CNPJ:  19.323.190/0001-06)NF: 349461Data do pagamento: 04/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMANDA.FRUEHLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMANDA.FRUEHLING@PUCPR.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.007.005 - 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicidade e Propaganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:GANGORRA DIGITAL PUBLICIDADES LTDA (33.587.538/0001-01NF:555Data do pagamento:14/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO PUBLICIDADE E PROPAGANDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE.QUEIROZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE.QUEIROZ@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNE.MAEZUKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNE.MAEZUKA@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAROLINA.PIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAROLINA.PIVA@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMELA.MENEZES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAMELA.MENEZES@GRUPOMARISTA.ORG.BR</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1462,10 @@
         <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
@@ -1434,19 +1476,17 @@
       <c r="H13" s="1" t="n">
         <v>866268</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="n">
+        <v>28498143</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="O13" s="1" t="n">
         <v>1</v>
       </c>
@@ -1460,13 +1500,13 @@
         <v>30</v>
       </c>
       <c r="S13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="V13" s="1" t="s">
         <v>34</v>
@@ -1483,7 +1523,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
@@ -1520,13 +1560,13 @@
         <v>30</v>
       </c>
       <c r="S14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>34</v>
@@ -1568,10 +1608,10 @@
         <v>82</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O15" s="1" t="n">
         <v>1</v>
@@ -1586,13 +1626,13 @@
         <v>30</v>
       </c>
       <c r="S15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>96</v>
@@ -1628,10 +1668,10 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1649,16 +1689,16 @@
         <v>30</v>
       </c>
       <c r="S16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>35</v>
@@ -1699,10 +1739,10 @@
         <v>82</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>1</v>
@@ -1717,16 +1757,16 @@
         <v>30</v>
       </c>
       <c r="S17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>35</v>
@@ -1740,7 +1780,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>90</v>
@@ -1782,19 +1822,19 @@
         <v>30</v>
       </c>
       <c r="S18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,7 +1848,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>38</v>
@@ -1830,9 +1870,12 @@
         <v>82</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="0" t="s">
         <v>131</v>
       </c>
       <c r="O19" s="1" t="n">
@@ -1874,7 +1917,7 @@
         <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>38</v>
@@ -1896,13 +1939,13 @@
         <v>82</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>1</v>
@@ -1923,7 +1966,7 @@
         <v>133</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>34</v>
@@ -1940,7 +1983,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>70</v>
@@ -1961,10 +2004,10 @@
         <v>28419038</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1981,16 +2024,16 @@
         <v>30</v>
       </c>
       <c r="S21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>35</v>
@@ -2004,7 +2047,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
@@ -2023,16 +2066,16 @@
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="O22" s="1" t="n">
         <v>1</v>
@@ -2047,13 +2090,13 @@
         <v>30</v>
       </c>
       <c r="S22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>34</v>
@@ -2070,10 +2113,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>38</v>
@@ -2094,13 +2137,13 @@
         <v>82</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="O23" s="1" t="n">
         <v>1</v>
@@ -2115,16 +2158,16 @@
         <v>30</v>
       </c>
       <c r="S23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="T23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="W23" s="1" t="s">
         <v>35</v>
@@ -2179,16 +2222,16 @@
         <v>43</v>
       </c>
       <c r="S24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="W24" s="1" t="s">
         <v>35</v>
@@ -2202,13 +2245,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>26</v>
@@ -2243,161 +2286,415 @@
         <v>30</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="W25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="A26" s="2" t="n">
+        <v>44771.4659722222</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>360512</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>870075</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>28444978</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
+      <c r="O26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>41000</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="A27" s="2" t="n">
+        <v>44771.6826388889</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>360679</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>870533</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
+      <c r="O27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>3896.67</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>101249</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="A28" s="2" t="n">
+        <v>44771.6826388889</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>360679</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>870533</v>
+      </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>3896.67</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>101249</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="A29" s="2" t="n">
+        <v>44771.6826388889</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>360679</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>870533</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
+      <c r="O29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>3896.67</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>101249</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="A30" s="2" t="n">
+        <v>44771.6826388889</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>360679</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>870533</v>
+      </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>3896.67</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>101249</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="A31" s="2" t="n">
+        <v>44771.6826388889</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>360679</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>870533</v>
+      </c>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="O31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>3896.67</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>101249</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="128">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -91,91 +91,25 @@
     <t xml:space="preserve">UNIDADE_DE_MEDIDA</t>
   </si>
   <si>
-    <t xml:space="preserve">ASSOCIAÇÃO BRASILEIRA DE EDUCAÇÃO E CULTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0032-18 - CENTRO RURAL AGUAS DA PRATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATENDIMENTO DIVERGENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGULARIZAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KERECZ.MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXKERECZ.MARIA@GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erro ao processar atendimento: Problema ao atender solicitação de regularização. Ordem de compra. Erro: Problemas na liberação da Ordem de Compra. Erro: Divergências encontradas durante a liberação da ordem de compra. Fase: 01Falta informar o critério de rateio ou a conta financeira no item: MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.016 - 133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTOQUE - Materiais de Manutenção de Instalações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022. Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em com duvidasaprovação@gruposostelecom.com.brFornecedor: SWZ INDUSTRIA LTDA (07.526.250/0001-09)NF: 11731Data do pagamento: 18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIÃO CATARINENSE DE EDUCAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0015-04 - COLEGIO MARISTA SAGRADO CORACAO DE JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CADASTRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACHADO.MILENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXMACHADO.MILENA@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBARRIQUELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBARRIQUELLO@COLEGIOSMARISTAS.COM.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02.001.001 - 93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Máquinas e Equipamentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:TOSTA CONSTRUTORA LTDA - ME04.026.323/0001-05NF:339Data do pagamento:09/06/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIAIS EM GERAL - CAPEX - EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
     <t xml:space="preserve">ASSOCIAÇÃO PARANAENSE DE CULTURA - APC</t>
   </si>
   <si>
     <t xml:space="preserve">0003-13 - PUC PR CAMPUS CURITIBA</t>
   </si>
   <si>
+    <t xml:space="preserve">CADASTRADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGULARIZAÇÃO</t>
+  </si>
+  <si>
     <t xml:space="preserve">EDUARDA.DEICHMANN</t>
   </si>
   <si>
     <t xml:space="preserve">XXXEDUARDA.DEICHMANN@TER.GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEX</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.012.003 - 87</t>
@@ -190,7 +124,19 @@
     <t xml:space="preserve">SERVICO CONTRATACAO MUSICOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Unidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSOCIAÇÃO BRASILEIRA DE EDUCAÇÃO E CULTURA</t>
+  </si>
+  <si>
     <t xml:space="preserve">0074-77 - COLEGIO MARISTA SAO LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATENDIMENTO DIVERGENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro ao processar atendimento: Problema ao atender solicitação de regularização. Ordem de compra. Erro: Problemas na liberação da Ordem de Compra. Erro: Divergências encontradas durante a liberação da ordem de compra. Fase: 01Falta informar o critério de rateio ou a conta financeira no item: MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.006.013 - 138</t>
@@ -200,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FARMACIA ULTRAFARMA EIRELI (02.391.030/0001-00)NF: 4538Data do pagamento: 05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
   </si>
   <si>
     <t xml:space="preserve">0001-51 - ASSOCIACAO PARANAENSE DE CULTURA - APC</t>
@@ -229,22 +178,10 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: H STRATTNER E CIA LTDA (33.250.713/0002-43)NF: 169659Data do pagamento: 30/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">0005-85 - FAZENDA EXPERIMENTAL GRALHA AZUL</t>
+    <t xml:space="preserve">0026-70 - CENTRO EDUCACIONAL MARISTA SANTA MONICA</t>
   </si>
   <si>
     <t xml:space="preserve">EM ATENDIMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.001.007 - 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais para Agricultura e Pecuária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: COOPERATIVA DE LATICINIOS CURITIBA LIMITADA (76.550.482/0004-68)NF: 838349Data do pagamento: 28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0026-70 - CENTRO EDUCACIONAL MARISTA SANTA MONICA</t>
   </si>
   <si>
     <t xml:space="preserve">JULIANA.PAULA1</t>
@@ -286,45 +223,6 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:BRACELLOS &amp; RAUTENBERG GRAFICA LTDA - ME (07.424.839/0001-04)NF:5790Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ANDREA BORCZ (27.718.309/0001-78)NF: 475Data do pagamento: 28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTRUCAO, TREINAMENTO E ORIENTACOES PEDAGÓGICA E EDUCACIONAL DE QUALQUER NATUREZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENCERRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSILVEIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSILVEIRA@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.009.002 - 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Consultoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:GOBBO &amp; GUIMARAES ADVOGADOS ASSOCIADOS (13.517.516/0001-50)NF:2121Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO ASSESSORIA OU CONSULTORIA QUALQUER NATUREZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0013-55 - COLEGIO MARISTA PIO XII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.001 - 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais de Limpeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ARGUS COM.DE PECAS INDNF:37395Data do pagamento:13/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
     <t xml:space="preserve">0069-00 - COLEGIO MARISTA SAO FRANCISCO</t>
   </si>
   <si>
@@ -352,6 +250,9 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CENAN ENSINO E PESQUISA LTDANF:46Data do pagamento:05/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
+    <t xml:space="preserve">SERVICO ASSESSORIA OU CONSULTORIA QUALQUER NATUREZA</t>
+  </si>
+  <si>
     <t xml:space="preserve">NATASHA.COSTA1</t>
   </si>
   <si>
@@ -368,42 +269,6 @@
   </si>
   <si>
     <t xml:space="preserve">PRODUCAO DE EVENTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAULO.CORDEIRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAULO.CORDEIRO@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.010.001 - 79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Telefonia Fixa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:UNIFY - SOLUCOES EM TECNOLOGIA DA INFORMACAO LTDA. (67.071.001/0003-60)NF:503104174Data do pagamento:25/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO DE TELEFONIA FIXA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0067-48 - ESCOLA CHAMPAGNAT PRESIDENTE PRUDENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.006 - 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Manutenção de Instalações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:FLAVIO RICARDO DA SILVA32033011801NF:24Data do pagamento:11/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICOS DE MANUTENCAO PREDIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diária</t>
   </si>
   <si>
     <t xml:space="preserve">RECUSADA</t>
@@ -440,27 +305,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:JULIANA RODRIGUES DE SOUZA - DOCES (11.622.998/0001-82)NF:2073Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0059-38 - COLEGIO MARISTA DE GOIANIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARIA.GABRIELA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXMARIA.GABRIELA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.012.007 - 126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medicina Ocupacional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:10.247.663/0001-69NF:148436Data do pagamento:28/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICOS FARMACEUTICOS</t>
   </si>
   <si>
     <t xml:space="preserve">0001-11 - ASSOCIACAO BRASILEIRA DE EDUCACAO E CULTURA - ABEC</t>
@@ -505,64 +349,61 @@
     <t xml:space="preserve">SERVICO VIGILANCIA, SEGURANCA E MONITORAMENTO DE BENS E PESSOAS</t>
   </si>
   <si>
-    <t xml:space="preserve">01.02.001.004 - 96</t>
+    <t xml:space="preserve">01.01.006.004 - 58</t>
   </si>
   <si>
-    <t xml:space="preserve">Equipamentos Médicos e Hospitalares</t>
+    <t xml:space="preserve">Órteses e Próteses</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: SOS SUL RESGATE COMÉRCIO E SERVIÇOS DE SEGURANÇA E SINALIZAÇÃO LTDA (03.928.511/0001-66)NF: 41037Data do pagamento:18/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ORTOART MATERIAIS CIRURGICOS LTDA (09.530.330/0001-63NF:21580Data do pagamento:29-04-2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">EQUIPAMENTOS EM GERAL - CAPEX - EXCLUSIVO BLACKOUT</t>
+    <t xml:space="preserve">LETICIA.SALAMUNES</t>
   </si>
   <si>
-    <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CLARO S/A 40432544000147 NF:22/03/23001115Data do pagamento:18/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">LETICIA.SALAMUNES@HOSPITALCAJURU.COM.BR</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: AXA SEGUROS S/A (CNPJ:  19.323.190/0001-06)NF: 349461Data do pagamento: 04/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:PROSURG PRODUTOS MEDICOS LTDA. (04.907.399/0001-40)NF:443482Data do pagamento:09/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">AMANDA.FRUEHLING</t>
+    <t xml:space="preserve">01.01.009.002 - 74</t>
   </si>
   <si>
-    <t xml:space="preserve">AMANDA.FRUEHLING@PUCPR.BR</t>
+    <t xml:space="preserve">Serviços de Consultoria</t>
   </si>
   <si>
-    <t xml:space="preserve">01.01.007.005 - 67</t>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ARAMIS HORNUNG MORAESNF:16Data do pagamento:30/03/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">Publicidade e Propaganda</t>
+    <t xml:space="preserve">SERVICO DE CONSULTORIA EM INSTALACAO DE SOFTWARE</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:GANGORRA DIGITAL PUBLICIDADES LTDA (33.587.538/0001-01NF:555Data do pagamento:14/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">0002-32 - HOSPITAL UNIVERSITARIO CAJURU</t>
   </si>
   <si>
-    <t xml:space="preserve">SERVICO PUBLICIDADE E PROPAGANDA</t>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:SUPRIMED COMERCIO DE MATERIAIS HOSPITALARES LTDA (11.157.931/0001-14 )NF:61936Data do pagamento:26/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">ANDRE.QUEIROZ</t>
+    <t xml:space="preserve">0064-03 - COLEGIO MARISTA ANJO DA GUARDA</t>
   </si>
   <si>
-    <t xml:space="preserve">ANDRE.QUEIROZ@GRUPOMARISTA.ORG.BR</t>
+    <t xml:space="preserve">CLEMENTE.MARIANA</t>
   </si>
   <si>
-    <t xml:space="preserve">ANNE.MAEZUKA</t>
+    <t xml:space="preserve">CLEMENTE.MARIANA@COLEGIOSMARISTAS.COM.BR</t>
   </si>
   <si>
-    <t xml:space="preserve">ANNE.MAEZUKA@GRUPOMARISTA.ORG.BR</t>
+    <t xml:space="preserve">01.01.002.005 - 22</t>
   </si>
   <si>
-    <t xml:space="preserve">CAROLINA.PIVA</t>
+    <t xml:space="preserve">Materiais de Manutenção de Instalações</t>
   </si>
   <si>
-    <t xml:space="preserve">CAROLINA.PIVA@GRUPOMARISTA.ORG.BR</t>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ELEVADORES ATLAS SCHINDLER LTDA (CNPJ: 00.028.986/0017-75)NF: 313477Data do pagamento: 01/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">PAMELA.MENEZES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAMELA.MENEZES@GRUPOMARISTA.ORG.BR</t>
+    <t xml:space="preserve">SERVICO DE MANUTENCAO </t>
   </si>
 </sst>
 </file>
@@ -750,7 +591,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>44747.4590277778</v>
+        <v>44764.3680555556</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -768,10 +609,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>350867</v>
+        <v>358287</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>853261</v>
+        <v>864920</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
@@ -780,174 +621,174 @@
       <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>417.19</v>
+        <v>400</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>51101</v>
+        <v>1031074</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>44756.3666666667</v>
+        <v>44764.3805555556</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>355569</v>
+        <v>358298</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>860499</v>
+        <v>864933</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="O3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>57865.34</v>
+        <v>341.64</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>41000</v>
+        <v>43110</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>44764.3680555556</v>
+        <v>44765.3958333333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>358287</v>
+        <v>358565</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>864920</v>
+        <v>865551</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>400</v>
+        <v>49080.35</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>1031074</v>
+        <v>101333</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>44764.3805555556</v>
+        <v>44765.40625</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -959,462 +800,465 @@
         <v>26</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>358298</v>
+        <v>358567</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>864933</v>
+        <v>865553</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>341.64</v>
+        <v>28598.33</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>43110</v>
+        <v>123055</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="V5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>44765.3958333333</v>
+        <v>44765.4583333333</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>358565</v>
+        <v>358576</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>865551</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>865595</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>28418989</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
       <c r="O6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>49080.35</v>
+        <v>166.86</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>101333</v>
+        <v>62105</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>44765.40625</v>
+        <v>44765.5638888889</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>358567</v>
+        <v>358599</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>865553</v>
+        <v>865629</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>28598.33</v>
+        <v>377</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>123055</v>
+        <v>105712</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>44765.4159722222</v>
+        <v>44767.6159722222</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>358569</v>
+        <v>359033</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>865554</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>28438787</v>
-      </c>
+        <v>866462</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>25414.49</v>
+        <v>905.06</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>105095</v>
+        <v>41000</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>44765.4583333333</v>
+        <v>44767.6263888889</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>358576</v>
+        <v>359051</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>865595</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>28418989</v>
-      </c>
+        <v>866542</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>166.86</v>
+        <v>2400</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>62105</v>
+        <v>1031214</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>44765.5638888889</v>
+        <v>44767.6409722222</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>358599</v>
+        <v>359074</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>865629</v>
+        <v>866598</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>377</v>
+        <v>36500</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>105712</v>
+        <v>1031074</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="V10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>44765.5819444444</v>
+        <v>44768.6347222222</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>358604</v>
+        <v>359438</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>865632</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>28422088</v>
-      </c>
+        <v>867390</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="O11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>318</v>
+        <v>5065</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>1031028</v>
+        <v>1031074</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>44767.4333333333</v>
+        <v>44768.6569444444</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>358795</v>
+        <v>359468</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>865898</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>28385435</v>
-      </c>
+        <v>867467</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>91</v>
@@ -1422,82 +1266,86 @@
       <c r="M12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="O12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>113.48</v>
+        <v>1500</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>101622</v>
+        <v>1030752</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="T12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="V12" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>44767.5854166667</v>
+        <v>44769.5743055556</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>358972</v>
+        <v>359624</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>866268</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>28498143</v>
-      </c>
+        <v>867794</v>
+      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="O13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>280</v>
+        <v>109457.16</v>
       </c>
       <c r="Q13" s="1" t="n">
         <v>41000</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>98</v>
@@ -1509,15 +1357,15 @@
         <v>100</v>
       </c>
       <c r="V13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>44767.6159722222</v>
+        <v>44769.6916666667</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -1526,285 +1374,292 @@
         <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>359033</v>
+        <v>359813</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>866462</v>
+        <v>868250</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>104</v>
       </c>
       <c r="O14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>905.06</v>
+        <v>6884.45</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>41000</v>
+        <v>101285</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>44767.6263888889</v>
+        <v>44774.3923611111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>359051</v>
+        <v>360811</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>866542</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>870716</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>28522792</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="O15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>2400</v>
+        <v>2020.5</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>1031214</v>
+        <v>123055</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>44767.6409722222</v>
+        <v>44774.5659722222</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>359074</v>
+        <v>360939</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>866598</v>
+        <v>871016</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>36500</v>
+        <v>1533</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>1031074</v>
+        <v>102036</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>114</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>44768.4027777778</v>
+        <v>44774.6055555556</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>359221</v>
+        <v>360981</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>867065</v>
+        <v>871083</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>28443664</v>
+        <v>28525720</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
       <c r="O17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>1847.1</v>
+        <v>8569</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>101584</v>
+        <v>1031230</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="W17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>44768.425</v>
+        <v>44775.6270833333</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>359257</v>
+        <v>361390</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>867101</v>
+        <v>872026</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>28419003</v>
+        <v>28526378</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1813,888 +1668,381 @@
         <v>1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>300</v>
+        <v>3551.45</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>41000</v>
+        <v>102036</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>44768.6347222222</v>
+        <v>44775.6423611111</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>359438</v>
+        <v>361421</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>867390</v>
+        <v>872102</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>5065</v>
+        <v>1419.04</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>1031074</v>
+        <v>43300</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>44768.6569444444</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>359468</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>867467</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1" t="n">
-        <v>1500</v>
-      </c>
-      <c r="Q20" s="1" t="n">
-        <v>1030752</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>44769.4631944444</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>359538</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>867595</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>28419038</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="O21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1" t="n">
-        <v>1477.59</v>
-      </c>
-      <c r="Q21" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <v>44769.5743055556</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>359624</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>867794</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="O22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1" t="n">
-        <v>109457.16</v>
-      </c>
-      <c r="Q22" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
-        <v>44769.6916666667</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>359813</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>868250</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1" t="n">
-        <v>6884.45</v>
-      </c>
-      <c r="Q23" s="1" t="n">
-        <v>101285</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
-        <v>44770.3986111111</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>359956</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>868532</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>28440098</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="O24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1" t="n">
-        <v>24762.6</v>
-      </c>
-      <c r="Q24" s="1" t="n">
-        <v>105703</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
-        <v>44770.49375</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>360097</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>868949</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>28441400</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="O25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" s="1" t="n">
-        <v>591.99</v>
-      </c>
-      <c r="Q25" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
-        <v>44771.4659722222</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>360512</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>870075</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>28444978</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="O26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="Q26" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
-        <v>44771.6826388889</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>360679</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>870533</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1" t="n">
-        <v>3896.67</v>
-      </c>
-      <c r="Q27" s="1" t="n">
-        <v>101249</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
-        <v>44771.6826388889</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>360679</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>870533</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="1" t="n">
-        <v>3896.67</v>
-      </c>
-      <c r="Q28" s="1" t="n">
-        <v>101249</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
-        <v>44771.6826388889</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>360679</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>870533</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="1" t="n">
-        <v>3896.67</v>
-      </c>
-      <c r="Q29" s="1" t="n">
-        <v>101249</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
-        <v>44771.6826388889</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>360679</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>870533</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" s="1" t="n">
-        <v>3896.67</v>
-      </c>
-      <c r="Q30" s="1" t="n">
-        <v>101249</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
-        <v>44771.6826388889</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>360679</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>870533</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1" t="n">
-        <v>3896.67</v>
-      </c>
-      <c r="Q31" s="1" t="n">
-        <v>101249</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -127,30 +127,6 @@
     <t xml:space="preserve">Unidade</t>
   </si>
   <si>
-    <t xml:space="preserve">ASSOCIAÇÃO BRASILEIRA DE EDUCAÇÃO E CULTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0074-77 - COLEGIO MARISTA SAO LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATENDIMENTO DIVERGENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erro ao processar atendimento: Problema ao atender solicitação de regularização. Ordem de compra. Erro: Problemas na liberação da Ordem de Compra. Erro: Divergências encontradas durante a liberação da ordem de compra. Fase: 01Falta informar o critério de rateio ou a conta financeira no item: MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.006.013 - 138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais Auxiliares Hospitalares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FARMACIA ULTRAFARMA EIRELI (02.391.030/0001-00)NF: 4538Data do pagamento: 05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
     <t xml:space="preserve">0001-51 - ASSOCIACAO PARANAENSE DE CULTURA - APC</t>
   </si>
   <si>
@@ -175,55 +151,28 @@
     <t xml:space="preserve">0023-67 - HOSPITAL MARCELINO CHAMPAGNAT</t>
   </si>
   <si>
+    <t xml:space="preserve">01.01.006.013 - 138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiais Auxiliares Hospitalares</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: H STRATTNER E CIA LTDA (33.250.713/0002-43)NF: 169659Data do pagamento: 30/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">0026-70 - CENTRO EDUCACIONAL MARISTA SANTA MONICA</t>
+    <t xml:space="preserve">MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
   </si>
   <si>
-    <t xml:space="preserve">EM ATENDIMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULIANA.PAULA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXJULIANA.PAULA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.013.007 - 142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auxílios Diversos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:FINFLEX INSTITUICAO DE PAGAMENTO LTDA (40.893.858/0001-47)NF:34271Data do pagamento:20/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO DE VALE TRANSPORTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLA.GONÇALVES1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXCARLA.GONÇALVES1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATIA.FILIPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATIA.FILIPE@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.001.009 - 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais Gráficos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:BRACELLOS &amp; RAUTENBERG GRAFICA LTDA - ME (07.424.839/0001-04)NF:5790Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">ASSOCIAÇÃO BRASILEIRA DE EDUCAÇÃO E CULTURA</t>
   </si>
   <si>
     <t xml:space="preserve">0069-00 - COLEGIO MARISTA SAO FRANCISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLA.GONCALVES1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXCARLA.GONCALVES1@TER.GRUPOMARISTA.ORG.BRXXX</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.008.002 - 70</t>
@@ -349,49 +298,46 @@
     <t xml:space="preserve">SERVICO VIGILANCIA, SEGURANCA E MONITORAMENTO DE BENS E PESSOAS</t>
   </si>
   <si>
+    <t xml:space="preserve">LETICIA.SALAMUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LETICIA.SALAMUNES@HOSPITALCAJURU.COM.BR</t>
+  </si>
+  <si>
     <t xml:space="preserve">01.01.006.004 - 58</t>
   </si>
   <si>
     <t xml:space="preserve">Órteses e Próteses</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ORTOART MATERIAIS CIRURGICOS LTDA (09.530.330/0001-63NF:21580Data do pagamento:29-04-2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETICIA.SALAMUNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LETICIA.SALAMUNES@HOSPITALCAJURU.COM.BR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:PROSURG PRODUTOS MEDICOS LTDA. (04.907.399/0001-40)NF:443482Data do pagamento:09/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">01.01.009.002 - 74</t>
+    <t xml:space="preserve">EM ATENDIMENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">Serviços de Consultoria</t>
+    <t xml:space="preserve">PATRICIA.SANTOS1</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ARAMIS HORNUNG MORAESNF:16Data do pagamento:30/03/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">XXXPATRICIA.SANTOS1@TER.GRUPOMARISTA.ORG.BRXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">SERVICO DE CONSULTORIA EM INSTALACAO DE SOFTWARE</t>
+    <t xml:space="preserve">01.01.004.002 - 42</t>
   </si>
   <si>
-    <t xml:space="preserve">0002-32 - HOSPITAL UNIVERSITARIO CAJURU</t>
+    <t xml:space="preserve">Serviços de TI</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:SUPRIMED COMERCIO DE MATERIAIS HOSPITALARES LTDA (11.157.931/0001-14 )NF:61936Data do pagamento:26/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: CATALIZE TECNOLOGIA LTDANF: 22Data do pagamento: 4/1/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPORTE TECNICO EM INFORMATICA, INSTALACAO, CONFIGURACAO E MANUTENCAO DE PROGRAMAS</t>
   </si>
   <si>
     <t xml:space="preserve">0064-03 - COLEGIO MARISTA ANJO DA GUARDA</t>
   </si>
   <si>
-    <t xml:space="preserve">CLEMENTE.MARIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEMENTE.MARIANA@COLEGIOSMARISTAS.COM.BR</t>
+    <t xml:space="preserve">ENCERRADA</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.002.005 - 22</t>
@@ -404,6 +350,45 @@
   </si>
   <si>
     <t xml:space="preserve">SERVICO DE MANUTENCAO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEILUANA.FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXNEILUANA.FRANCO@GRUPOMARISTA.ORG.XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.009.002 - 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serviços de Consultoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ARAMIS HORNUNG MORAESNF:16Data do pagamento:30/03/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0074-77 - COLEGIO MARISTA SAO LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADRIANI.KUYAVSKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXADRIANI.KUYAVSKI@GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDGOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDGOMES@COLEGIOSMARISTAS.COM.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.006.003 - 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drogas e Medicamentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FARMACIA ULTRAFARMA EIRELI (02.391.030/0001-00)NF: 4538Data do pagamento: 05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
 </sst>
 </file>
@@ -652,28 +637,28 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>44764.3805555556</v>
+        <v>44765.3958333333</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>358298</v>
+        <v>358565</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>864933</v>
+        <v>865551</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>27</v>
@@ -681,34 +666,36 @@
       <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>341.64</v>
+        <v>49080.35</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>43110</v>
+        <v>101333</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>34</v>
@@ -716,13 +703,13 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>44765.3958333333</v>
+        <v>44765.40625</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -734,10 +721,10 @@
         <v>26</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>358565</v>
+        <v>358567</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>865551</v>
+        <v>865553</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
@@ -745,36 +732,32 @@
       <c r="K4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>49080.35</v>
+        <v>28598.33</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>101333</v>
+        <v>123055</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>34</v>
@@ -782,13 +765,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>44765.40625</v>
+        <v>44767.6159722222</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -800,42 +783,42 @@
         <v>26</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>358567</v>
+        <v>359033</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>865553</v>
+        <v>866462</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>28598.33</v>
+        <v>905.06</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>123055</v>
+        <v>41000</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>34</v>
@@ -843,48 +826,50 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>44765.4583333333</v>
+        <v>44767.6263888889</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>358576</v>
+        <v>359051</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>865595</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>28418989</v>
-      </c>
+        <v>866542</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
       <c r="O6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>166.86</v>
+        <v>2400</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>62105</v>
+        <v>1031214</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>29</v>
@@ -907,7 +892,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>44765.5638888889</v>
+        <v>44767.6409722222</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -925,10 +910,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>358599</v>
+        <v>359074</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>865629</v>
+        <v>866598</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>60</v>
@@ -936,36 +921,32 @@
       <c r="K7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>377</v>
+        <v>36500</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>105712</v>
+        <v>1031074</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>34</v>
@@ -973,16 +954,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>44767.6159722222</v>
+        <v>44768.6347222222</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -991,41 +972,50 @@
         <v>26</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>359033</v>
+        <v>359438</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>866462</v>
+        <v>867390</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>905.06</v>
+        <v>5065</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>41000</v>
+        <v>1031074</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>34</v>
@@ -1033,16 +1023,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>44767.6263888889</v>
+        <v>44768.6569444444</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -1051,47 +1041,50 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>359051</v>
+        <v>359468</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>866542</v>
+        <v>867467</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>76</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>1031214</v>
+        <v>1030752</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>34</v>
@@ -1099,13 +1092,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>44767.6409722222</v>
+        <v>44769.5743055556</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>25</v>
@@ -1117,43 +1110,47 @@
         <v>26</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>359074</v>
+        <v>359624</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>866598</v>
+        <v>867794</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>36500</v>
+        <v>109457.16</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>1031074</v>
+        <v>41000</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>34</v>
@@ -1161,16 +1158,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>44768.6347222222</v>
+        <v>44769.6916666667</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -1179,50 +1176,50 @@
         <v>26</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>359438</v>
+        <v>359813</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>867390</v>
+        <v>868250</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="M11" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="O11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>5065</v>
+        <v>6884.45</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>1031074</v>
+        <v>101285</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>34</v>
@@ -1230,16 +1227,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>44768.6569444444</v>
+        <v>44774.5659722222</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
@@ -1248,50 +1245,48 @@
         <v>26</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>359468</v>
+        <v>360939</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>867467</v>
+        <v>871016</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="N12" s="1"/>
       <c r="O12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>1500</v>
+        <v>1533</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>1030752</v>
+        <v>102036</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>34</v>
@@ -1299,65 +1294,63 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>44769.5743055556</v>
+        <v>44775.5875</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>359624</v>
+        <v>361343</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>867794</v>
-      </c>
-      <c r="I13" s="1"/>
+        <v>871896</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>28546951</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
       <c r="O13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>109457.16</v>
+        <v>2144.53</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>41000</v>
+        <v>101198</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>34</v>
@@ -1365,68 +1358,64 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>44769.6916666667</v>
+        <v>44775.6423611111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>359813</v>
+        <v>361421</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>868250</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>872102</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>28544375</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>104</v>
-      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>6884.45</v>
+        <v>1419.04</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>101285</v>
+        <v>43300</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>34</v>
@@ -1434,37 +1423,37 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>44774.3923611111</v>
+        <v>44776.4375</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>360811</v>
+        <v>361633</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>870716</v>
+        <v>872568</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>28522792</v>
+        <v>28547947</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1472,25 +1461,25 @@
         <v>1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>2020.5</v>
+        <v>8569</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>123055</v>
+        <v>1031230</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>34</v>
@@ -1498,13 +1487,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>44774.5659722222</v>
+        <v>44777.3395833333</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
@@ -1516,247 +1505,125 @@
         <v>26</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>360939</v>
+        <v>361856</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>871016</v>
+        <v>873046</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>1533</v>
+        <v>341.64</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>102036</v>
+        <v>41000</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>44774.6055555556</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>360981</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>871083</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>28525720</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="O17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1" t="n">
-        <v>8569</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>1031230</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>44775.6270833333</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>361390</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>872026</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>28526378</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>3551.45</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>102036</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>44775.6423611111</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>361421</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>872102</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>1419.04</v>
-      </c>
-      <c r="Q19" s="1" t="n">
-        <v>43300</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="121">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -202,24 +202,6 @@
     <t xml:space="preserve">SERVICO ASSESSORIA OU CONSULTORIA QUALQUER NATUREZA</t>
   </si>
   <si>
-    <t xml:space="preserve">NATASHA.COSTA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXNATASHA.COSTA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.003.010 - 129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eventos Pedagógicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: VERTX SOLUCOES EM EVENTOS EMPRESARIAIS E ENTRETENIMENTO LTDA (CNPJ: 36.113.870/0001-14)NF: 15Data do pagamento: 01/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUCAO DE EVENTOS</t>
-  </si>
-  <si>
     <t xml:space="preserve">RECUSADA</t>
   </si>
   <si>
@@ -257,6 +239,12 @@
   </si>
   <si>
     <t xml:space="preserve">0001-11 - ASSOCIACAO BRASILEIRA DE EDUCACAO E CULTURA - ABEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATASHA.COSTA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXNATASHA.COSTA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
   </si>
   <si>
     <t xml:space="preserve">CPASCHOALIN</t>
@@ -298,6 +286,18 @@
     <t xml:space="preserve">SERVICO VIGILANCIA, SEGURANCA E MONITORAMENTO DE BENS E PESSOAS</t>
   </si>
   <si>
+    <t xml:space="preserve">CRISTINA.AGUIAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRISTINA.AGUIAR@PUCPR.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:VERTX SOLUCOES EM EVENTOS EMPRESARIAIS E ENTRETENIMENTO LTDANF:15Data do pagamento:24/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCAO DE EVENTOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">LETICIA.SALAMUNES</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:PROSURG PRODUTOS MEDICOS LTDA. (04.907.399/0001-40)NF:443482Data do pagamento:09/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">EM ATENDIMENTO</t>
+    <t xml:space="preserve">ENCERRADA</t>
   </si>
   <si>
     <t xml:space="preserve">PATRICIA.SANTOS1</t>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t xml:space="preserve">0064-03 - COLEGIO MARISTA ANJO DA GUARDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENCERRADA</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.002.005 - 22</t>
@@ -370,16 +367,13 @@
     <t xml:space="preserve">0074-77 - COLEGIO MARISTA SAO LUIS</t>
   </si>
   <si>
+    <t xml:space="preserve">EM ATENDIMENTO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADRIANI.KUYAVSKI</t>
   </si>
   <si>
     <t xml:space="preserve">XXXADRIANI.KUYAVSKI@GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDGOMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDGOMES@COLEGIOSMARISTAS.COM.BR</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.006.003 - 57</t>
@@ -892,7 +886,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>44767.6409722222</v>
+        <v>44768.6347222222</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>23</v>
@@ -901,7 +895,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -910,25 +904,31 @@
         <v>26</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>359074</v>
+        <v>359438</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>866598</v>
+        <v>867390</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="O7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>36500</v>
+        <v>5065</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>1031074</v>
@@ -937,16 +937,16 @@
         <v>29</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>34</v>
@@ -954,16 +954,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>44768.6347222222</v>
+        <v>44768.6569444444</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -972,10 +972,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>359438</v>
+        <v>359468</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>867390</v>
+        <v>867467</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
@@ -985,37 +985,37 @@
         <v>50</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>5065</v>
+        <v>1500</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>1031074</v>
+        <v>1030752</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="T8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="V8" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>34</v>
@@ -1023,16 +1023,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>44768.6569444444</v>
+        <v>44769.5743055556</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -1041,47 +1041,44 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>359468</v>
+        <v>359624</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>867467</v>
+        <v>867794</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="0" t="s">
         <v>76</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>1500</v>
+        <v>109457.16</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>1030752</v>
+        <v>41000</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>46</v>
@@ -1092,16 +1089,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>44769.5743055556</v>
+        <v>44769.6916666667</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
@@ -1110,47 +1107,49 @@
         <v>26</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>359624</v>
+        <v>359813</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>867794</v>
+        <v>868250</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="O10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>109457.16</v>
+        <v>6884.45</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>41000</v>
+        <v>101285</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>34</v>
@@ -1158,16 +1157,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>44769.6916666667</v>
+        <v>44771.4347222222</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -1176,10 +1175,10 @@
         <v>26</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>359813</v>
+        <v>360482</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>868250</v>
+        <v>870012</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
@@ -1189,31 +1188,29 @@
         <v>50</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>6884.45</v>
+        <v>36500</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>101285</v>
+        <v>1031074</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>90</v>
@@ -1367,10 +1364,10 @@
         <v>104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>26</v>
@@ -1385,10 +1382,10 @@
         <v>28544375</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1406,16 +1403,16 @@
         <v>29</v>
       </c>
       <c r="S14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>34</v>
@@ -1432,10 +1429,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
@@ -1450,10 +1447,10 @@
         <v>28547947</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1470,13 +1467,13 @@
         <v>29</v>
       </c>
       <c r="S15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>59</v>
@@ -1493,13 +1490,13 @@
         <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>26</v>
@@ -1510,19 +1507,17 @@
       <c r="H16" s="1" t="n">
         <v>873046</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="n">
+        <v>28563492</v>
+      </c>
       <c r="J16" s="1" t="s">
         <v>116</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="n">
         <v>1</v>
@@ -1537,13 +1532,13 @@
         <v>29</v>
       </c>
       <c r="S16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>46</v>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -202,42 +202,6 @@
     <t xml:space="preserve">SERVICO ASSESSORIA OU CONSULTORIA QUALQUER NATUREZA</t>
   </si>
   <si>
-    <t xml:space="preserve">RECUSADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAIS.COSTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAIS.COSTA@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olá, Desconheço essa NF, esse fornecedor. Já foi enviado para eu aprovar antes e não contratamos esse fornecedor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.001.003 - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais para Lanches e Refeições</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:NASSUR COMERCIO DE ALIMENTOS LTDA MENF:5Data do pagamento:05/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO BUFFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDELMI.MARCELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDELMI.MARCELO@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desconhecemos esta contratação para este CR. Poderiam, pls, informar o nome do usuário que incluiu a despesa originalmente, para que possamos rastrear?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:JULIANA RODRIGUES DE SOUZA - DOCES (11.622.998/0001-82)NF:2073Data do pagamento:02/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
     <t xml:space="preserve">0001-11 - ASSOCIACAO BRASILEIRA DE EDUCACAO E CULTURA - ABEC</t>
   </si>
   <si>
@@ -260,30 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: AXA SEGUROS S/A (CNPJ: 19.323.190/0001-06)NF: BOLETO NF 343739Data do pagamento: 04/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0006-66 - COLEGIO IR MARIO CRISTOVAO TECPUC ENSINO MEDIO E PROFIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO.ADAMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FABIO.ADAMO@GRUPOMARISTA.ORG.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lançamento no  CR correto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.013 - 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Segurança Patrimonial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:GOCIL SERVICOS DE VIGILANCIA E SEGURANCA LTDA (50.844.182/0009-02)NF:13062Data do pagamento:04/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO VIGILANCIA, SEGURANCA E MONITORAMENTO DE BENS E PESSOAS</t>
   </si>
   <si>
     <t xml:space="preserve">CRISTINA.AGUIAR</t>
@@ -313,61 +253,7 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:PROSURG PRODUTOS MEDICOS LTDA. (04.907.399/0001-40)NF:443482Data do pagamento:09/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">ENCERRADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATRICIA.SANTOS1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXPATRICIA.SANTOS1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.004.002 - 42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de TI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: CATALIZE TECNOLOGIA LTDANF: 22Data do pagamento: 4/1/2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPORTE TECNICO EM INFORMATICA, INSTALACAO, CONFIGURACAO E MANUTENCAO DE PROGRAMAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0064-03 - COLEGIO MARISTA ANJO DA GUARDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.002.005 - 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais de Manutenção de Instalações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: ELEVADORES ATLAS SCHINDLER LTDA (CNPJ: 00.028.986/0017-75)NF: 313477Data do pagamento: 01/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO DE MANUTENCAO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEILUANA.FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXNEILUANA.FRANCO@GRUPOMARISTA.ORG.XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.009.002 - 74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serviços de Consultoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:ARAMIS HORNUNG MORAESNF:16Data do pagamento:30/03/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0074-77 - COLEGIO MARISTA SAO LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM ATENDIMENTO</t>
+    <t xml:space="preserve">RECUSADA</t>
   </si>
   <si>
     <t xml:space="preserve">ADRIANI.KUYAVSKI</t>
@@ -376,13 +262,22 @@
     <t xml:space="preserve">XXXADRIANI.KUYAVSKI@GRUPOMARISTA.ORG.BRXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">01.01.006.003 - 57</t>
+    <t xml:space="preserve">KELLY.BETTIO</t>
   </si>
   <si>
-    <t xml:space="preserve">Drogas e Medicamentos</t>
+    <t xml:space="preserve">KELLY.BETTIO@PUCPR.BR</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FARMACIA ULTRAFARMA EIRELI (02.391.030/0001-00)NF: 4538Data do pagamento: 05/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">contactar Welington Marafigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.001.003 - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiais para Lanches e Refeições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: NASSUR COMERCIO DE ALIMENTOS LTDANF: 5Data do pagamento: 05/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
 </sst>
 </file>
@@ -886,16 +781,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>44768.6347222222</v>
+        <v>44769.5743055556</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
@@ -904,49 +799,47 @@
         <v>26</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>359438</v>
+        <v>359624</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>867390</v>
+        <v>867794</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>5065</v>
+        <v>109457.16</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>1031074</v>
+        <v>41000</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>34</v>
@@ -954,16 +847,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>44768.6569444444</v>
+        <v>44771.4347222222</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -972,10 +865,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>359468</v>
+        <v>360482</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>867467</v>
+        <v>870012</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
@@ -990,32 +883,29 @@
       <c r="M8" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="O8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>1500</v>
+        <v>36500</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>1030752</v>
+        <v>1031074</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>34</v>
@@ -1023,13 +913,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>44769.5743055556</v>
+        <v>44774.5659722222</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -1041,44 +931,44 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>359624</v>
+        <v>360939</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>867794</v>
+        <v>871016</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>109457.16</v>
+        <v>1533</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>41000</v>
+        <v>102036</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>46</v>
@@ -1089,16 +979,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>44769.6916666667</v>
+        <v>44779.3347222222</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
@@ -1107,445 +997,201 @@
         <v>26</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>359813</v>
+        <v>362554</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>868250</v>
+        <v>874583</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="O10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>6884.45</v>
+        <v>5065</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>101285</v>
+        <v>103250</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="V10" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>44771.4347222222</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>360482</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>870012</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>36500</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <v>1031074</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>44774.5659722222</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>360939</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>871016</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>1533</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>102036</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>44775.5875</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>361343</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>871896</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>28546951</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="O13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="n">
-        <v>2144.53</v>
-      </c>
-      <c r="Q13" s="1" t="n">
-        <v>101198</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>44775.6423611111</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>361421</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>872102</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>28544375</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="n">
-        <v>1419.04</v>
-      </c>
-      <c r="Q14" s="1" t="n">
-        <v>43300</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>44776.4375</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>361633</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>872568</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>28547947</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="O15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="n">
-        <v>8569</v>
-      </c>
-      <c r="Q15" s="1" t="n">
-        <v>1031230</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>44777.3395833333</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>361856</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>873046</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>28563492</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="n">
-        <v>341.64</v>
-      </c>
-      <c r="Q16" s="1" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -253,22 +253,13 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:PROSURG PRODUTOS MEDICOS LTDA. (04.907.399/0001-40)NF:443482Data do pagamento:09/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">RECUSADA</t>
+    <t xml:space="preserve">EM ATENDIMENTO</t>
   </si>
   <si>
     <t xml:space="preserve">ADRIANI.KUYAVSKI</t>
   </si>
   <si>
     <t xml:space="preserve">XXXADRIANI.KUYAVSKI@GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KELLY.BETTIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KELLY.BETTIO@PUCPR.BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contactar Welington Marafigo</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.001.003 - 8</t>
@@ -979,7 +970,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>44779.3347222222</v>
+        <v>44782.65625</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -991,16 +982,19 @@
         <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>362554</v>
+        <v>363374</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>874583</v>
+        <v>876406</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>28688317</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>78</v>
@@ -1008,15 +1002,9 @@
       <c r="K10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1" t="n">
         <v>1</v>
       </c>
@@ -1024,19 +1012,19 @@
         <v>5065</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>103250</v>
+        <v>1031723</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>46</v>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">ASSOCIAÇÃO PARANAENSE DE CULTURA - APC</t>
   </si>
   <si>
-    <t xml:space="preserve">0003-13 - PUC PR CAMPUS CURITIBA</t>
+    <t xml:space="preserve">0001-51 - ASSOCIACAO PARANAENSE DE CULTURA - APC</t>
   </si>
   <si>
     <t xml:space="preserve">CADASTRADA</t>
@@ -109,31 +109,13 @@
     <t xml:space="preserve">XXXEDUARDA.DEICHMANN@TER.GRUPOMARISTA.ORG.BRXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">OPEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.012.003 - 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eventos Internos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FLAVIO CANTADOR COIMBRA 04806289981 (18.183.828/0001-98)NF: 55Data do pagamento: 15/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERVICO CONTRATACAO MUSICOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-51 - ASSOCIACAO PARANAENSE DE CULTURA - APC</t>
-  </si>
-  <si>
     <t xml:space="preserve">MICHELE.TOARDIK</t>
   </si>
   <si>
     <t xml:space="preserve">MICHELE.TOARDIK@GRUPOMARISTA.ORG.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEX</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.009.004 - 76</t>
@@ -148,40 +130,16 @@
     <t xml:space="preserve">HONORARIOS ADVOCATICIOS</t>
   </si>
   <si>
-    <t xml:space="preserve">0023-67 - HOSPITAL MARCELINO CHAMPAGNAT</t>
+    <t xml:space="preserve">Unidade</t>
   </si>
   <si>
-    <t xml:space="preserve">01.01.006.013 - 138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materiais Auxiliares Hospitalares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: H STRATTNER E CIA LTDA (33.250.713/0002-43)NF: 169659Data do pagamento: 30/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSOCIAÇÃO BRASILEIRA DE EDUCAÇÃO E CULTURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0069-00 - COLEGIO MARISTA SAO FRANCISCO</t>
+    <t xml:space="preserve">0003-13 - PUC PR CAMPUS CURITIBA</t>
   </si>
   <si>
     <t xml:space="preserve">CARLA.GONCALVES1</t>
   </si>
   <si>
     <t xml:space="preserve">XXXCARLA.GONCALVES1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.008.002 - 70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água e Esgoto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:CASAN - COMPANHIA CATARINENSE DE ÁGUAS E SANEAMENTONF:18137040Data do pagamento:01/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
     <t xml:space="preserve">ANDRESSA.LORANDI</t>
@@ -200,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">SERVICO ASSESSORIA OU CONSULTORIA QUALQUER NATUREZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSOCIAÇÃO BRASILEIRA DE EDUCAÇÃO E CULTURA</t>
   </si>
   <si>
     <t xml:space="preserve">0001-11 - ASSOCIACAO BRASILEIRA DE EDUCACAO E CULTURA - ABEC</t>
@@ -226,16 +187,28 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: AXA SEGUROS S/A (CNPJ: 19.323.190/0001-06)NF: BOLETO NF 343739Data do pagamento: 04/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
+    <t xml:space="preserve">MATERIAIS OPEX – EXCLUSIVO BLACKOUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRISTINA.AGUIAR</t>
   </si>
   <si>
     <t xml:space="preserve">CRISTINA.AGUIAR@PUCPR.BR</t>
   </si>
   <si>
+    <t xml:space="preserve">01.01.012.003 - 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos Internos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:VERTX SOLUCOES EM EVENTOS EMPRESARIAIS E ENTRETENIMENTO LTDANF:15Data do pagamento:24/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCAO DE EVENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0023-67 - HOSPITAL MARCELINO CHAMPAGNAT</t>
   </si>
   <si>
     <t xml:space="preserve">LETICIA.SALAMUNES</t>
@@ -253,22 +226,64 @@
     <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor:PROSURG PRODUTOS MEDICOS LTDA. (04.907.399/0001-40)NF:443482Data do pagamento:09/05/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
   </si>
   <si>
-    <t xml:space="preserve">EM ATENDIMENTO</t>
+    <t xml:space="preserve">UNIÃO CATARINENSE DE EDUCAÇÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">ADRIANI.KUYAVSKI</t>
+    <t xml:space="preserve">0001-09 - UNIAO CATARINENSE DE EDUCACAO</t>
   </si>
   <si>
-    <t xml:space="preserve">XXXADRIANI.KUYAVSKI@GRUPOMARISTA.ORG.BRXXX</t>
+    <t xml:space="preserve">EMERSON.TIAGO</t>
   </si>
   <si>
-    <t xml:space="preserve">01.01.001.003 - 8</t>
+    <t xml:space="preserve">EMERSON.TIAGO@GRUPOMARISTA.ORG.BR</t>
   </si>
   <si>
-    <t xml:space="preserve">Materiais para Lanches e Refeições</t>
+    <t xml:space="preserve">01.01.008.002 - 70</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: NASSUR COMERCIO DE ALIMENTOS LTDANF: 5Data do pagamento: 05/04/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+    <t xml:space="preserve">Água e Esgoto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: CASAN (CNPJ: 82.508.433/0001-17)NF: 18137040Data do pagamento:10/03/2022Obs.: O Grupo SOS Telecom é a empresa que está dando suporte para o Grupo Marista na reconstrução da base de dados Benner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRICIA.SANTOS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXPATRICIA.SANTOS1@TER.GRUPOMARISTA.ORG.BRXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAIS.COSTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAIS.COSTA@PUCPR.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.003.010 - 129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eventos Pedagógicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: FLAVIO CANTADOR COIMBRA 04806289981NF: 55Data do pagamento: 15/04/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERVICO ORIENTACAO PEDAGOGICA E EDUCACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER.SOARES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER.SOARES@SANTACASACURITIBA.COM.BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.006.013 - 138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiais Auxiliares Hospitalares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordem de compra de regularização gerada pela DSC para registrar os processos de compra e pagamentos efetivados após o incidente cibernético de Março de 2022.Os dados utilizados para geração dessa ordem de compra foram coletados dos e-mails que foram enviados com o pedido de pagamento e/ou da Aptus para os casos em que os pedidos foram feitos pelo formulário da plataforma. Informamos ainda que esse registro (ordem de compra) não irá gerar novo compromisso de pagamento ao fornecedor, apenas será utilizado para o lançamento da nota fiscal e conciliação com pagamento já efetivado. Em caso de dúvidas pedimos a gentileza de entrar em contato pelo e-mail duvidasaprovação@gruposostelecom.com.brFornecedor: H STRATTNER E CIA LTDANF: 169659Data do pagamento:30/04/2022</t>
   </si>
 </sst>
 </file>
@@ -456,7 +471,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>44764.3680555556</v>
+        <v>44765.3958333333</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -474,10 +489,10 @@
         <v>26</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>358287</v>
+        <v>358565</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>864920</v>
+        <v>865551</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
@@ -486,44 +501,50 @@
       <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="L2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>400</v>
+        <v>49080.35</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1031074</v>
+        <v>101333</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>44765.3958333333</v>
+        <v>44767.6263888889</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -535,61 +556,61 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>358565</v>
+        <v>359051</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>865551</v>
+        <v>866542</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>49080.35</v>
+        <v>2400</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>101333</v>
+        <v>1031214</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>44765.40625</v>
+        <v>44769.5743055556</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>25</v>
@@ -601,57 +622,61 @@
         <v>26</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>358567</v>
+        <v>359624</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>865553</v>
+        <v>867794</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>28598.33</v>
+        <v>109457.16</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>123055</v>
+        <v>41000</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>44767.6159722222</v>
+        <v>44771.4347222222</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -663,56 +688,62 @@
         <v>26</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>359033</v>
+        <v>360482</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>866462</v>
+        <v>870012</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>905.06</v>
+        <v>36500</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>41000</v>
+        <v>1031074</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>44767.6263888889</v>
+        <v>44774.5659722222</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>25</v>
@@ -724,61 +755,61 @@
         <v>26</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>359051</v>
+        <v>360939</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>866542</v>
+        <v>871016</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>2400</v>
+        <v>1533</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>1031214</v>
+        <v>102036</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>44769.5743055556</v>
+        <v>44784.6951388889</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
@@ -790,61 +821,61 @@
         <v>26</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>359624</v>
+        <v>364302</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>867794</v>
+        <v>878204</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>109457.16</v>
+        <v>621.28</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>41000</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>44771.4347222222</v>
+        <v>44784.6972222222</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -856,61 +887,61 @@
         <v>26</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>360482</v>
+        <v>364303</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>870012</v>
+        <v>878216</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>36500</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="1" t="n">
         <v>1031074</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>44774.5659722222</v>
+        <v>44784.7236111111</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -922,116 +953,75 @@
         <v>26</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>360939</v>
+        <v>364328</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>871016</v>
+        <v>878277</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>1533</v>
+        <v>28598.33</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>102036</v>
+        <v>123055</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>44782.65625</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>363374</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>876406</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>28688317</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>5065</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>1031723</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>

--- a/2- base/solicitacoes_dentro_do_benner.xlsx
+++ b/2- base/solicitacoes_dentro_do_benner.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
   <si>
     <t xml:space="preserve">DATA_INCLUSAO_SOL_PAI</t>
   </si>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">0001-51 - ASSOCIACAO PARANAENSE DE CULTURA - APC</t>
   </si>
   <si>
-    <t xml:space="preserve">CADASTRADA</t>
+    <t xml:space="preserve">EM ATENDIMENTO</t>
   </si>
   <si>
     <t xml:space="preserve">REGULARIZAÇÃO</t>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">XXXEDUARDA.DEICHMANN@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHELE.TOARDIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICHELE.TOARDIK@GRUPOMARISTA.ORG.BR</t>
   </si>
   <si>
     <t xml:space="preserve">OPEX</t>
@@ -134,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">0003-13 - PUC PR CAMPUS CURITIBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADASTRADA</t>
   </si>
   <si>
     <t xml:space="preserve">CARLA.GONCALVES1</t>
@@ -169,7 +166,7 @@
     <t xml:space="preserve">NATASHA.COSTA1</t>
   </si>
   <si>
-    <t xml:space="preserve">XXXNATASHA.COSTA1@TER.GRUPOMARISTA.ORG.BRXXX</t>
+    <t xml:space="preserve">NATASHA.COSTA1@TER.GRUPOMARISTA.ORG.BR</t>
   </si>
   <si>
     <t xml:space="preserve">CPASCHOALIN</t>
@@ -250,13 +247,7 @@
     <t xml:space="preserve">PATRICIA.SANTOS1</t>
   </si>
   <si>
-    <t xml:space="preserve">XXXPATRICIA.SANTOS1@TER.GRUPOMARISTA.ORG.BRXXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAIS.COSTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THAIS.COSTA@PUCPR.BR</t>
+    <t xml:space="preserve">PATRICIA.SANTOS1@TER.GRUPOMARISTA.ORG.BR</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.003.010 - 129</t>
@@ -269,12 +260,6 @@
   </si>
   <si>
     <t xml:space="preserve">SERVICO ORIENTACAO PEDAGOGICA E EDUCACIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER.SOARES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER.SOARES@SANTACASACURITIBA.COM.BR</t>
   </si>
   <si>
     <t xml:space="preserve">01.01.006.013 - 138</t>
@@ -494,18 +479,14 @@
       <c r="H2" s="1" t="n">
         <v>865551</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="n">
+        <v>28790281</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="n">
@@ -518,22 +499,22 @@
         <v>101333</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,13 +525,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>26</v>
@@ -562,16 +543,16 @@
         <v>866542</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="n">
@@ -584,22 +565,22 @@
         <v>1031214</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,16 +588,16 @@
         <v>44769.5743055556</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>26</v>
@@ -628,16 +609,16 @@
         <v>867794</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="n">
@@ -650,22 +631,22 @@
         <v>41000</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="W4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,13 +657,13 @@
         <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
@@ -695,16 +676,16 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="n">
@@ -717,22 +698,22 @@
         <v>1031074</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="W5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>26</v>
@@ -762,16 +743,16 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="O6" s="1" t="n">
         <v>1</v>
@@ -783,22 +764,22 @@
         <v>102036</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="V6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,16 +787,16 @@
         <v>44784.6951388889</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
@@ -827,16 +808,16 @@
         <v>878204</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="L7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="n">
@@ -849,22 +830,22 @@
         <v>41000</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="V7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,7 +856,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>25</v>
@@ -892,18 +873,14 @@
       <c r="H8" s="1" t="n">
         <v>878216</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="n">
+        <v>28815988</v>
+      </c>
       <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="O8" s="1" t="n">
         <v>1</v>
@@ -915,22 +892,22 @@
         <v>1031074</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="W8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -958,19 +935,17 @@
       <c r="H9" s="1" t="n">
         <v>878277</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="n">
+        <v>28793903</v>
+      </c>
       <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="O9" s="1" t="n">
         <v>1</v>
       </c>
@@ -981,22 +956,22 @@
         <v>123055</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
